--- a/carriers_source_analyses/woody_biomass.carrier.xlsx
+++ b/carriers_source_analyses/woody_biomass.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="45520" yWindow="-8640" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -500,10 +508,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
-</t>
   </si>
   <si>
     <t>EUR/tonne</t>
@@ -617,6 +621,30 @@
   </si>
   <si>
     <t>wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>rake import:carrier CARRIER="carrier name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -921,11 +949,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -958,6 +981,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2123,15 +2152,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2147,7 +2176,17 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="11" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2175,16 +2214,6 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="11" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="411">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -2601,80 +2630,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3396,7 +3360,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3509,12 +3473,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3523,6 +3488,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3857,42 +3823,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="1.875" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3901,7 +3867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3910,17 +3876,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="71" t="s">
         <v>15</v>
@@ -3928,13 +3894,13 @@
       <c r="C9" s="72"/>
       <c r="D9" s="176"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="177"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="73" t="s">
         <v>16</v>
@@ -3944,7 +3910,7 @@
       </c>
       <c r="D11" s="177"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="73"/>
       <c r="C12" s="18" t="s">
@@ -3952,7 +3918,7 @@
       </c>
       <c r="D12" s="177"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="73"/>
       <c r="C13" s="76" t="s">
@@ -3960,7 +3926,7 @@
       </c>
       <c r="D13" s="177"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="73"/>
       <c r="C14" s="74" t="s">
@@ -3968,13 +3934,13 @@
       </c>
       <c r="D14" s="177"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
       <c r="D15" s="177"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="73" t="s">
         <v>21</v>
@@ -3984,7 +3950,7 @@
       </c>
       <c r="D16" s="177"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="73"/>
       <c r="C17" s="78" t="s">
@@ -3992,7 +3958,7 @@
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="73"/>
       <c r="C18" s="79" t="s">
@@ -4000,7 +3966,7 @@
       </c>
       <c r="D18" s="177"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="73"/>
       <c r="C19" s="80" t="s">
@@ -4008,7 +3974,7 @@
       </c>
       <c r="D19" s="177"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82" t="s">
@@ -4016,7 +3982,7 @@
       </c>
       <c r="D20" s="177"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="81"/>
       <c r="C21" s="83" t="s">
@@ -4024,7 +3990,7 @@
       </c>
       <c r="D21" s="177"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="81"/>
       <c r="C22" s="84" t="s">
@@ -4032,14 +3998,14 @@
       </c>
       <c r="D22" s="177"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="81"/>
       <c r="C23" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="177"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="178"/>
       <c r="C24" s="179"/>
       <c r="D24" s="180"/>
@@ -4047,76 +4013,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="212" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="214"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="222" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="224"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="218"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="220"/>
+    <row r="4" spans="2:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="230"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4127,7 +4088,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:10" s="40" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="86"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
@@ -4148,7 +4109,7 @@
       </c>
       <c r="J7" s="88"/>
     </row>
-    <row r="8" spans="2:10" s="40" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -4159,7 +4120,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="2:10" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
         <v>148</v>
@@ -4172,7 +4133,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:10" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="93" t="s">
         <v>37</v>
@@ -4194,7 +4155,7 @@
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:10" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="99" t="s">
         <v>38</v>
@@ -4212,7 +4173,7 @@
       <c r="I11" s="175"/>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:10" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="99" t="s">
         <v>146</v>
@@ -4232,7 +4193,7 @@
       </c>
       <c r="J12" s="41"/>
     </row>
-    <row r="13" spans="2:10" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="34" t="s">
         <v>39</v>
@@ -4246,7 +4207,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="175" t="s">
@@ -4254,10 +4215,10 @@
       </c>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B14" s="222"/>
-      <c r="C14" s="221" t="s">
-        <v>164</v>
+    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="213"/>
+      <c r="C14" s="212" t="s">
+        <v>163</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>48</v>
@@ -4268,23 +4229,23 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="192" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="230" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="223"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="I14" s="221" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="214"/>
+    </row>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="228"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="219"/>
       <c r="J15" s="39"/>
     </row>
   </sheetData>
@@ -4293,43 +4254,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4344,35 +4268,34 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="61" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="61" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="61" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="61" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="61" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="62" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="61" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="61" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="61" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="62" customWidth="1"/>
     <col min="10" max="10" width="3" style="62" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="62" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="62" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="62" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="62" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="62" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="62" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="62" customWidth="1"/>
-    <col min="18" max="18" width="2.75" style="62" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="62" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="62" customWidth="1"/>
-    <col min="21" max="21" width="2.75" style="62" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="62" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="62" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="62" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="62" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="62" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="62" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="62" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="62" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="62" customWidth="1"/>
     <col min="22" max="22" width="60" style="61" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="61"/>
+    <col min="23" max="16384" width="10.7109375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="16" thickBot="1"/>
-    <row r="2" spans="2:22">
+    <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="63"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -4395,7 +4318,7 @@
       <c r="U2" s="65"/>
       <c r="V2" s="66"/>
     </row>
-    <row r="3" spans="2:22" s="24" customFormat="1">
+    <row r="3" spans="2:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="92" t="s">
         <v>30</v>
@@ -4426,21 +4349,21 @@
       </c>
       <c r="P3" s="60"/>
       <c r="Q3" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R3" s="60"/>
       <c r="S3" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T3" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U3" s="60"/>
       <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4463,7 +4386,7 @@
       <c r="U4" s="91"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="2:22" ht="16" thickBot="1">
+    <row r="5" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="18" t="s">
         <v>53</v>
@@ -4488,7 +4411,7 @@
       <c r="U5" s="16"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="2:22" ht="16" thickBot="1">
+    <row r="6" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="102" t="s">
         <v>37</v>
@@ -4520,10 +4443,10 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="186" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="103" t="s">
         <v>38</v>
@@ -4558,10 +4481,10 @@
       <c r="T7" s="208"/>
       <c r="U7" s="16"/>
       <c r="V7" s="186" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="103" t="s">
         <v>146</v>
@@ -4607,7 +4530,7 @@
       <c r="U8" s="16"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="2:22" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="104" t="s">
         <v>39</v>
@@ -4641,13 +4564,13 @@
       <c r="T9" s="209"/>
       <c r="U9" s="16"/>
       <c r="V9" s="186" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="16" thickBot="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67"/>
       <c r="C10" s="188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="188"/>
       <c r="E10" s="188"/>
@@ -4679,11 +4602,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4698,23 +4616,23 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="44" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="44"/>
+    <col min="7" max="7" width="10.28515625" style="44" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1"/>
-    <row r="2" spans="1:12">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -4727,7 +4645,7 @@
       <c r="K2" s="48"/>
       <c r="L2" s="47"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50" t="s">
         <v>11</v>
@@ -4742,7 +4660,7 @@
       <c r="K3" s="51"/>
       <c r="L3" s="52"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="49"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4755,7 +4673,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="52"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
         <v>13</v>
@@ -4784,7 +4702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -4797,7 +4715,7 @@
       <c r="K6" s="51"/>
       <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="44" t="s">
         <v>38</v>
@@ -4812,12 +4730,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="49"/>
       <c r="E8" s="164"/>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="114" t="s">
         <v>146</v>
@@ -4844,14 +4762,14 @@
       </c>
       <c r="L9" s="58"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="49"/>
       <c r="E10" s="112"/>
       <c r="F10" s="112"/>
       <c r="H10" s="172"/>
       <c r="I10" s="172"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="49"/>
       <c r="C11" s="115" t="s">
         <v>39</v>
@@ -4874,46 +4792,46 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="207" customFormat="1">
+    <row r="12" spans="1:12" s="207" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="202"/>
       <c r="B12" s="203"/>
       <c r="C12" s="197" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="204"/>
       <c r="E12" s="197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" s="197"/>
       <c r="G12" s="202" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="205" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I12" s="205"/>
       <c r="J12" s="205"/>
-      <c r="K12" s="229" t="s">
-        <v>167</v>
+      <c r="K12" s="220" t="s">
+        <v>166</v>
       </c>
       <c r="L12" s="206"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
       <c r="C13" s="174" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="49"/>
       <c r="C14" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="49"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="49"/>
       <c r="C16" s="114" t="s">
         <v>50</v>
@@ -4928,16 +4846,16 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="49"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="49"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="49"/>
       <c r="C19" s="114" t="s">
         <v>50</v>
@@ -4952,16 +4870,16 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="49"/>
       <c r="C20" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="49"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="49"/>
       <c r="E22" s="44" t="s">
         <v>120</v>
@@ -4973,10 +4891,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="49"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="49"/>
       <c r="E24" s="44" t="s">
         <v>89</v>
@@ -4988,26 +4906,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="49"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="49"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="49"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5019,22 +4932,22 @@
       <selection activeCell="H409" sqref="H409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="95" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="95" customWidth="1"/>
     <col min="2" max="2" width="5" style="95" customWidth="1"/>
     <col min="3" max="5" width="7" style="95"/>
-    <col min="6" max="6" width="11.25" style="95" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="95" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="95"/>
-    <col min="8" max="8" width="8.125" style="95" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="95" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="95" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="95" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="95" customWidth="1"/>
     <col min="12" max="16384" width="7" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" thickBot="1"/>
-    <row r="2" spans="1:25" s="24" customFormat="1">
+    <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="97"/>
       <c r="C2" s="98" t="s">
         <v>25</v>
@@ -5062,10 +4975,10 @@
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
     </row>
-    <row r="3" spans="1:25" s="24" customFormat="1">
+    <row r="3" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -5086,13 +4999,13 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:25" s="24" customFormat="1">
+    <row r="4" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="187" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -5110,13 +5023,13 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:25" s="24" customFormat="1">
+    <row r="5" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="187" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -5134,7 +5047,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:25" s="24" customFormat="1">
+    <row r="6" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5156,7 +5069,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:25" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="1:25" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5178,7 +5091,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:25" s="24" customFormat="1" ht="16">
+    <row r="8" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="97"/>
       <c r="C8" s="98" t="s">
@@ -5207,7 +5120,7 @@
       <c r="T8" s="98"/>
       <c r="U8" s="98"/>
     </row>
-    <row r="9" spans="1:25" s="121" customFormat="1" ht="16">
+    <row r="9" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="96"/>
       <c r="C9" s="149"/>
       <c r="D9" s="150"/>
@@ -5233,7 +5146,7 @@
       <c r="X9" s="150"/>
       <c r="Y9" s="150"/>
     </row>
-    <row r="10" spans="1:25" customFormat="1" ht="16">
+    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="96"/>
       <c r="C10" s="105" t="s">
         <v>56</v>
@@ -5261,7 +5174,7 @@
       <c r="X10" s="105"/>
       <c r="Y10" s="105"/>
     </row>
-    <row r="11" spans="1:25" customFormat="1" ht="16">
+    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="96"/>
       <c r="C11" s="105"/>
       <c r="D11" s="105"/>
@@ -5287,7 +5200,7 @@
       <c r="X11" s="105"/>
       <c r="Y11" s="105"/>
     </row>
-    <row r="12" spans="1:25" customFormat="1" ht="16">
+    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="96"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -5313,7 +5226,7 @@
       <c r="X12" s="105"/>
       <c r="Y12" s="105"/>
     </row>
-    <row r="13" spans="1:25" customFormat="1" ht="16">
+    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="96"/>
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
@@ -5339,7 +5252,7 @@
       <c r="X13" s="105"/>
       <c r="Y13" s="105"/>
     </row>
-    <row r="14" spans="1:25" customFormat="1" ht="16">
+    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="96"/>
       <c r="C14" s="105"/>
       <c r="D14" s="105">
@@ -5369,7 +5282,7 @@
       <c r="X14" s="105"/>
       <c r="Y14" s="105"/>
     </row>
-    <row r="15" spans="1:25" customFormat="1" ht="16">
+    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="96"/>
       <c r="C15" s="105"/>
       <c r="D15" s="105"/>
@@ -5400,7 +5313,7 @@
       <c r="X15" s="105"/>
       <c r="Y15" s="105"/>
     </row>
-    <row r="16" spans="1:25" customFormat="1" ht="16">
+    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="96"/>
       <c r="C16" s="105"/>
       <c r="D16" s="105"/>
@@ -5429,7 +5342,7 @@
       <c r="X16" s="105"/>
       <c r="Y16" s="105"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="96"/>
       <c r="C17" s="105"/>
       <c r="D17" s="105"/>
@@ -5458,7 +5371,7 @@
       <c r="X17" s="105"/>
       <c r="Y17" s="105"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="96"/>
       <c r="C18" s="105"/>
       <c r="D18" s="105"/>
@@ -5484,7 +5397,7 @@
       <c r="X18" s="105"/>
       <c r="Y18" s="105"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="96"/>
       <c r="C19" s="105"/>
       <c r="D19" s="105"/>
@@ -5510,7 +5423,7 @@
       <c r="X19" s="105"/>
       <c r="Y19" s="105"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="96"/>
       <c r="C20" s="105"/>
       <c r="D20" s="105"/>
@@ -5536,7 +5449,7 @@
       <c r="X20" s="105"/>
       <c r="Y20" s="105"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="96"/>
       <c r="C21" s="105"/>
       <c r="D21" s="105"/>
@@ -5562,7 +5475,7 @@
       <c r="X21" s="105"/>
       <c r="Y21" s="105"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="96"/>
       <c r="C22" s="105"/>
       <c r="D22" s="105"/>
@@ -5588,7 +5501,7 @@
       <c r="X22" s="105"/>
       <c r="Y22" s="105"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="96"/>
       <c r="C23" s="105"/>
       <c r="D23" s="105"/>
@@ -5614,7 +5527,7 @@
       <c r="X23" s="105"/>
       <c r="Y23" s="105"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="96"/>
       <c r="C24" s="105"/>
       <c r="D24" s="105"/>
@@ -5640,7 +5553,7 @@
       <c r="X24" s="105"/>
       <c r="Y24" s="105"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="96"/>
       <c r="C25" s="105"/>
       <c r="D25" s="105"/>
@@ -5666,7 +5579,7 @@
       <c r="X25" s="105"/>
       <c r="Y25" s="105"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="96"/>
       <c r="C26" s="105"/>
       <c r="D26" s="105"/>
@@ -5692,7 +5605,7 @@
       <c r="X26" s="105"/>
       <c r="Y26" s="105"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="96"/>
       <c r="C27" s="105"/>
       <c r="D27" s="105"/>
@@ -5718,7 +5631,7 @@
       <c r="X27" s="105"/>
       <c r="Y27" s="105"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="96"/>
       <c r="C28" s="105"/>
       <c r="D28" s="105"/>
@@ -5744,7 +5657,7 @@
       <c r="X28" s="105"/>
       <c r="Y28" s="105"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="96"/>
       <c r="C29" s="105"/>
       <c r="D29" s="105"/>
@@ -5770,7 +5683,7 @@
       <c r="X29" s="105"/>
       <c r="Y29" s="105"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="96"/>
       <c r="C30" s="105"/>
       <c r="D30" s="105"/>
@@ -5796,7 +5709,7 @@
       <c r="X30" s="105"/>
       <c r="Y30" s="105"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="96"/>
       <c r="C31" s="105"/>
       <c r="D31" s="105"/>
@@ -5822,7 +5735,7 @@
       <c r="X31" s="105"/>
       <c r="Y31" s="105"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="96"/>
       <c r="C32" s="105"/>
       <c r="D32" s="105"/>
@@ -5848,7 +5761,7 @@
       <c r="X32" s="105"/>
       <c r="Y32" s="105"/>
     </row>
-    <row r="33" spans="2:25" customFormat="1" ht="16">
+    <row r="33" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="96"/>
       <c r="C33" s="105"/>
       <c r="D33" s="105"/>
@@ -5874,7 +5787,7 @@
       <c r="X33" s="105"/>
       <c r="Y33" s="105"/>
     </row>
-    <row r="34" spans="2:25" customFormat="1" ht="16">
+    <row r="34" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="96"/>
       <c r="C34" s="105"/>
       <c r="D34" s="105"/>
@@ -5900,106 +5813,106 @@
       <c r="X34" s="105"/>
       <c r="Y34" s="105"/>
     </row>
-    <row r="35" spans="2:25" customFormat="1" ht="16">
+    <row r="35" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="96"/>
     </row>
-    <row r="36" spans="2:25" customFormat="1" ht="16">
+    <row r="36" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="96"/>
     </row>
-    <row r="37" spans="2:25" customFormat="1" ht="16">
+    <row r="37" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="96"/>
     </row>
-    <row r="38" spans="2:25" customFormat="1" ht="16">
+    <row r="38" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="96"/>
     </row>
-    <row r="39" spans="2:25" customFormat="1" ht="16">
+    <row r="39" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="96"/>
     </row>
-    <row r="40" spans="2:25" customFormat="1" ht="16">
+    <row r="40" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="96"/>
     </row>
-    <row r="41" spans="2:25" customFormat="1" ht="16">
+    <row r="41" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="96"/>
     </row>
-    <row r="42" spans="2:25" customFormat="1" ht="16">
+    <row r="42" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="96"/>
     </row>
-    <row r="43" spans="2:25" customFormat="1" ht="16">
+    <row r="43" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="96"/>
     </row>
-    <row r="44" spans="2:25" customFormat="1" ht="16">
+    <row r="44" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="96"/>
     </row>
-    <row r="45" spans="2:25" customFormat="1" ht="16">
+    <row r="45" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="96"/>
     </row>
-    <row r="46" spans="2:25" customFormat="1" ht="16">
+    <row r="46" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="96"/>
     </row>
-    <row r="47" spans="2:25" customFormat="1" ht="16">
+    <row r="47" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="96"/>
     </row>
-    <row r="48" spans="2:25" customFormat="1" ht="16">
+    <row r="48" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="96"/>
     </row>
-    <row r="49" spans="2:2" customFormat="1" ht="16">
+    <row r="49" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="96"/>
     </row>
-    <row r="50" spans="2:2" customFormat="1" ht="16">
+    <row r="50" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="96"/>
     </row>
-    <row r="51" spans="2:2" customFormat="1" ht="16">
+    <row r="51" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="96"/>
     </row>
-    <row r="52" spans="2:2" customFormat="1" ht="16">
+    <row r="52" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="96"/>
     </row>
-    <row r="53" spans="2:2" customFormat="1" ht="16">
+    <row r="53" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="96"/>
     </row>
-    <row r="54" spans="2:2" customFormat="1" ht="16">
+    <row r="54" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="96"/>
     </row>
-    <row r="55" spans="2:2" customFormat="1" ht="16">
+    <row r="55" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="96"/>
     </row>
-    <row r="56" spans="2:2" customFormat="1" ht="16">
+    <row r="56" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="96"/>
     </row>
-    <row r="57" spans="2:2" customFormat="1" ht="16">
+    <row r="57" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="96"/>
     </row>
-    <row r="58" spans="2:2" customFormat="1" ht="16">
+    <row r="58" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="96"/>
     </row>
-    <row r="59" spans="2:2" customFormat="1" ht="16">
+    <row r="59" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="96"/>
     </row>
-    <row r="60" spans="2:2" customFormat="1" ht="16">
+    <row r="60" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="96"/>
     </row>
-    <row r="61" spans="2:2" customFormat="1" ht="16">
+    <row r="61" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="96"/>
     </row>
-    <row r="62" spans="2:2" customFormat="1" ht="16">
+    <row r="62" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="96"/>
     </row>
-    <row r="63" spans="2:2" customFormat="1" ht="16">
+    <row r="63" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="96"/>
     </row>
-    <row r="64" spans="2:2" customFormat="1" ht="16">
+    <row r="64" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="96"/>
     </row>
-    <row r="65" spans="1:25" customFormat="1" ht="16">
+    <row r="65" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="96"/>
     </row>
-    <row r="66" spans="1:25" customFormat="1" ht="16">
+    <row r="66" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="96"/>
     </row>
-    <row r="67" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="67" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="96"/>
     </row>
-    <row r="68" spans="1:25" s="24" customFormat="1" ht="16">
+    <row r="68" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" s="97"/>
       <c r="C68" s="98" t="s">
@@ -6028,7 +5941,7 @@
       <c r="T68" s="98"/>
       <c r="U68" s="98"/>
     </row>
-    <row r="69" spans="1:25" s="121" customFormat="1" ht="16">
+    <row r="69" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="96"/>
       <c r="C69" s="149"/>
       <c r="D69" s="150"/>
@@ -6054,16 +5967,16 @@
       <c r="X69" s="150"/>
       <c r="Y69" s="150"/>
     </row>
-    <row r="70" spans="1:25" s="118" customFormat="1">
+    <row r="70" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="96"/>
       <c r="C70" s="118" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="118" customFormat="1">
+    <row r="71" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="96"/>
     </row>
-    <row r="72" spans="1:25" s="118" customFormat="1">
+    <row r="72" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="96"/>
       <c r="D72" s="151" t="s">
         <v>99</v>
@@ -6072,55 +5985,55 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:25" s="118" customFormat="1">
+    <row r="73" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="96"/>
       <c r="H73" s="157">
         <v>0.87</v>
       </c>
     </row>
-    <row r="74" spans="1:25" s="118" customFormat="1">
+    <row r="74" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="96"/>
     </row>
-    <row r="75" spans="1:25" s="118" customFormat="1">
+    <row r="75" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="96"/>
     </row>
-    <row r="76" spans="1:25" s="118" customFormat="1">
+    <row r="76" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="96"/>
     </row>
-    <row r="77" spans="1:25" s="118" customFormat="1">
+    <row r="77" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="96"/>
     </row>
-    <row r="78" spans="1:25" s="118" customFormat="1">
+    <row r="78" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="96"/>
     </row>
-    <row r="79" spans="1:25" s="118" customFormat="1">
+    <row r="79" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="96"/>
     </row>
-    <row r="80" spans="1:25" s="118" customFormat="1">
+    <row r="80" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="96"/>
     </row>
-    <row r="81" spans="2:10" s="118" customFormat="1">
+    <row r="81" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="96"/>
     </row>
-    <row r="82" spans="2:10" s="118" customFormat="1">
+    <row r="82" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="96"/>
     </row>
-    <row r="83" spans="2:10" s="118" customFormat="1">
+    <row r="83" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="96"/>
     </row>
-    <row r="84" spans="2:10" s="118" customFormat="1">
+    <row r="84" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="96"/>
     </row>
-    <row r="85" spans="2:10" s="118" customFormat="1">
+    <row r="85" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="96"/>
     </row>
-    <row r="86" spans="2:10" s="118" customFormat="1">
+    <row r="86" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="96"/>
     </row>
-    <row r="87" spans="2:10" s="118" customFormat="1">
+    <row r="87" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="96"/>
     </row>
-    <row r="88" spans="2:10" s="118" customFormat="1" ht="16">
+    <row r="88" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="96"/>
       <c r="D88">
         <v>1211</v>
@@ -6131,7 +6044,7 @@
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="2:10" s="118" customFormat="1" ht="16">
+    <row r="89" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="96"/>
       <c r="D89"/>
       <c r="F89" t="s">
@@ -6147,7 +6060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="118" customFormat="1" ht="16">
+    <row r="90" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="96"/>
       <c r="D90"/>
       <c r="F90"/>
@@ -6161,7 +6074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="2:10" s="118" customFormat="1" ht="16">
+    <row r="91" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="96"/>
       <c r="D91"/>
       <c r="F91" t="s">
@@ -6175,7 +6088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="2:10" s="118" customFormat="1" ht="16">
+    <row r="92" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="96"/>
       <c r="D92"/>
       <c r="F92"/>
@@ -6187,52 +6100,52 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="2:10" s="118" customFormat="1">
+    <row r="93" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="96"/>
     </row>
-    <row r="94" spans="2:10" s="118" customFormat="1">
+    <row r="94" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="96"/>
     </row>
-    <row r="95" spans="2:10" s="118" customFormat="1">
+    <row r="95" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="96"/>
     </row>
-    <row r="96" spans="2:10" s="118" customFormat="1">
+    <row r="96" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="96"/>
     </row>
-    <row r="97" spans="2:9" s="118" customFormat="1">
+    <row r="97" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="96"/>
     </row>
-    <row r="98" spans="2:9" s="118" customFormat="1">
+    <row r="98" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="96"/>
     </row>
-    <row r="99" spans="2:9" s="118" customFormat="1">
+    <row r="99" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="96"/>
     </row>
-    <row r="100" spans="2:9" s="118" customFormat="1">
+    <row r="100" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="96"/>
     </row>
-    <row r="101" spans="2:9" s="118" customFormat="1">
+    <row r="101" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="96"/>
     </row>
-    <row r="102" spans="2:9" s="118" customFormat="1">
+    <row r="102" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="96"/>
     </row>
-    <row r="103" spans="2:9" s="118" customFormat="1">
+    <row r="103" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="96"/>
     </row>
-    <row r="104" spans="2:9" s="118" customFormat="1">
+    <row r="104" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="96"/>
     </row>
-    <row r="105" spans="2:9" s="118" customFormat="1">
+    <row r="105" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="96"/>
     </row>
-    <row r="106" spans="2:9" s="118" customFormat="1">
+    <row r="106" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="96"/>
       <c r="D106" s="118">
         <v>1212</v>
       </c>
     </row>
-    <row r="107" spans="2:9" s="118" customFormat="1" ht="16">
+    <row r="107" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="96"/>
       <c r="F107" t="s">
         <v>100</v>
@@ -6244,25 +6157,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="118" customFormat="1">
+    <row r="108" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="96"/>
     </row>
-    <row r="109" spans="2:9" s="118" customFormat="1">
+    <row r="109" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="96"/>
     </row>
-    <row r="110" spans="2:9" s="118" customFormat="1">
+    <row r="110" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="96"/>
     </row>
-    <row r="111" spans="2:9" s="118" customFormat="1">
+    <row r="111" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="96"/>
     </row>
-    <row r="112" spans="2:9" s="118" customFormat="1">
+    <row r="112" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="96"/>
     </row>
-    <row r="113" spans="2:10" s="118" customFormat="1">
+    <row r="113" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="96"/>
     </row>
-    <row r="114" spans="2:10" s="118" customFormat="1">
+    <row r="114" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="96"/>
       <c r="F114" s="119" t="s">
         <v>102</v>
@@ -6271,16 +6184,16 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="115" spans="2:10" s="118" customFormat="1">
+    <row r="115" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="96"/>
     </row>
-    <row r="116" spans="2:10" s="118" customFormat="1">
+    <row r="116" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="96"/>
     </row>
-    <row r="117" spans="2:10" s="118" customFormat="1">
+    <row r="117" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="96"/>
     </row>
-    <row r="118" spans="2:10" s="118" customFormat="1">
+    <row r="118" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="96"/>
       <c r="D118" s="151">
         <v>1216</v>
@@ -6289,22 +6202,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:10" s="118" customFormat="1">
+    <row r="119" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="96"/>
     </row>
-    <row r="120" spans="2:10" s="118" customFormat="1">
+    <row r="120" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="96"/>
     </row>
-    <row r="121" spans="2:10" s="118" customFormat="1">
+    <row r="121" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="96"/>
     </row>
-    <row r="122" spans="2:10" s="118" customFormat="1">
+    <row r="122" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="96"/>
     </row>
-    <row r="123" spans="2:10" s="118" customFormat="1">
+    <row r="123" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="96"/>
     </row>
-    <row r="124" spans="2:10" s="118" customFormat="1">
+    <row r="124" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="96"/>
       <c r="H124" s="151">
         <v>17.7</v>
@@ -6316,16 +6229,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="2:10" s="118" customFormat="1">
+    <row r="125" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="96"/>
       <c r="H125" s="152"/>
       <c r="I125" s="152"/>
       <c r="J125" s="151"/>
     </row>
-    <row r="126" spans="2:10" s="118" customFormat="1">
+    <row r="126" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="96"/>
     </row>
-    <row r="127" spans="2:10" s="118" customFormat="1">
+    <row r="127" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="96"/>
       <c r="F127" s="159" t="s">
         <v>109</v>
@@ -6337,7 +6250,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="2:10" s="118" customFormat="1">
+    <row r="128" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="96"/>
       <c r="H128" s="118">
         <f>H127*1000</f>
@@ -6347,7 +6260,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="2:10" s="118" customFormat="1">
+    <row r="129" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="96"/>
       <c r="H129" s="118">
         <f>H128*100</f>
@@ -6357,12 +6270,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="2:10" s="118" customFormat="1">
+    <row r="130" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="96"/>
       <c r="H130" s="160"/>
       <c r="I130" s="159"/>
     </row>
-    <row r="131" spans="2:10" s="118" customFormat="1">
+    <row r="131" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="96"/>
       <c r="H131" s="160">
         <f>H129*H135</f>
@@ -6372,7 +6285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="2:10" s="118" customFormat="1">
+    <row r="132" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="96"/>
       <c r="F132" s="159" t="s">
         <v>130</v>
@@ -6385,13 +6298,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="2:10" s="118" customFormat="1">
+    <row r="133" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="96"/>
     </row>
-    <row r="134" spans="2:10" s="118" customFormat="1">
+    <row r="134" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="96"/>
     </row>
-    <row r="135" spans="2:10" s="118" customFormat="1">
+    <row r="135" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="96"/>
       <c r="D135" s="118">
         <v>1222</v>
@@ -6409,40 +6322,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="2:10" s="118" customFormat="1">
+    <row r="136" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="96"/>
     </row>
-    <row r="137" spans="2:10" s="118" customFormat="1">
+    <row r="137" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="96"/>
     </row>
-    <row r="138" spans="2:10" s="118" customFormat="1">
+    <row r="138" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="96"/>
     </row>
-    <row r="139" spans="2:10" s="118" customFormat="1">
+    <row r="139" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="96"/>
     </row>
-    <row r="140" spans="2:10" s="118" customFormat="1">
+    <row r="140" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="96"/>
     </row>
-    <row r="141" spans="2:10" s="118" customFormat="1">
+    <row r="141" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="96"/>
     </row>
-    <row r="142" spans="2:10" s="118" customFormat="1">
+    <row r="142" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="96"/>
     </row>
-    <row r="143" spans="2:10" s="118" customFormat="1">
+    <row r="143" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="96"/>
     </row>
-    <row r="144" spans="2:10" s="118" customFormat="1">
+    <row r="144" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="96"/>
     </row>
-    <row r="145" spans="1:25" s="118" customFormat="1">
+    <row r="145" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="96"/>
     </row>
-    <row r="146" spans="1:25" s="118" customFormat="1" ht="16" thickBot="1">
+    <row r="146" spans="1:25" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="96"/>
     </row>
-    <row r="147" spans="1:25" s="24" customFormat="1" ht="16">
+    <row r="147" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" s="97"/>
       <c r="C147" s="98" t="s">
@@ -6471,7 +6384,7 @@
       <c r="T147" s="98"/>
       <c r="U147" s="98"/>
     </row>
-    <row r="148" spans="1:25" s="121" customFormat="1" ht="16">
+    <row r="148" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="96"/>
       <c r="C148" s="149"/>
       <c r="D148" s="150"/>
@@ -6497,7 +6410,7 @@
       <c r="X148" s="150"/>
       <c r="Y148" s="150"/>
     </row>
-    <row r="149" spans="1:25" customFormat="1" ht="16">
+    <row r="149" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="96"/>
       <c r="C149" s="161" t="s">
         <v>113</v>
@@ -6524,7 +6437,7 @@
       <c r="W149" s="151"/>
       <c r="X149" s="151"/>
     </row>
-    <row r="150" spans="1:25" customFormat="1" ht="16">
+    <row r="150" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="96"/>
       <c r="C150" s="151"/>
       <c r="D150" s="151">
@@ -6553,7 +6466,7 @@
       <c r="W150" s="151"/>
       <c r="X150" s="151"/>
     </row>
-    <row r="151" spans="1:25" customFormat="1" ht="16">
+    <row r="151" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="96"/>
       <c r="C151" s="151"/>
       <c r="D151" s="151"/>
@@ -6578,7 +6491,7 @@
       <c r="W151" s="151"/>
       <c r="X151" s="151"/>
     </row>
-    <row r="152" spans="1:25" customFormat="1" ht="16">
+    <row r="152" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="96"/>
       <c r="C152" s="151"/>
       <c r="D152" s="151"/>
@@ -6603,7 +6516,7 @@
       <c r="W152" s="151"/>
       <c r="X152" s="151"/>
     </row>
-    <row r="153" spans="1:25" customFormat="1" ht="16">
+    <row r="153" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="96"/>
       <c r="C153" s="151"/>
       <c r="D153" s="151"/>
@@ -6628,7 +6541,7 @@
       <c r="W153" s="151"/>
       <c r="X153" s="151"/>
     </row>
-    <row r="154" spans="1:25" customFormat="1" ht="16">
+    <row r="154" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="96"/>
       <c r="C154" s="151"/>
       <c r="D154" s="151"/>
@@ -6655,7 +6568,7 @@
       <c r="W154" s="151"/>
       <c r="X154" s="151"/>
     </row>
-    <row r="155" spans="1:25" customFormat="1" ht="16">
+    <row r="155" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="96"/>
       <c r="C155" s="151"/>
       <c r="D155" s="151"/>
@@ -6680,7 +6593,7 @@
       <c r="W155" s="151"/>
       <c r="X155" s="151"/>
     </row>
-    <row r="156" spans="1:25" customFormat="1" ht="16">
+    <row r="156" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="96"/>
       <c r="C156" s="151"/>
       <c r="D156" s="154"/>
@@ -6709,7 +6622,7 @@
       <c r="W156" s="151"/>
       <c r="X156" s="151"/>
     </row>
-    <row r="157" spans="1:25" customFormat="1" ht="16">
+    <row r="157" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="96"/>
       <c r="C157" s="151"/>
       <c r="D157" s="154"/>
@@ -6740,7 +6653,7 @@
       <c r="W157" s="151"/>
       <c r="X157" s="151"/>
     </row>
-    <row r="158" spans="1:25" customFormat="1" ht="16">
+    <row r="158" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="96"/>
       <c r="C158" s="151"/>
       <c r="D158" s="154"/>
@@ -6771,7 +6684,7 @@
       <c r="W158" s="151"/>
       <c r="X158" s="151"/>
     </row>
-    <row r="159" spans="1:25" customFormat="1" ht="16">
+    <row r="159" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="96"/>
       <c r="C159" s="151"/>
       <c r="D159" s="154"/>
@@ -6800,7 +6713,7 @@
       <c r="W159" s="151"/>
       <c r="X159" s="151"/>
     </row>
-    <row r="160" spans="1:25" customFormat="1" ht="16">
+    <row r="160" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="96"/>
       <c r="C160" s="151"/>
       <c r="D160" s="154"/>
@@ -6833,7 +6746,7 @@
       <c r="W160" s="151"/>
       <c r="X160" s="151"/>
     </row>
-    <row r="161" spans="2:24" customFormat="1" ht="16">
+    <row r="161" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="96"/>
       <c r="C161" s="151"/>
       <c r="D161" s="154"/>
@@ -6866,7 +6779,7 @@
       <c r="W161" s="151"/>
       <c r="X161" s="151"/>
     </row>
-    <row r="162" spans="2:24" customFormat="1" ht="16">
+    <row r="162" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="96"/>
       <c r="C162" s="151"/>
       <c r="D162" s="154"/>
@@ -6897,7 +6810,7 @@
       <c r="W162" s="151"/>
       <c r="X162" s="151"/>
     </row>
-    <row r="163" spans="2:24" customFormat="1" ht="16">
+    <row r="163" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="96"/>
       <c r="C163" s="151"/>
       <c r="D163" s="154"/>
@@ -6933,7 +6846,7 @@
       <c r="W163" s="151"/>
       <c r="X163" s="151"/>
     </row>
-    <row r="164" spans="2:24" customFormat="1" ht="16">
+    <row r="164" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="96"/>
       <c r="C164" s="151"/>
       <c r="D164" s="154"/>
@@ -6969,7 +6882,7 @@
       <c r="W164" s="151"/>
       <c r="X164" s="151"/>
     </row>
-    <row r="165" spans="2:24" customFormat="1" ht="16">
+    <row r="165" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="96"/>
       <c r="C165" s="151"/>
       <c r="D165" s="154"/>
@@ -6997,7 +6910,7 @@
       <c r="W165" s="151"/>
       <c r="X165" s="151"/>
     </row>
-    <row r="166" spans="2:24" customFormat="1" ht="16">
+    <row r="166" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="96"/>
       <c r="C166" s="151"/>
       <c r="D166" s="154"/>
@@ -7031,7 +6944,7 @@
       <c r="W166" s="151"/>
       <c r="X166" s="151"/>
     </row>
-    <row r="167" spans="2:24" customFormat="1" ht="16">
+    <row r="167" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="96"/>
       <c r="C167" s="151"/>
       <c r="D167" s="151"/>
@@ -7056,7 +6969,7 @@
       <c r="W167" s="151"/>
       <c r="X167" s="151"/>
     </row>
-    <row r="168" spans="2:24" customFormat="1" ht="16">
+    <row r="168" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="96"/>
       <c r="C168" s="151"/>
       <c r="D168" s="151"/>
@@ -7081,7 +6994,7 @@
       <c r="W168" s="151"/>
       <c r="X168" s="151"/>
     </row>
-    <row r="169" spans="2:24" customFormat="1" ht="16">
+    <row r="169" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="96"/>
       <c r="C169" s="151"/>
       <c r="D169" s="151"/>
@@ -7106,7 +7019,7 @@
       <c r="W169" s="151"/>
       <c r="X169" s="151"/>
     </row>
-    <row r="170" spans="2:24" customFormat="1" ht="16">
+    <row r="170" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="96"/>
       <c r="C170" s="151"/>
       <c r="D170" s="151"/>
@@ -7131,7 +7044,7 @@
       <c r="W170" s="151"/>
       <c r="X170" s="151"/>
     </row>
-    <row r="171" spans="2:24" customFormat="1" ht="16">
+    <row r="171" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="96"/>
       <c r="C171" s="151"/>
       <c r="D171" s="151"/>
@@ -7156,7 +7069,7 @@
       <c r="W171" s="151"/>
       <c r="X171" s="151"/>
     </row>
-    <row r="172" spans="2:24" customFormat="1" ht="16">
+    <row r="172" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="96"/>
       <c r="C172" s="151"/>
       <c r="D172" s="151"/>
@@ -7181,7 +7094,7 @@
       <c r="W172" s="151"/>
       <c r="X172" s="151"/>
     </row>
-    <row r="173" spans="2:24" customFormat="1" ht="16">
+    <row r="173" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="96"/>
       <c r="C173" s="151"/>
       <c r="D173" s="151"/>
@@ -7206,7 +7119,7 @@
       <c r="W173" s="151"/>
       <c r="X173" s="151"/>
     </row>
-    <row r="174" spans="2:24" customFormat="1" ht="16">
+    <row r="174" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="96"/>
       <c r="C174" s="151"/>
       <c r="D174" s="151"/>
@@ -7231,7 +7144,7 @@
       <c r="W174" s="151"/>
       <c r="X174" s="151"/>
     </row>
-    <row r="175" spans="2:24" customFormat="1" ht="16">
+    <row r="175" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="96"/>
       <c r="C175" s="151"/>
       <c r="D175" s="151"/>
@@ -7256,7 +7169,7 @@
       <c r="W175" s="151"/>
       <c r="X175" s="151"/>
     </row>
-    <row r="176" spans="2:24" customFormat="1" ht="16">
+    <row r="176" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="96"/>
       <c r="C176" s="151"/>
       <c r="D176" s="151"/>
@@ -7281,7 +7194,7 @@
       <c r="W176" s="151"/>
       <c r="X176" s="151"/>
     </row>
-    <row r="177" spans="1:25" customFormat="1" ht="16">
+    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="96"/>
       <c r="C177" s="151"/>
       <c r="D177" s="151"/>
@@ -7306,7 +7219,7 @@
       <c r="W177" s="151"/>
       <c r="X177" s="151"/>
     </row>
-    <row r="178" spans="1:25" customFormat="1" ht="16">
+    <row r="178" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="96"/>
       <c r="C178" s="151"/>
       <c r="D178" s="151"/>
@@ -7331,7 +7244,7 @@
       <c r="W178" s="151"/>
       <c r="X178" s="151"/>
     </row>
-    <row r="179" spans="1:25" customFormat="1" ht="16">
+    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="96"/>
       <c r="C179" s="151"/>
       <c r="D179" s="151"/>
@@ -7356,7 +7269,7 @@
       <c r="W179" s="151"/>
       <c r="X179" s="151"/>
     </row>
-    <row r="180" spans="1:25" customFormat="1" ht="16">
+    <row r="180" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="96"/>
       <c r="C180" s="151"/>
       <c r="D180" s="151"/>
@@ -7381,7 +7294,7 @@
       <c r="W180" s="151"/>
       <c r="X180" s="151"/>
     </row>
-    <row r="181" spans="1:25" customFormat="1" ht="16">
+    <row r="181" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="96"/>
       <c r="C181" s="151"/>
       <c r="D181" s="151"/>
@@ -7406,7 +7319,7 @@
       <c r="W181" s="151"/>
       <c r="X181" s="151"/>
     </row>
-    <row r="182" spans="1:25" customFormat="1" ht="16">
+    <row r="182" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="96"/>
       <c r="C182" s="151"/>
       <c r="D182" s="151"/>
@@ -7431,7 +7344,7 @@
       <c r="W182" s="151"/>
       <c r="X182" s="151"/>
     </row>
-    <row r="183" spans="1:25" customFormat="1" ht="16">
+    <row r="183" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="96"/>
       <c r="C183" s="151"/>
       <c r="D183" s="151"/>
@@ -7456,7 +7369,7 @@
       <c r="W183" s="151"/>
       <c r="X183" s="151"/>
     </row>
-    <row r="184" spans="1:25" customFormat="1" ht="16">
+    <row r="184" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="96"/>
       <c r="C184" s="151"/>
       <c r="D184" s="151"/>
@@ -7481,7 +7394,7 @@
       <c r="W184" s="151"/>
       <c r="X184" s="151"/>
     </row>
-    <row r="185" spans="1:25" customFormat="1" ht="16">
+    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="96"/>
       <c r="C185" s="151"/>
       <c r="D185" s="151"/>
@@ -7506,7 +7419,7 @@
       <c r="W185" s="151"/>
       <c r="X185" s="151"/>
     </row>
-    <row r="186" spans="1:25" customFormat="1" ht="16">
+    <row r="186" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="96"/>
       <c r="C186" s="151"/>
       <c r="D186" s="151"/>
@@ -7531,7 +7444,7 @@
       <c r="W186" s="151"/>
       <c r="X186" s="151"/>
     </row>
-    <row r="187" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="187" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="96"/>
       <c r="C187" s="151"/>
       <c r="D187" s="151"/>
@@ -7556,7 +7469,7 @@
       <c r="W187" s="151"/>
       <c r="X187" s="151"/>
     </row>
-    <row r="188" spans="1:25" s="24" customFormat="1" ht="16">
+    <row r="188" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188" s="97"/>
       <c r="C188" s="98" t="s">
@@ -7585,7 +7498,7 @@
       <c r="T188" s="98"/>
       <c r="U188" s="98"/>
     </row>
-    <row r="189" spans="1:25" s="121" customFormat="1" ht="16">
+    <row r="189" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="96"/>
       <c r="C189" s="149"/>
       <c r="D189" s="150"/>
@@ -7611,7 +7524,7 @@
       <c r="X189" s="150"/>
       <c r="Y189" s="150"/>
     </row>
-    <row r="190" spans="1:25" customFormat="1" ht="16">
+    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="96"/>
       <c r="C190" s="151"/>
       <c r="D190" s="151"/>
@@ -7636,7 +7549,7 @@
       <c r="W190" s="151"/>
       <c r="X190" s="151"/>
     </row>
-    <row r="191" spans="1:25" customFormat="1" ht="16">
+    <row r="191" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="96"/>
       <c r="C191" s="151" t="s">
         <v>120</v>
@@ -7663,7 +7576,7 @@
       <c r="W191" s="151"/>
       <c r="X191" s="151"/>
     </row>
-    <row r="192" spans="1:25" customFormat="1" ht="16">
+    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="96"/>
       <c r="C192" s="151"/>
       <c r="D192" s="151"/>
@@ -7690,7 +7603,7 @@
       <c r="W192" s="151"/>
       <c r="X192" s="151"/>
     </row>
-    <row r="193" spans="2:24" customFormat="1" ht="16">
+    <row r="193" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="96"/>
       <c r="C193" s="151"/>
       <c r="D193" s="151"/>
@@ -7718,7 +7631,7 @@
       <c r="W193" s="151"/>
       <c r="X193" s="151"/>
     </row>
-    <row r="194" spans="2:24" customFormat="1" ht="16">
+    <row r="194" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="96"/>
       <c r="C194" s="151"/>
       <c r="D194" s="151" t="s">
@@ -7745,7 +7658,7 @@
       <c r="W194" s="151"/>
       <c r="X194" s="151"/>
     </row>
-    <row r="195" spans="2:24" customFormat="1" ht="16">
+    <row r="195" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="96"/>
       <c r="C195" s="151"/>
       <c r="D195" s="151"/>
@@ -7757,7 +7670,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H195" s="151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I195" s="151"/>
       <c r="J195" s="151"/>
@@ -7776,7 +7689,7 @@
       <c r="W195" s="151"/>
       <c r="X195" s="151"/>
     </row>
-    <row r="196" spans="2:24" customFormat="1" ht="16">
+    <row r="196" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="96"/>
       <c r="C196" s="151"/>
       <c r="D196" s="154"/>
@@ -7802,7 +7715,7 @@
       <c r="W196" s="151"/>
       <c r="X196" s="151"/>
     </row>
-    <row r="197" spans="2:24" customFormat="1" ht="16">
+    <row r="197" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="96"/>
       <c r="C197" s="151"/>
       <c r="D197" s="154"/>
@@ -7831,7 +7744,7 @@
       <c r="W197" s="151"/>
       <c r="X197" s="151"/>
     </row>
-    <row r="198" spans="2:24" customFormat="1" ht="16">
+    <row r="198" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="96"/>
       <c r="C198" s="151"/>
       <c r="D198" s="154"/>
@@ -7860,7 +7773,7 @@
       <c r="W198" s="151"/>
       <c r="X198" s="151"/>
     </row>
-    <row r="199" spans="2:24" customFormat="1" ht="16">
+    <row r="199" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="96"/>
       <c r="C199" s="151"/>
       <c r="D199" s="154"/>
@@ -7889,7 +7802,7 @@
       <c r="W199" s="151"/>
       <c r="X199" s="151"/>
     </row>
-    <row r="200" spans="2:24" customFormat="1" ht="16">
+    <row r="200" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="96"/>
       <c r="C200" s="151"/>
       <c r="D200" s="154"/>
@@ -7918,7 +7831,7 @@
       <c r="W200" s="151"/>
       <c r="X200" s="151"/>
     </row>
-    <row r="201" spans="2:24" customFormat="1" ht="16">
+    <row r="201" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="96"/>
       <c r="C201" s="151"/>
       <c r="D201" s="154"/>
@@ -7951,7 +7864,7 @@
       <c r="W201" s="151"/>
       <c r="X201" s="151"/>
     </row>
-    <row r="202" spans="2:24" customFormat="1" ht="16">
+    <row r="202" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="96"/>
       <c r="C202" s="151"/>
       <c r="D202" s="154"/>
@@ -7983,7 +7896,7 @@
       <c r="W202" s="151"/>
       <c r="X202" s="151"/>
     </row>
-    <row r="203" spans="2:24" customFormat="1" ht="16">
+    <row r="203" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="96"/>
       <c r="C203" s="151"/>
       <c r="D203" s="154"/>
@@ -8021,7 +7934,7 @@
       <c r="W203" s="151"/>
       <c r="X203" s="151"/>
     </row>
-    <row r="204" spans="2:24" customFormat="1" ht="16">
+    <row r="204" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="96"/>
       <c r="C204" s="151"/>
       <c r="D204" s="154"/>
@@ -8046,7 +7959,7 @@
       <c r="W204" s="151"/>
       <c r="X204" s="151"/>
     </row>
-    <row r="205" spans="2:24" customFormat="1" ht="16">
+    <row r="205" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="96"/>
       <c r="C205" s="151"/>
       <c r="D205" s="154"/>
@@ -8071,7 +7984,7 @@
       <c r="W205" s="151"/>
       <c r="X205" s="151"/>
     </row>
-    <row r="206" spans="2:24" customFormat="1" ht="16">
+    <row r="206" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="96"/>
       <c r="C206" s="151"/>
       <c r="D206" s="151"/>
@@ -8096,7 +8009,7 @@
       <c r="W206" s="151"/>
       <c r="X206" s="151"/>
     </row>
-    <row r="207" spans="2:24" customFormat="1" ht="16">
+    <row r="207" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="96"/>
       <c r="C207" s="151"/>
       <c r="D207" s="151"/>
@@ -8121,7 +8034,7 @@
       <c r="W207" s="151"/>
       <c r="X207" s="151"/>
     </row>
-    <row r="208" spans="2:24" customFormat="1" ht="16">
+    <row r="208" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="96"/>
       <c r="C208" s="151"/>
       <c r="D208" s="151"/>
@@ -8146,7 +8059,7 @@
       <c r="W208" s="151"/>
       <c r="X208" s="151"/>
     </row>
-    <row r="209" spans="2:24" customFormat="1" ht="16">
+    <row r="209" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="96"/>
       <c r="C209" s="151"/>
       <c r="D209" s="151"/>
@@ -8171,7 +8084,7 @@
       <c r="W209" s="151"/>
       <c r="X209" s="151"/>
     </row>
-    <row r="210" spans="2:24" customFormat="1" ht="16">
+    <row r="210" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="96"/>
       <c r="C210" s="151"/>
       <c r="D210" s="151"/>
@@ -8196,7 +8109,7 @@
       <c r="W210" s="151"/>
       <c r="X210" s="151"/>
     </row>
-    <row r="211" spans="2:24" customFormat="1" ht="16">
+    <row r="211" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="96"/>
       <c r="C211" s="151"/>
       <c r="D211" s="151"/>
@@ -8221,7 +8134,7 @@
       <c r="W211" s="151"/>
       <c r="X211" s="151"/>
     </row>
-    <row r="212" spans="2:24" customFormat="1" ht="16">
+    <row r="212" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="96"/>
       <c r="C212" s="151"/>
       <c r="D212" s="151"/>
@@ -8246,7 +8159,7 @@
       <c r="W212" s="151"/>
       <c r="X212" s="151"/>
     </row>
-    <row r="213" spans="2:24" customFormat="1" ht="16">
+    <row r="213" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="96"/>
       <c r="C213" s="151"/>
       <c r="D213" s="151"/>
@@ -8271,7 +8184,7 @@
       <c r="W213" s="151"/>
       <c r="X213" s="151"/>
     </row>
-    <row r="214" spans="2:24" customFormat="1" ht="16">
+    <row r="214" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="96"/>
       <c r="C214" s="151"/>
       <c r="D214" s="151"/>
@@ -8296,7 +8209,7 @@
       <c r="W214" s="151"/>
       <c r="X214" s="151"/>
     </row>
-    <row r="215" spans="2:24" customFormat="1" ht="16">
+    <row r="215" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="96"/>
       <c r="C215" s="151"/>
       <c r="D215" s="151"/>
@@ -8321,7 +8234,7 @@
       <c r="W215" s="151"/>
       <c r="X215" s="151"/>
     </row>
-    <row r="216" spans="2:24" customFormat="1" ht="16">
+    <row r="216" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="96"/>
       <c r="C216" s="151"/>
       <c r="D216" s="151"/>
@@ -8346,7 +8259,7 @@
       <c r="W216" s="151"/>
       <c r="X216" s="151"/>
     </row>
-    <row r="217" spans="2:24" customFormat="1" ht="16">
+    <row r="217" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="96"/>
       <c r="C217" s="151"/>
       <c r="D217" s="151"/>
@@ -8371,7 +8284,7 @@
       <c r="W217" s="151"/>
       <c r="X217" s="151"/>
     </row>
-    <row r="218" spans="2:24" customFormat="1" ht="16">
+    <row r="218" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="96"/>
       <c r="C218" s="151"/>
       <c r="D218" s="151"/>
@@ -8396,7 +8309,7 @@
       <c r="W218" s="151"/>
       <c r="X218" s="151"/>
     </row>
-    <row r="219" spans="2:24" customFormat="1" ht="16">
+    <row r="219" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="96"/>
       <c r="C219" s="151"/>
       <c r="D219" s="151"/>
@@ -8421,7 +8334,7 @@
       <c r="W219" s="151"/>
       <c r="X219" s="151"/>
     </row>
-    <row r="220" spans="2:24" customFormat="1" ht="16">
+    <row r="220" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="96"/>
       <c r="C220" s="151"/>
       <c r="D220" s="151"/>
@@ -8446,7 +8359,7 @@
       <c r="W220" s="151"/>
       <c r="X220" s="151"/>
     </row>
-    <row r="221" spans="2:24" customFormat="1" ht="16">
+    <row r="221" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="96"/>
       <c r="C221" s="151"/>
       <c r="D221" s="151"/>
@@ -8471,7 +8384,7 @@
       <c r="W221" s="151"/>
       <c r="X221" s="151"/>
     </row>
-    <row r="222" spans="2:24" customFormat="1" ht="16">
+    <row r="222" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="96"/>
       <c r="C222" s="151"/>
       <c r="D222" s="151"/>
@@ -8496,7 +8409,7 @@
       <c r="W222" s="151"/>
       <c r="X222" s="151"/>
     </row>
-    <row r="223" spans="2:24" customFormat="1" ht="16">
+    <row r="223" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="96"/>
       <c r="C223" s="151"/>
       <c r="D223" s="151"/>
@@ -8521,7 +8434,7 @@
       <c r="W223" s="151"/>
       <c r="X223" s="151"/>
     </row>
-    <row r="224" spans="2:24" customFormat="1" ht="16">
+    <row r="224" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="96"/>
       <c r="C224" s="151"/>
       <c r="D224" s="151"/>
@@ -8546,7 +8459,7 @@
       <c r="W224" s="151"/>
       <c r="X224" s="151"/>
     </row>
-    <row r="225" spans="1:25" customFormat="1" ht="16">
+    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="96"/>
       <c r="C225" s="151"/>
       <c r="D225" s="151"/>
@@ -8571,7 +8484,7 @@
       <c r="W225" s="151"/>
       <c r="X225" s="151"/>
     </row>
-    <row r="226" spans="1:25" customFormat="1" ht="16">
+    <row r="226" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="96"/>
       <c r="C226" s="151"/>
       <c r="D226" s="151"/>
@@ -8596,7 +8509,7 @@
       <c r="W226" s="151"/>
       <c r="X226" s="151"/>
     </row>
-    <row r="227" spans="1:25" customFormat="1" ht="16">
+    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="96"/>
       <c r="C227" s="151"/>
       <c r="D227" s="151"/>
@@ -8621,7 +8534,7 @@
       <c r="W227" s="151"/>
       <c r="X227" s="151"/>
     </row>
-    <row r="228" spans="1:25" customFormat="1" ht="16">
+    <row r="228" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="96"/>
       <c r="C228" s="151"/>
       <c r="D228" s="151"/>
@@ -8646,7 +8559,7 @@
       <c r="W228" s="151"/>
       <c r="X228" s="151"/>
     </row>
-    <row r="229" spans="1:25" customFormat="1" ht="16">
+    <row r="229" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="96"/>
       <c r="C229" s="151"/>
       <c r="D229" s="151"/>
@@ -8671,7 +8584,7 @@
       <c r="W229" s="151"/>
       <c r="X229" s="151"/>
     </row>
-    <row r="230" spans="1:25" customFormat="1" ht="16">
+    <row r="230" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="96"/>
       <c r="C230" s="151"/>
       <c r="D230" s="151"/>
@@ -8696,7 +8609,7 @@
       <c r="W230" s="151"/>
       <c r="X230" s="151"/>
     </row>
-    <row r="231" spans="1:25" customFormat="1" ht="16">
+    <row r="231" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="96"/>
       <c r="C231" s="151"/>
       <c r="D231" s="151"/>
@@ -8722,7 +8635,7 @@
       <c r="X231" s="151"/>
       <c r="Y231" s="151"/>
     </row>
-    <row r="232" spans="1:25" customFormat="1" ht="16">
+    <row r="232" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="96"/>
       <c r="C232" s="151"/>
       <c r="D232" s="151"/>
@@ -8748,7 +8661,7 @@
       <c r="X232" s="151"/>
       <c r="Y232" s="151"/>
     </row>
-    <row r="233" spans="1:25" customFormat="1" ht="16">
+    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="96"/>
       <c r="C233" s="151"/>
       <c r="D233" s="151"/>
@@ -8774,7 +8687,7 @@
       <c r="X233" s="151"/>
       <c r="Y233" s="151"/>
     </row>
-    <row r="234" spans="1:25" customFormat="1" ht="16">
+    <row r="234" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="96"/>
       <c r="C234" s="151"/>
       <c r="D234" s="151"/>
@@ -8800,10 +8713,10 @@
       <c r="X234" s="151"/>
       <c r="Y234" s="151"/>
     </row>
-    <row r="235" spans="1:25" s="118" customFormat="1" ht="16" thickBot="1">
+    <row r="235" spans="1:25" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B235" s="96"/>
     </row>
-    <row r="236" spans="1:25" s="118" customFormat="1">
+    <row r="236" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="97"/>
       <c r="C236" s="98" t="s">
         <v>25</v>
@@ -8831,7 +8744,7 @@
       <c r="T236" s="98"/>
       <c r="U236" s="98"/>
     </row>
-    <row r="237" spans="1:25" s="118" customFormat="1">
+    <row r="237" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="96"/>
       <c r="C237" s="149"/>
       <c r="D237" s="150"/>
@@ -8853,7 +8766,7 @@
       <c r="T237" s="150"/>
       <c r="U237" s="150"/>
     </row>
-    <row r="238" spans="1:25" customFormat="1" ht="16">
+    <row r="238" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="118"/>
       <c r="B238" s="96"/>
       <c r="C238" s="151" t="s">
@@ -8881,7 +8794,7 @@
       <c r="W238" s="151"/>
       <c r="X238" s="151"/>
     </row>
-    <row r="239" spans="1:25" customFormat="1" ht="16">
+    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="96"/>
       <c r="C239" s="95"/>
       <c r="D239" s="153">
@@ -8908,7 +8821,7 @@
       <c r="W239" s="151"/>
       <c r="X239" s="151"/>
     </row>
-    <row r="240" spans="1:25" customFormat="1" ht="16">
+    <row r="240" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="96"/>
       <c r="C240" s="151"/>
       <c r="D240" s="151"/>
@@ -8933,7 +8846,7 @@
       <c r="W240" s="151"/>
       <c r="X240" s="151"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" ht="16">
+    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="96"/>
       <c r="C241" s="151"/>
       <c r="D241" s="151"/>
@@ -8965,7 +8878,7 @@
       <c r="W241" s="151"/>
       <c r="X241" s="151"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" ht="16">
+    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="96"/>
       <c r="C242" s="151"/>
       <c r="D242" s="151"/>
@@ -8997,7 +8910,7 @@
       <c r="W242" s="151"/>
       <c r="X242" s="151"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" ht="16">
+    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="96"/>
       <c r="C243" s="151"/>
       <c r="D243" s="151"/>
@@ -9022,7 +8935,7 @@
       <c r="W243" s="151"/>
       <c r="X243" s="151"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" ht="16">
+    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="96"/>
       <c r="C244" s="151"/>
       <c r="D244" s="151"/>
@@ -9047,7 +8960,7 @@
       <c r="W244" s="151"/>
       <c r="X244" s="151"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" ht="16">
+    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="96"/>
       <c r="C245" s="151"/>
       <c r="D245" s="151"/>
@@ -9072,7 +8985,7 @@
       <c r="W245" s="151"/>
       <c r="X245" s="151"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" ht="16">
+    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="96"/>
       <c r="C246" s="151"/>
       <c r="D246" s="151"/>
@@ -9097,7 +9010,7 @@
       <c r="W246" s="151"/>
       <c r="X246" s="151"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" ht="16">
+    <row r="247" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="96"/>
       <c r="C247" s="151"/>
       <c r="D247" s="151"/>
@@ -9122,7 +9035,7 @@
       <c r="W247" s="151"/>
       <c r="X247" s="151"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" ht="16">
+    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="96"/>
       <c r="C248" s="151"/>
       <c r="D248" s="151"/>
@@ -9147,7 +9060,7 @@
       <c r="W248" s="151"/>
       <c r="X248" s="151"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" ht="16">
+    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="96"/>
       <c r="C249" s="151"/>
       <c r="D249" s="151"/>
@@ -9172,7 +9085,7 @@
       <c r="W249" s="151"/>
       <c r="X249" s="151"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" ht="16">
+    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="96"/>
       <c r="C250" s="151"/>
       <c r="D250" s="151"/>
@@ -9197,7 +9110,7 @@
       <c r="W250" s="151"/>
       <c r="X250" s="151"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" ht="16">
+    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="96"/>
       <c r="C251" s="151"/>
       <c r="D251" s="151"/>
@@ -9222,7 +9135,7 @@
       <c r="W251" s="151"/>
       <c r="X251" s="151"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" ht="16">
+    <row r="252" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="96"/>
       <c r="C252" s="151"/>
       <c r="D252" s="151"/>
@@ -9247,7 +9160,7 @@
       <c r="W252" s="151"/>
       <c r="X252" s="151"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" ht="16">
+    <row r="253" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="96"/>
       <c r="C253" s="151"/>
       <c r="D253" s="151"/>
@@ -9272,7 +9185,7 @@
       <c r="W253" s="151"/>
       <c r="X253" s="151"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" ht="16">
+    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="96"/>
       <c r="C254" s="151"/>
       <c r="D254" s="151"/>
@@ -9297,7 +9210,7 @@
       <c r="W254" s="151"/>
       <c r="X254" s="151"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" ht="16">
+    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="96"/>
       <c r="C255" s="151"/>
       <c r="D255" s="151"/>
@@ -9322,7 +9235,7 @@
       <c r="W255" s="151"/>
       <c r="X255" s="151"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" ht="16">
+    <row r="256" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="96"/>
       <c r="C256" s="151"/>
       <c r="D256" s="151"/>
@@ -9347,7 +9260,7 @@
       <c r="W256" s="151"/>
       <c r="X256" s="151"/>
     </row>
-    <row r="257" spans="1:24" customFormat="1" ht="16">
+    <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="96"/>
       <c r="C257" s="151"/>
       <c r="D257" s="151"/>
@@ -9372,7 +9285,7 @@
       <c r="W257" s="151"/>
       <c r="X257" s="151"/>
     </row>
-    <row r="258" spans="1:24" customFormat="1" ht="16">
+    <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="96"/>
       <c r="C258" s="151"/>
       <c r="D258" s="151"/>
@@ -9397,7 +9310,7 @@
       <c r="W258" s="151"/>
       <c r="X258" s="151"/>
     </row>
-    <row r="259" spans="1:24" customFormat="1" ht="16">
+    <row r="259" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="96"/>
       <c r="C259" s="151"/>
       <c r="D259" s="151"/>
@@ -9422,7 +9335,7 @@
       <c r="W259" s="151"/>
       <c r="X259" s="151"/>
     </row>
-    <row r="260" spans="1:24" customFormat="1" ht="16">
+    <row r="260" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="96"/>
       <c r="C260" s="151"/>
       <c r="D260" s="151"/>
@@ -9447,7 +9360,7 @@
       <c r="W260" s="151"/>
       <c r="X260" s="151"/>
     </row>
-    <row r="261" spans="1:24" customFormat="1" ht="16">
+    <row r="261" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="96"/>
       <c r="C261" s="151"/>
       <c r="D261" s="151"/>
@@ -9457,7 +9370,7 @@
       <c r="H261" s="151"/>
       <c r="I261" s="154"/>
       <c r="J261" s="154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K261" s="154" t="s">
         <v>93</v>
@@ -9465,7 +9378,7 @@
       <c r="L261" s="154"/>
       <c r="M261" s="154"/>
       <c r="N261" s="154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O261" s="154" t="s">
         <v>94</v>
@@ -9480,7 +9393,7 @@
       <c r="W261" s="151"/>
       <c r="X261" s="151"/>
     </row>
-    <row r="262" spans="1:24" customFormat="1" ht="16">
+    <row r="262" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="96"/>
       <c r="C262" s="151"/>
       <c r="D262" s="151"/>
@@ -9513,7 +9426,7 @@
       <c r="W262" s="151"/>
       <c r="X262" s="151"/>
     </row>
-    <row r="263" spans="1:24" customFormat="1" ht="16">
+    <row r="263" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="96"/>
       <c r="C263" s="151"/>
       <c r="D263" s="151"/>
@@ -9548,7 +9461,7 @@
       <c r="W263" s="151"/>
       <c r="X263" s="151"/>
     </row>
-    <row r="264" spans="1:24" customFormat="1" ht="16">
+    <row r="264" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="96"/>
       <c r="C264" s="151"/>
       <c r="D264" s="151"/>
@@ -9583,7 +9496,7 @@
       <c r="W264" s="151"/>
       <c r="X264" s="151"/>
     </row>
-    <row r="265" spans="1:24" customFormat="1" ht="16">
+    <row r="265" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="96"/>
       <c r="C265" s="151"/>
       <c r="D265" s="151"/>
@@ -9608,7 +9521,7 @@
       <c r="W265" s="151"/>
       <c r="X265" s="151"/>
     </row>
-    <row r="266" spans="1:24" customFormat="1" ht="16">
+    <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="96"/>
       <c r="C266" s="151"/>
       <c r="D266" s="151"/>
@@ -9633,7 +9546,7 @@
       <c r="W266" s="151"/>
       <c r="X266" s="151"/>
     </row>
-    <row r="267" spans="1:24" customFormat="1" ht="16">
+    <row r="267" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="96"/>
       <c r="C267" s="151"/>
       <c r="D267" s="151"/>
@@ -9662,7 +9575,7 @@
       <c r="W267" s="151"/>
       <c r="X267" s="151"/>
     </row>
-    <row r="268" spans="1:24" customFormat="1" ht="16">
+    <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="96"/>
       <c r="C268" s="151"/>
       <c r="D268" s="151"/>
@@ -9687,7 +9600,7 @@
       <c r="W268" s="151"/>
       <c r="X268" s="151"/>
     </row>
-    <row r="269" spans="1:24" customFormat="1" ht="16">
+    <row r="269" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="96"/>
       <c r="C269" s="151"/>
       <c r="D269" s="151"/>
@@ -9712,7 +9625,7 @@
       <c r="W269" s="151"/>
       <c r="X269" s="151"/>
     </row>
-    <row r="270" spans="1:24" ht="16">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270" s="96"/>
       <c r="C270" s="151"/>
@@ -9734,7 +9647,7 @@
       <c r="S270" s="151"/>
       <c r="T270" s="151"/>
     </row>
-    <row r="271" spans="1:24" ht="16">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271" s="96"/>
       <c r="C271" s="151"/>
@@ -9756,13 +9669,13 @@
       <c r="S271" s="151"/>
       <c r="T271" s="151"/>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B272" s="96"/>
     </row>
-    <row r="273" spans="1:25" ht="16" thickBot="1">
+    <row r="273" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B273" s="96"/>
     </row>
-    <row r="274" spans="1:25" s="24" customFormat="1" ht="16">
+    <row r="274" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274" s="97"/>
       <c r="C274" s="98" t="s">
@@ -9791,7 +9704,7 @@
       <c r="T274" s="98"/>
       <c r="U274" s="98"/>
     </row>
-    <row r="275" spans="1:25" customFormat="1" ht="16">
+    <row r="275" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="96"/>
       <c r="C275" s="108"/>
       <c r="D275" s="105"/>
@@ -9817,25 +9730,25 @@
       <c r="X275" s="105"/>
       <c r="Y275" s="105"/>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B276" s="96"/>
       <c r="C276" s="57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:25" s="118" customFormat="1">
+    <row r="277" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="96"/>
     </row>
-    <row r="278" spans="1:25" s="118" customFormat="1">
+    <row r="278" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="96"/>
     </row>
-    <row r="279" spans="1:25" s="118" customFormat="1">
+    <row r="279" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="96"/>
       <c r="D279" s="118">
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:25" s="118" customFormat="1">
+    <row r="280" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="96"/>
       <c r="F280" s="159" t="s">
         <v>101</v>
@@ -9847,7 +9760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="281" spans="1:25" s="118" customFormat="1">
+    <row r="281" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="96"/>
       <c r="H281" s="160">
         <f>H295*H280</f>
@@ -9857,7 +9770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="282" spans="1:25" s="118" customFormat="1">
+    <row r="282" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="96"/>
       <c r="H282" s="160">
         <f>H281*100</f>
@@ -9870,7 +9783,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="283" spans="1:25" s="118" customFormat="1">
+    <row r="283" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="96"/>
       <c r="H283" s="160">
         <f>H282*H73</f>
@@ -9883,37 +9796,37 @@
         <v>134</v>
       </c>
     </row>
-    <row r="284" spans="1:25" s="118" customFormat="1">
+    <row r="284" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="96"/>
     </row>
-    <row r="285" spans="1:25" s="118" customFormat="1">
+    <row r="285" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="96"/>
     </row>
-    <row r="286" spans="1:25" s="118" customFormat="1">
+    <row r="286" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="96"/>
     </row>
-    <row r="287" spans="1:25" s="118" customFormat="1">
+    <row r="287" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="96"/>
     </row>
-    <row r="288" spans="1:25" s="118" customFormat="1">
+    <row r="288" spans="1:25" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="96"/>
     </row>
-    <row r="289" spans="2:9" s="118" customFormat="1">
+    <row r="289" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="96"/>
     </row>
-    <row r="290" spans="2:9" s="118" customFormat="1">
+    <row r="290" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="96"/>
     </row>
-    <row r="291" spans="2:9" s="118" customFormat="1">
+    <row r="291" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="96"/>
     </row>
-    <row r="292" spans="2:9" s="118" customFormat="1">
+    <row r="292" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="96"/>
     </row>
-    <row r="293" spans="2:9" s="118" customFormat="1">
+    <row r="293" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="96"/>
     </row>
-    <row r="294" spans="2:9" s="118" customFormat="1">
+    <row r="294" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="96"/>
       <c r="F294" s="119" t="s">
         <v>85</v>
@@ -9925,7 +9838,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="295" spans="2:9" s="118" customFormat="1">
+    <row r="295" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="96"/>
       <c r="H295" s="118">
         <f>H294*1000</f>
@@ -9935,169 +9848,169 @@
         <v>87</v>
       </c>
     </row>
-    <row r="296" spans="2:9" s="118" customFormat="1">
+    <row r="296" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="96"/>
     </row>
-    <row r="297" spans="2:9" s="118" customFormat="1">
+    <row r="297" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="96"/>
     </row>
-    <row r="298" spans="2:9" s="118" customFormat="1">
+    <row r="298" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="96"/>
     </row>
-    <row r="299" spans="2:9" s="118" customFormat="1">
+    <row r="299" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="96"/>
     </row>
-    <row r="300" spans="2:9" s="118" customFormat="1">
+    <row r="300" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="96"/>
     </row>
-    <row r="301" spans="2:9" s="118" customFormat="1">
+    <row r="301" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="96"/>
     </row>
-    <row r="302" spans="2:9" s="118" customFormat="1">
+    <row r="302" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="96"/>
     </row>
-    <row r="303" spans="2:9" s="118" customFormat="1">
+    <row r="303" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="96"/>
     </row>
-    <row r="304" spans="2:9" s="118" customFormat="1">
+    <row r="304" spans="2:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="96"/>
     </row>
-    <row r="305" spans="2:2" s="118" customFormat="1">
+    <row r="305" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="96"/>
     </row>
-    <row r="306" spans="2:2" s="118" customFormat="1">
+    <row r="306" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="96"/>
     </row>
-    <row r="307" spans="2:2" s="118" customFormat="1">
+    <row r="307" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="96"/>
     </row>
-    <row r="308" spans="2:2" s="118" customFormat="1">
+    <row r="308" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="96"/>
     </row>
-    <row r="309" spans="2:2" s="118" customFormat="1">
+    <row r="309" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="96"/>
     </row>
-    <row r="310" spans="2:2" s="118" customFormat="1">
+    <row r="310" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="96"/>
     </row>
-    <row r="311" spans="2:2" s="118" customFormat="1">
+    <row r="311" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="96"/>
     </row>
-    <row r="312" spans="2:2" s="118" customFormat="1">
+    <row r="312" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="96"/>
     </row>
-    <row r="313" spans="2:2" s="118" customFormat="1">
+    <row r="313" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="96"/>
     </row>
-    <row r="314" spans="2:2" s="118" customFormat="1">
+    <row r="314" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="96"/>
     </row>
-    <row r="315" spans="2:2" s="118" customFormat="1">
+    <row r="315" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="96"/>
     </row>
-    <row r="316" spans="2:2" s="118" customFormat="1">
+    <row r="316" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="96"/>
     </row>
-    <row r="317" spans="2:2" s="118" customFormat="1">
+    <row r="317" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="96"/>
     </row>
-    <row r="318" spans="2:2" s="118" customFormat="1">
+    <row r="318" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="96"/>
     </row>
-    <row r="319" spans="2:2" s="118" customFormat="1">
+    <row r="319" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="96"/>
     </row>
-    <row r="320" spans="2:2" s="118" customFormat="1">
+    <row r="320" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="96"/>
     </row>
-    <row r="321" spans="2:2" s="118" customFormat="1">
+    <row r="321" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="96"/>
     </row>
-    <row r="322" spans="2:2" s="118" customFormat="1">
+    <row r="322" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="96"/>
     </row>
-    <row r="323" spans="2:2" s="118" customFormat="1">
+    <row r="323" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="96"/>
     </row>
-    <row r="324" spans="2:2" s="118" customFormat="1">
+    <row r="324" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="96"/>
     </row>
-    <row r="325" spans="2:2" s="118" customFormat="1">
+    <row r="325" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="96"/>
     </row>
-    <row r="326" spans="2:2" s="118" customFormat="1">
+    <row r="326" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="96"/>
     </row>
-    <row r="327" spans="2:2" s="118" customFormat="1">
+    <row r="327" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="96"/>
     </row>
-    <row r="328" spans="2:2" s="118" customFormat="1">
+    <row r="328" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="96"/>
     </row>
-    <row r="329" spans="2:2" s="118" customFormat="1">
+    <row r="329" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="96"/>
     </row>
-    <row r="330" spans="2:2" s="118" customFormat="1">
+    <row r="330" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="96"/>
     </row>
-    <row r="331" spans="2:2" s="118" customFormat="1">
+    <row r="331" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="96"/>
     </row>
-    <row r="332" spans="2:2" s="118" customFormat="1">
+    <row r="332" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="96"/>
     </row>
-    <row r="333" spans="2:2" s="118" customFormat="1">
+    <row r="333" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="96"/>
     </row>
-    <row r="334" spans="2:2" s="118" customFormat="1">
+    <row r="334" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="96"/>
     </row>
-    <row r="335" spans="2:2" s="118" customFormat="1">
+    <row r="335" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="96"/>
     </row>
-    <row r="336" spans="2:2" s="118" customFormat="1">
+    <row r="336" spans="2:2" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="96"/>
     </row>
-    <row r="337" spans="2:23" s="118" customFormat="1">
+    <row r="337" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="96"/>
     </row>
-    <row r="338" spans="2:23" s="118" customFormat="1">
+    <row r="338" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="96"/>
     </row>
-    <row r="339" spans="2:23" s="118" customFormat="1">
+    <row r="339" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="96"/>
     </row>
-    <row r="340" spans="2:23" s="118" customFormat="1">
+    <row r="340" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="96"/>
     </row>
-    <row r="341" spans="2:23" s="118" customFormat="1">
+    <row r="341" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="96"/>
     </row>
-    <row r="342" spans="2:23" s="118" customFormat="1">
+    <row r="342" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="96"/>
     </row>
-    <row r="343" spans="2:23" s="118" customFormat="1">
+    <row r="343" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="96"/>
     </row>
-    <row r="344" spans="2:23" s="118" customFormat="1">
+    <row r="344" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="96"/>
     </row>
-    <row r="345" spans="2:23" s="118" customFormat="1">
+    <row r="345" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="96"/>
     </row>
-    <row r="346" spans="2:23" s="118" customFormat="1">
+    <row r="346" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="96"/>
     </row>
-    <row r="347" spans="2:23" s="118" customFormat="1">
+    <row r="347" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="96"/>
     </row>
-    <row r="348" spans="2:23" s="118" customFormat="1">
+    <row r="348" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="96"/>
     </row>
-    <row r="349" spans="2:23" s="118" customFormat="1" ht="16" thickBot="1">
+    <row r="349" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B349" s="96"/>
     </row>
-    <row r="350" spans="2:23" s="118" customFormat="1" ht="96" thickBot="1">
+    <row r="350" spans="2:23" s="118" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B350" s="96"/>
       <c r="O350" s="120"/>
       <c r="P350" s="146" t="s">
@@ -10123,7 +10036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="351" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="351" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="96"/>
       <c r="O351" s="122" t="s">
         <v>71</v>
@@ -10139,7 +10052,7 @@
       <c r="V351" s="124"/>
       <c r="W351" s="125"/>
     </row>
-    <row r="352" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="352" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="96"/>
       <c r="F352" s="118" t="s">
         <v>43</v>
@@ -10170,7 +10083,7 @@
       <c r="V352" s="128"/>
       <c r="W352" s="129"/>
     </row>
-    <row r="353" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="353" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="96"/>
       <c r="F353" s="118" t="s">
         <v>44</v>
@@ -10198,7 +10111,7 @@
       <c r="V353" s="128"/>
       <c r="W353" s="129"/>
     </row>
-    <row r="354" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="354" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="96"/>
       <c r="F354" s="118" t="s">
         <v>47</v>
@@ -10228,7 +10141,7 @@
       <c r="V354" s="133"/>
       <c r="W354" s="129"/>
     </row>
-    <row r="355" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="355" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="96"/>
       <c r="F355" s="118" t="s">
         <v>46</v>
@@ -10258,7 +10171,7 @@
       <c r="V355" s="128"/>
       <c r="W355" s="134"/>
     </row>
-    <row r="356" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1">
+    <row r="356" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="96"/>
       <c r="F356" s="118" t="s">
         <v>39</v>
@@ -10282,7 +10195,7 @@
       <c r="V356" s="136"/>
       <c r="W356" s="137"/>
     </row>
-    <row r="357" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="357" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="96"/>
       <c r="F357" s="118" t="s">
         <v>45</v>
@@ -10307,7 +10220,7 @@
       <c r="V357" s="124"/>
       <c r="W357" s="125"/>
     </row>
-    <row r="358" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="358" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="96"/>
       <c r="O358" s="126" t="s">
         <v>72</v>
@@ -10323,7 +10236,7 @@
       <c r="V358" s="128"/>
       <c r="W358" s="129"/>
     </row>
-    <row r="359" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="359" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="96"/>
       <c r="O359" s="126" t="s">
         <v>74</v>
@@ -10343,7 +10256,7 @@
       <c r="V359" s="128"/>
       <c r="W359" s="129"/>
     </row>
-    <row r="360" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="360" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="96"/>
       <c r="O360" s="126" t="s">
         <v>76</v>
@@ -10357,7 +10270,7 @@
       <c r="V360" s="128"/>
       <c r="W360" s="129"/>
     </row>
-    <row r="361" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="361" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="96"/>
       <c r="O361" s="126" t="s">
         <v>77</v>
@@ -10377,7 +10290,7 @@
       <c r="V361" s="128"/>
       <c r="W361" s="134"/>
     </row>
-    <row r="362" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1">
+    <row r="362" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B362" s="96"/>
       <c r="O362" s="116" t="s">
         <v>78</v>
@@ -10393,7 +10306,7 @@
       <c r="V362" s="136"/>
       <c r="W362" s="137"/>
     </row>
-    <row r="363" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="363" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="96"/>
       <c r="O363" s="122" t="s">
         <v>80</v>
@@ -10409,7 +10322,7 @@
       <c r="V363" s="124"/>
       <c r="W363" s="125"/>
     </row>
-    <row r="364" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="364" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="96"/>
       <c r="O364" s="126" t="s">
         <v>72</v>
@@ -10429,7 +10342,7 @@
       <c r="V364" s="128"/>
       <c r="W364" s="134"/>
     </row>
-    <row r="365" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="365" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="96"/>
       <c r="O365" s="126" t="s">
         <v>74</v>
@@ -10445,7 +10358,7 @@
       <c r="V365" s="128"/>
       <c r="W365" s="134"/>
     </row>
-    <row r="366" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="366" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="96"/>
       <c r="O366" s="126" t="s">
         <v>76</v>
@@ -10459,7 +10372,7 @@
       <c r="V366" s="128"/>
       <c r="W366" s="134"/>
     </row>
-    <row r="367" spans="2:23" s="118" customFormat="1" ht="16">
+    <row r="367" spans="2:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="96"/>
       <c r="O367" s="126" t="s">
         <v>77</v>
@@ -10479,7 +10392,7 @@
       <c r="V367" s="128"/>
       <c r="W367" s="134"/>
     </row>
-    <row r="368" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1">
+    <row r="368" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B368" s="96"/>
       <c r="O368" s="116" t="s">
         <v>78</v>
@@ -10493,7 +10406,7 @@
       <c r="V368" s="136"/>
       <c r="W368" s="137"/>
     </row>
-    <row r="369" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="369" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="96"/>
       <c r="O369" s="122" t="s">
         <v>81</v>
@@ -10509,7 +10422,7 @@
       <c r="V369" s="141"/>
       <c r="W369" s="142"/>
     </row>
-    <row r="370" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="370" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="96"/>
       <c r="O370" s="126" t="s">
         <v>72</v>
@@ -10525,7 +10438,7 @@
       <c r="V370" s="128"/>
       <c r="W370" s="134"/>
     </row>
-    <row r="371" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="371" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="96"/>
       <c r="O371" s="126" t="s">
         <v>74</v>
@@ -10545,7 +10458,7 @@
         <v>2.8648369907752248E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="372" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="96"/>
       <c r="O372" s="126" t="s">
         <v>76</v>
@@ -10559,7 +10472,7 @@
       <c r="V372" s="128"/>
       <c r="W372" s="134"/>
     </row>
-    <row r="373" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="373" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="96"/>
       <c r="O373" s="126" t="s">
         <v>77</v>
@@ -10579,7 +10492,7 @@
       <c r="V373" s="128"/>
       <c r="W373" s="134"/>
     </row>
-    <row r="374" spans="1:23" s="118" customFormat="1" ht="17" thickBot="1">
+    <row r="374" spans="1:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B374" s="96"/>
       <c r="O374" s="116" t="s">
         <v>78</v>
@@ -10597,7 +10510,7 @@
       <c r="V374" s="144"/>
       <c r="W374" s="145"/>
     </row>
-    <row r="375" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="375" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="96"/>
       <c r="O375" s="122" t="s">
         <v>82</v>
@@ -10613,7 +10526,7 @@
       <c r="V375" s="124"/>
       <c r="W375" s="125"/>
     </row>
-    <row r="376" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="376" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="96"/>
       <c r="O376" s="126" t="s">
         <v>72</v>
@@ -10629,7 +10542,7 @@
       <c r="V376" s="128"/>
       <c r="W376" s="129"/>
     </row>
-    <row r="377" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="377" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="96"/>
       <c r="O377" s="126" t="s">
         <v>74</v>
@@ -10645,7 +10558,7 @@
       <c r="V377" s="128"/>
       <c r="W377" s="129"/>
     </row>
-    <row r="378" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="378" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="96"/>
       <c r="O378" s="126" t="s">
         <v>76</v>
@@ -10659,7 +10572,7 @@
       <c r="V378" s="128"/>
       <c r="W378" s="129"/>
     </row>
-    <row r="379" spans="1:23" s="118" customFormat="1" ht="16">
+    <row r="379" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="96"/>
       <c r="O379" s="126" t="s">
         <v>77</v>
@@ -10673,7 +10586,7 @@
       <c r="V379" s="128"/>
       <c r="W379" s="129"/>
     </row>
-    <row r="380" spans="1:23" s="118" customFormat="1" ht="17" thickBot="1">
+    <row r="380" spans="1:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B380" s="96"/>
       <c r="O380" s="116" t="s">
         <v>78</v>
@@ -10687,16 +10600,16 @@
       <c r="V380" s="136"/>
       <c r="W380" s="137"/>
     </row>
-    <row r="381" spans="1:23" s="118" customFormat="1">
+    <row r="381" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="96"/>
     </row>
-    <row r="382" spans="1:23" s="118" customFormat="1">
+    <row r="382" spans="1:23" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="96"/>
     </row>
-    <row r="383" spans="1:23" s="118" customFormat="1" ht="16" thickBot="1">
+    <row r="383" spans="1:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B383" s="96"/>
     </row>
-    <row r="384" spans="1:23" s="24" customFormat="1" ht="16">
+    <row r="384" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384"/>
       <c r="B384" s="97"/>
       <c r="C384" s="98" t="s">
@@ -10725,7 +10638,7 @@
       <c r="T384" s="98"/>
       <c r="U384" s="98"/>
     </row>
-    <row r="385" spans="2:35" customFormat="1" ht="16">
+    <row r="385" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="96"/>
       <c r="C385" s="108"/>
       <c r="D385" s="105"/>
@@ -10751,7 +10664,7 @@
       <c r="X385" s="105"/>
       <c r="Y385" s="105"/>
     </row>
-    <row r="386" spans="2:35" ht="16">
+    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B386" s="96"/>
       <c r="C386" s="164" t="s">
         <v>139</v>
@@ -10760,7 +10673,7 @@
         <v>139.09</v>
       </c>
       <c r="G386" s="151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H386" s="167" t="s">
         <v>140</v>
@@ -10772,7 +10685,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="387" spans="2:35">
+    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B387" s="96"/>
       <c r="F387" s="182">
         <f>'Research data'!G8</f>
@@ -10783,36 +10696,36 @@
       </c>
       <c r="H387" s="165"/>
     </row>
-    <row r="388" spans="2:35">
+    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B388" s="96"/>
       <c r="F388" s="95">
         <f>F387*1000</f>
         <v>17800</v>
       </c>
       <c r="G388" s="181" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="389" spans="2:35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B389" s="96"/>
       <c r="F389" s="183">
         <f>F386/F388</f>
         <v>7.8140449438202243E-3</v>
       </c>
     </row>
-    <row r="390" spans="2:35">
+    <row r="390" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B390" s="96"/>
     </row>
-    <row r="391" spans="2:35">
+    <row r="391" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B391" s="96"/>
     </row>
-    <row r="392" spans="2:35">
+    <row r="392" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B392" s="96"/>
     </row>
-    <row r="393" spans="2:35" ht="16" thickBot="1">
+    <row r="393" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B393" s="96"/>
     </row>
-    <row r="394" spans="2:35">
+    <row r="394" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B394" s="193"/>
       <c r="C394" s="194" t="s">
         <v>25</v>
@@ -10854,7 +10767,7 @@
       <c r="AH394" s="195"/>
       <c r="AI394" s="195"/>
     </row>
-    <row r="395" spans="2:35">
+    <row r="395" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B395" s="196"/>
       <c r="C395" s="197"/>
       <c r="D395" s="197"/>
@@ -10890,10 +10803,10 @@
       <c r="AH395" s="197"/>
       <c r="AI395" s="197"/>
     </row>
-    <row r="396" spans="2:35" ht="16">
+    <row r="396" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B396" s="196"/>
       <c r="C396" s="198" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D396" s="199"/>
       <c r="E396" s="199"/>
@@ -10928,7 +10841,7 @@
       <c r="AH396" s="200"/>
       <c r="AI396" s="200"/>
     </row>
-    <row r="397" spans="2:35" ht="16">
+    <row r="397" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B397" s="196"/>
       <c r="C397" s="199"/>
       <c r="D397" s="199"/>
@@ -10964,7 +10877,7 @@
       <c r="AH397" s="200"/>
       <c r="AI397" s="200"/>
     </row>
-    <row r="398" spans="2:35" ht="16">
+    <row r="398" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B398" s="196"/>
       <c r="C398" s="199"/>
       <c r="D398" s="199"/>
@@ -11000,7 +10913,7 @@
       <c r="AH398" s="200"/>
       <c r="AI398" s="200"/>
     </row>
-    <row r="399" spans="2:35" ht="16">
+    <row r="399" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B399" s="196"/>
       <c r="C399" s="211"/>
       <c r="D399" s="211"/>
@@ -11036,7 +10949,7 @@
       <c r="AH399" s="200"/>
       <c r="AI399" s="200"/>
     </row>
-    <row r="400" spans="2:35" ht="16">
+    <row r="400" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B400" s="196"/>
       <c r="C400" s="211"/>
       <c r="D400" s="211"/>
@@ -11072,7 +10985,7 @@
       <c r="AH400" s="200"/>
       <c r="AI400" s="200"/>
     </row>
-    <row r="401" spans="2:35" ht="16">
+    <row r="401" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B401" s="196"/>
       <c r="C401" s="211"/>
       <c r="D401" s="118"/>
@@ -11108,7 +11021,7 @@
       <c r="AH401" s="200"/>
       <c r="AI401" s="200"/>
     </row>
-    <row r="402" spans="2:35" ht="16">
+    <row r="402" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B402" s="196"/>
       <c r="C402" s="211"/>
       <c r="D402" s="118"/>
@@ -11144,7 +11057,7 @@
       <c r="AH402" s="200"/>
       <c r="AI402" s="200"/>
     </row>
-    <row r="403" spans="2:35" ht="16">
+    <row r="403" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B403" s="196"/>
       <c r="C403" s="211"/>
       <c r="D403" s="118"/>
@@ -11180,7 +11093,7 @@
       <c r="AH403" s="200"/>
       <c r="AI403" s="200"/>
     </row>
-    <row r="404" spans="2:35" ht="16">
+    <row r="404" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B404" s="196"/>
       <c r="C404" s="150"/>
       <c r="D404" s="150"/>
@@ -11216,7 +11129,7 @@
       <c r="AH404" s="200"/>
       <c r="AI404" s="200"/>
     </row>
-    <row r="405" spans="2:35" ht="16">
+    <row r="405" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B405" s="196"/>
       <c r="C405" s="150"/>
       <c r="D405" s="150"/>
@@ -11252,7 +11165,7 @@
       <c r="AH405" s="200"/>
       <c r="AI405" s="200"/>
     </row>
-    <row r="406" spans="2:35" ht="16">
+    <row r="406" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B406" s="196"/>
       <c r="C406" s="150"/>
       <c r="D406" s="150"/>
@@ -11288,7 +11201,7 @@
       <c r="AH406" s="200"/>
       <c r="AI406" s="200"/>
     </row>
-    <row r="407" spans="2:35" ht="16">
+    <row r="407" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B407" s="196"/>
       <c r="C407" s="105"/>
       <c r="D407" s="105"/>
@@ -11324,7 +11237,7 @@
       <c r="AH407" s="200"/>
       <c r="AI407" s="200"/>
     </row>
-    <row r="408" spans="2:35" ht="16">
+    <row r="408" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B408" s="196"/>
       <c r="C408" s="105"/>
       <c r="D408" s="105"/>
@@ -11360,7 +11273,7 @@
       <c r="AH408" s="200"/>
       <c r="AI408" s="200"/>
     </row>
-    <row r="409" spans="2:35" ht="16">
+    <row r="409" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B409" s="196"/>
       <c r="C409" s="105"/>
       <c r="D409" s="105"/>
@@ -11396,7 +11309,7 @@
       <c r="AH409" s="200"/>
       <c r="AI409" s="200"/>
     </row>
-    <row r="410" spans="2:35" ht="16">
+    <row r="410" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B410" s="196"/>
       <c r="C410" s="105"/>
       <c r="D410" s="105"/>
@@ -11432,7 +11345,7 @@
       <c r="AH410" s="200"/>
       <c r="AI410" s="200"/>
     </row>
-    <row r="411" spans="2:35" ht="16">
+    <row r="411" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B411" s="196"/>
       <c r="C411" s="105"/>
       <c r="D411" s="105"/>
@@ -11468,7 +11381,7 @@
       <c r="AH411" s="200"/>
       <c r="AI411" s="200"/>
     </row>
-    <row r="412" spans="2:35" ht="16">
+    <row r="412" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B412" s="196"/>
       <c r="C412" s="105"/>
       <c r="D412" s="105"/>
@@ -11504,7 +11417,7 @@
       <c r="AH412" s="200"/>
       <c r="AI412" s="200"/>
     </row>
-    <row r="413" spans="2:35" ht="16">
+    <row r="413" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B413" s="196"/>
       <c r="C413" s="105"/>
       <c r="D413" s="105"/>
@@ -11540,7 +11453,7 @@
       <c r="AH413" s="200"/>
       <c r="AI413" s="200"/>
     </row>
-    <row r="414" spans="2:35" ht="16">
+    <row r="414" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B414" s="196"/>
       <c r="C414" s="105"/>
       <c r="D414" s="105"/>
@@ -11576,7 +11489,7 @@
       <c r="AH414" s="200"/>
       <c r="AI414" s="200"/>
     </row>
-    <row r="415" spans="2:35" ht="16">
+    <row r="415" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B415" s="196"/>
       <c r="C415" s="105"/>
       <c r="D415" s="105"/>
@@ -11612,7 +11525,7 @@
       <c r="AH415" s="200"/>
       <c r="AI415" s="200"/>
     </row>
-    <row r="416" spans="2:35" ht="16">
+    <row r="416" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B416" s="196"/>
       <c r="C416" s="105"/>
       <c r="D416" s="105"/>
@@ -11648,7 +11561,7 @@
       <c r="AH416" s="200"/>
       <c r="AI416" s="200"/>
     </row>
-    <row r="417" spans="2:35" ht="16">
+    <row r="417" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B417" s="196"/>
       <c r="C417" s="105"/>
       <c r="D417" s="199">
@@ -11660,10 +11573,10 @@
         <v>112000</v>
       </c>
       <c r="H417" s="199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I417" s="199" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J417" s="105"/>
       <c r="K417" s="105"/>
@@ -11692,7 +11605,7 @@
       <c r="AH417" s="200"/>
       <c r="AI417" s="200"/>
     </row>
-    <row r="418" spans="2:35" ht="16">
+    <row r="418" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B418" s="196"/>
       <c r="C418" s="105"/>
       <c r="D418" s="199"/>
@@ -11703,7 +11616,7 @@
         <v>1000000</v>
       </c>
       <c r="H418" s="199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I418" s="199"/>
       <c r="J418" s="105"/>
@@ -11733,7 +11646,7 @@
       <c r="AH418" s="200"/>
       <c r="AI418" s="200"/>
     </row>
-    <row r="419" spans="2:35" ht="16">
+    <row r="419" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B419" s="196"/>
       <c r="C419" s="105"/>
       <c r="D419" s="199"/>
@@ -11744,7 +11657,7 @@
         <v>0.112</v>
       </c>
       <c r="H419" s="199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I419" s="199"/>
       <c r="J419" s="105"/>
@@ -11774,7 +11687,7 @@
       <c r="AH419" s="200"/>
       <c r="AI419" s="200"/>
     </row>
-    <row r="420" spans="2:35" ht="16">
+    <row r="420" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B420" s="196"/>
       <c r="C420" s="105"/>
       <c r="D420" s="105"/>
@@ -11810,7 +11723,7 @@
       <c r="AH420" s="200"/>
       <c r="AI420" s="200"/>
     </row>
-    <row r="421" spans="2:35" ht="16">
+    <row r="421" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B421" s="196"/>
       <c r="C421" s="200"/>
       <c r="D421" s="200"/>
@@ -11846,7 +11759,7 @@
       <c r="AH421" s="200"/>
       <c r="AI421" s="200"/>
     </row>
-    <row r="422" spans="2:35" ht="16">
+    <row r="422" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B422" s="196"/>
       <c r="C422" s="200"/>
       <c r="D422" s="200"/>
@@ -11882,7 +11795,7 @@
       <c r="AH422" s="200"/>
       <c r="AI422" s="200"/>
     </row>
-    <row r="423" spans="2:35" ht="16">
+    <row r="423" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B423" s="196"/>
       <c r="C423" s="200"/>
       <c r="D423" s="200"/>
@@ -11918,7 +11831,7 @@
       <c r="AH423" s="200"/>
       <c r="AI423" s="200"/>
     </row>
-    <row r="424" spans="2:35" ht="16">
+    <row r="424" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B424" s="196"/>
       <c r="C424" s="200"/>
       <c r="D424" s="200"/>
@@ -11954,7 +11867,7 @@
       <c r="AH424" s="200"/>
       <c r="AI424" s="200"/>
     </row>
-    <row r="425" spans="2:35" ht="16">
+    <row r="425" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B425" s="196"/>
       <c r="C425" s="200"/>
       <c r="D425" s="200"/>
@@ -11990,7 +11903,7 @@
       <c r="AH425" s="200"/>
       <c r="AI425" s="200"/>
     </row>
-    <row r="426" spans="2:35" ht="16">
+    <row r="426" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B426" s="196"/>
       <c r="C426" s="200"/>
       <c r="D426" s="200"/>
@@ -12026,7 +11939,7 @@
       <c r="AH426" s="200"/>
       <c r="AI426" s="200"/>
     </row>
-    <row r="427" spans="2:35" ht="16">
+    <row r="427" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B427" s="196"/>
       <c r="C427" s="200"/>
       <c r="D427" s="200"/>
@@ -12062,7 +11975,7 @@
       <c r="AH427" s="200"/>
       <c r="AI427" s="200"/>
     </row>
-    <row r="428" spans="2:35" ht="16">
+    <row r="428" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B428" s="196"/>
       <c r="C428" s="200"/>
       <c r="D428" s="200"/>
@@ -12098,7 +12011,7 @@
       <c r="AH428" s="200"/>
       <c r="AI428" s="200"/>
     </row>
-    <row r="429" spans="2:35" ht="16">
+    <row r="429" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B429" s="196"/>
       <c r="C429" s="200"/>
       <c r="D429" s="200"/>
@@ -12134,7 +12047,7 @@
       <c r="AH429" s="200"/>
       <c r="AI429" s="200"/>
     </row>
-    <row r="430" spans="2:35" ht="16">
+    <row r="430" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B430" s="196"/>
       <c r="C430" s="200"/>
       <c r="D430" s="200"/>
@@ -12170,7 +12083,7 @@
       <c r="AH430" s="200"/>
       <c r="AI430" s="200"/>
     </row>
-    <row r="431" spans="2:35" ht="16">
+    <row r="431" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B431" s="196"/>
       <c r="C431" s="200"/>
       <c r="D431" s="200"/>
@@ -12206,7 +12119,7 @@
       <c r="AH431" s="200"/>
       <c r="AI431" s="200"/>
     </row>
-    <row r="432" spans="2:35" ht="16">
+    <row r="432" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B432" s="196"/>
       <c r="C432" s="200"/>
       <c r="D432" s="200"/>
@@ -12242,7 +12155,7 @@
       <c r="AH432" s="200"/>
       <c r="AI432" s="200"/>
     </row>
-    <row r="433" spans="2:35" ht="16">
+    <row r="433" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B433" s="196"/>
       <c r="C433" s="200"/>
       <c r="D433" s="200"/>
@@ -12278,7 +12191,7 @@
       <c r="AH433" s="200"/>
       <c r="AI433" s="200"/>
     </row>
-    <row r="434" spans="2:35" ht="16">
+    <row r="434" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B434" s="196"/>
       <c r="C434" s="200"/>
       <c r="D434" s="200"/>
@@ -12314,7 +12227,7 @@
       <c r="AH434" s="200"/>
       <c r="AI434" s="200"/>
     </row>
-    <row r="435" spans="2:35" ht="16">
+    <row r="435" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B435" s="196"/>
       <c r="C435" s="200"/>
       <c r="D435" s="200"/>
@@ -12350,7 +12263,7 @@
       <c r="AH435" s="200"/>
       <c r="AI435" s="200"/>
     </row>
-    <row r="436" spans="2:35" ht="16">
+    <row r="436" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B436" s="196"/>
       <c r="C436" s="200"/>
       <c r="D436" s="200"/>
@@ -12386,7 +12299,7 @@
       <c r="AH436" s="200"/>
       <c r="AI436" s="200"/>
     </row>
-    <row r="437" spans="2:35" ht="16">
+    <row r="437" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B437" s="196"/>
       <c r="C437" s="200"/>
       <c r="D437" s="200"/>
@@ -12422,7 +12335,7 @@
       <c r="AH437" s="200"/>
       <c r="AI437" s="200"/>
     </row>
-    <row r="438" spans="2:35" ht="16">
+    <row r="438" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B438" s="196"/>
       <c r="C438" s="200"/>
       <c r="D438" s="200"/>
@@ -12458,7 +12371,7 @@
       <c r="AH438" s="200"/>
       <c r="AI438" s="200"/>
     </row>
-    <row r="439" spans="2:35" ht="16">
+    <row r="439" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B439" s="196"/>
       <c r="C439" s="200"/>
       <c r="D439" s="200"/>
@@ -12494,7 +12407,7 @@
       <c r="AH439" s="200"/>
       <c r="AI439" s="200"/>
     </row>
-    <row r="440" spans="2:35" ht="16">
+    <row r="440" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B440" s="196"/>
       <c r="C440" s="200"/>
       <c r="D440" s="200"/>
@@ -12530,7 +12443,7 @@
       <c r="AH440" s="200"/>
       <c r="AI440" s="200"/>
     </row>
-    <row r="441" spans="2:35" ht="16">
+    <row r="441" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B441" s="196"/>
       <c r="C441" s="200"/>
       <c r="D441" s="200"/>
@@ -12566,7 +12479,7 @@
       <c r="AH441" s="200"/>
       <c r="AI441" s="200"/>
     </row>
-    <row r="442" spans="2:35" ht="16">
+    <row r="442" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B442" s="196"/>
       <c r="C442" s="200"/>
       <c r="D442" s="200"/>
@@ -12602,7 +12515,7 @@
       <c r="AH442" s="200"/>
       <c r="AI442" s="200"/>
     </row>
-    <row r="443" spans="2:35" ht="16">
+    <row r="443" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B443" s="196"/>
       <c r="C443" s="200"/>
       <c r="D443" s="200"/>
@@ -12638,7 +12551,7 @@
       <c r="AH443" s="200"/>
       <c r="AI443" s="200"/>
     </row>
-    <row r="444" spans="2:35" ht="16">
+    <row r="444" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B444" s="196"/>
       <c r="C444" s="200"/>
       <c r="D444" s="200"/>
@@ -12674,7 +12587,7 @@
       <c r="AH444" s="200"/>
       <c r="AI444" s="200"/>
     </row>
-    <row r="445" spans="2:35" ht="16">
+    <row r="445" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B445" s="196"/>
       <c r="C445" s="200"/>
       <c r="D445" s="200"/>
@@ -12710,7 +12623,7 @@
       <c r="AH445" s="200"/>
       <c r="AI445" s="200"/>
     </row>
-    <row r="446" spans="2:35" ht="16">
+    <row r="446" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B446" s="196"/>
       <c r="C446" s="200"/>
       <c r="D446" s="200"/>
@@ -12746,7 +12659,7 @@
       <c r="AH446" s="200"/>
       <c r="AI446" s="200"/>
     </row>
-    <row r="447" spans="2:35" ht="16">
+    <row r="447" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B447" s="196"/>
       <c r="C447" s="200"/>
       <c r="D447" s="200"/>
@@ -12782,7 +12695,7 @@
       <c r="AH447" s="200"/>
       <c r="AI447" s="200"/>
     </row>
-    <row r="448" spans="2:35" ht="16">
+    <row r="448" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B448" s="196"/>
       <c r="C448" s="200"/>
       <c r="D448" s="200"/>
@@ -12818,7 +12731,7 @@
       <c r="AH448" s="200"/>
       <c r="AI448" s="200"/>
     </row>
-    <row r="449" spans="2:35" ht="16">
+    <row r="449" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B449" s="196"/>
       <c r="C449" s="200"/>
       <c r="D449" s="200"/>
@@ -12854,7 +12767,7 @@
       <c r="AH449" s="200"/>
       <c r="AI449" s="200"/>
     </row>
-    <row r="450" spans="2:35" ht="16">
+    <row r="450" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B450" s="196"/>
       <c r="C450" s="200"/>
       <c r="D450" s="200"/>
@@ -12890,7 +12803,7 @@
       <c r="AH450" s="200"/>
       <c r="AI450" s="200"/>
     </row>
-    <row r="451" spans="2:35" ht="16">
+    <row r="451" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B451" s="196"/>
       <c r="C451" s="200"/>
       <c r="D451" s="200"/>
@@ -12926,7 +12839,7 @@
       <c r="AH451" s="200"/>
       <c r="AI451" s="200"/>
     </row>
-    <row r="452" spans="2:35" ht="16">
+    <row r="452" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B452" s="196"/>
       <c r="C452" s="200"/>
       <c r="D452" s="200"/>
@@ -12962,7 +12875,7 @@
       <c r="AH452" s="200"/>
       <c r="AI452" s="200"/>
     </row>
-    <row r="453" spans="2:35" ht="16">
+    <row r="453" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B453" s="196"/>
       <c r="C453" s="200"/>
       <c r="D453" s="200"/>
@@ -13005,10 +12918,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/woody_biomass.carrier.xlsx
+++ b/carriers_source_analyses/woody_biomass.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45520" yWindow="-8640" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="177">
   <si>
     <t>Source</t>
   </si>
@@ -477,15 +476,6 @@
     <t>McKendry</t>
   </si>
   <si>
-    <t>http://www.apxendex.com/index.php?id=315</t>
-  </si>
-  <si>
-    <t>APX ENDEX market info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL14 Future Settl. price </t>
-  </si>
-  <si>
     <t>http://refman.et-model.com/publications/1665</t>
   </si>
   <si>
@@ -510,12 +500,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>EUR/tonne</t>
-  </si>
-  <si>
-    <t>MJ/tonne</t>
-  </si>
-  <si>
     <t>a tonne of woodpellets has 17,6 GJ</t>
   </si>
   <si>
@@ -529,9 +513,6 @@
   </si>
   <si>
     <t>Quintel</t>
-  </si>
-  <si>
-    <t>Assumption by Quintel; no proper market data available</t>
   </si>
   <si>
     <t>Assumption by Quintel</t>
@@ -632,6 +613,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>rake import:carrier CARRIER="carrier name"</t>
     </r>
@@ -646,12 +628,36 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>ECN</t>
+  </si>
+  <si>
+    <t>https://www.rvo.nl/file/eindadvies-basisbedragen-sde-2017</t>
+  </si>
+  <si>
+    <t>ECN Basisbedragen SDE+ 2017</t>
+  </si>
+  <si>
+    <t>Price B-hout</t>
+  </si>
+  <si>
+    <t>euro/tonne</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>GJ/tonne</t>
+  </si>
+  <si>
+    <t>eur/mj</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -659,11 +665,10 @@
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.00000000000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000000"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -829,6 +834,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,6 +842,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,6 +850,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,6 +858,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,17 +866,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,11 +893,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -953,6 +967,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -987,6 +1002,16 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1447,16 +1472,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2112,9 +2137,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="396" applyFill="1"/>
     <xf numFmtId="14" fontId="43" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2136,22 +2158,19 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2173,20 +2192,20 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="44" fillId="2" borderId="11" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2214,6 +2233,16 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="411">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -3062,8 +3091,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>622301</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>127565</xdr:rowOff>
     </xdr:to>
@@ -3100,8 +3129,8 @@
       <xdr:rowOff>118234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3279,8 +3308,8 @@
       <xdr:rowOff>164612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>233</xdr:row>
       <xdr:rowOff>21398</xdr:rowOff>
     </xdr:to>
@@ -3348,6 +3377,44 @@
         <a:xfrm>
           <a:off x="7340600" y="79997300"/>
           <a:ext cx="9779000" cy="7785100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>2247900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7797800" y="79336900"/>
+          <a:ext cx="9118600" cy="4330700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3467,28 +3534,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3825,11 +3870,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3852,10 +3897,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3892,13 +3937,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="72"/>
-      <c r="D9" s="176"/>
+      <c r="D9" s="173"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
-      <c r="D10" s="177"/>
+      <c r="D10" s="174"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -3908,7 +3953,7 @@
       <c r="C11" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="177"/>
+      <c r="D11" s="174"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -3916,7 +3961,7 @@
       <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="177"/>
+      <c r="D12" s="174"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -3924,7 +3969,7 @@
       <c r="C13" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="177"/>
+      <c r="D13" s="174"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3932,13 +3977,13 @@
       <c r="C14" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="177"/>
+      <c r="D14" s="174"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
-      <c r="D15" s="177"/>
+      <c r="D15" s="174"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3948,7 +3993,7 @@
       <c r="C16" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="177"/>
+      <c r="D16" s="174"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -3956,7 +4001,7 @@
       <c r="C17" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="177"/>
+      <c r="D17" s="174"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -3964,7 +4009,7 @@
       <c r="C18" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="177"/>
+      <c r="D18" s="174"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -3972,7 +4017,7 @@
       <c r="C19" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="177"/>
+      <c r="D19" s="174"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
@@ -3980,7 +4025,7 @@
       <c r="C20" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="177"/>
+      <c r="D20" s="174"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -3988,7 +4033,7 @@
       <c r="C21" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="177"/>
+      <c r="D21" s="174"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -3996,19 +4041,19 @@
       <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="177"/>
+      <c r="D22" s="174"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="81"/>
       <c r="C23" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="177"/>
+      <c r="D23" s="174"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="178"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4024,22 +4069,22 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -4049,28 +4094,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="222" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="224"/>
+      <c r="B2" s="216" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="218"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="227"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="230"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="224"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -4123,7 +4168,7 @@
     <row r="9" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -4163,20 +4208,20 @@
       <c r="D11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="185">
+      <c r="E11" s="179">
         <f>'Research data'!G7</f>
-        <v>3.3E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="99"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="175"/>
+      <c r="I11" s="172"/>
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="2:10" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>51</v>
@@ -4188,8 +4233,8 @@
       <c r="F12" s="34"/>
       <c r="G12" s="99"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="175" t="s">
-        <v>145</v>
+      <c r="I12" s="172" t="s">
+        <v>142</v>
       </c>
       <c r="J12" s="41"/>
     </row>
@@ -4201,51 +4246,51 @@
       <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="170">
+      <c r="E13" s="167">
         <f>'Research data'!G9</f>
         <v>0</v>
       </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="192" t="s">
-        <v>164</v>
+      <c r="G13" s="186" t="s">
+        <v>158</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="175" t="s">
+      <c r="I13" s="172" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="213"/>
-      <c r="C14" s="212" t="s">
-        <v>163</v>
+      <c r="B14" s="207"/>
+      <c r="C14" s="206" t="s">
+        <v>157</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="191">
+      <c r="E14" s="185">
         <f>'Research data'!G10</f>
         <v>0.112</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="192" t="s">
+      <c r="G14" s="186" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="215" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="221" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="214"/>
+      <c r="J14" s="208"/>
     </row>
     <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="219"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="213"/>
       <c r="J15" s="39"/>
     </row>
   </sheetData>
@@ -4262,40 +4307,41 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:V10"/>
+  <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="61" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="61" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="61" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="61" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="61" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="62" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="61" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="61" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="61" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="61" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="62" customWidth="1"/>
     <col min="10" max="10" width="3" style="62" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="62" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="62" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="62" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="62" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="62" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="62" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="62" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="62" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="62" customWidth="1"/>
-    <col min="22" max="22" width="60" style="61" customWidth="1"/>
-    <col min="23" max="16384" width="10.7109375" style="61"/>
+    <col min="11" max="11" width="8.5" style="62" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="62" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="62" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="62" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="62" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="62" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" style="62" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="62" customWidth="1"/>
+    <col min="21" max="21" width="15" style="62" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" style="62" customWidth="1"/>
+    <col min="23" max="23" width="60" style="61" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="63"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -4316,9 +4362,10 @@
       <c r="S2" s="65"/>
       <c r="T2" s="65"/>
       <c r="U2" s="65"/>
-      <c r="V2" s="66"/>
-    </row>
-    <row r="3" spans="2:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+    </row>
+    <row r="3" spans="2:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="92" t="s">
         <v>30</v>
@@ -4349,21 +4396,24 @@
       </c>
       <c r="P3" s="60"/>
       <c r="Q3" s="60" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R3" s="60"/>
       <c r="S3" s="60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="T3" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" s="60"/>
+      <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4383,10 +4433,11 @@
       <c r="R4" s="91"/>
       <c r="S4" s="89"/>
       <c r="T4" s="89"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="89"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="18" t="s">
         <v>53</v>
@@ -4409,9 +4460,10 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="16"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="102" t="s">
         <v>37</v>
@@ -4439,14 +4491,15 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="226"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
-      <c r="V6" s="186" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="16"/>
+      <c r="W6" s="180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="103" t="s">
         <v>38</v>
@@ -4461,8 +4514,8 @@
         <v>52</v>
       </c>
       <c r="G7" s="117">
-        <f>S7</f>
-        <v>3.3E-3</v>
+        <f>U7</f>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
@@ -4475,19 +4528,19 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="184">
-        <v>3.3E-3</v>
-      </c>
-      <c r="T7" s="208"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="186" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="16"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="178">
+        <f>Notes!G389</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="180"/>
+    </row>
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="103" t="s">
         <v>50</v>
@@ -4528,9 +4581,10 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="2:22" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="16"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="104" t="s">
         <v>39</v>
@@ -4561,27 +4615,28 @@
       <c r="S9" s="94">
         <v>0</v>
       </c>
-      <c r="T9" s="209"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="186" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="180" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67"/>
-      <c r="C10" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
+      <c r="C10" s="182" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
       <c r="F10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="189">
+      <c r="G10" s="183">
         <f>T10</f>
         <v>0.112</v>
       </c>
-      <c r="H10" s="190"/>
+      <c r="H10" s="184"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -4592,12 +4647,13 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="210">
+      <c r="T10" s="204">
         <f>Notes!G419</f>
         <v>0.112</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="109"/>
+      <c r="U10" s="225"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4613,22 +4669,22 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="44" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="44" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="44"/>
+    <col min="7" max="7" width="10.33203125" style="44" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4720,14 +4776,23 @@
       <c r="C7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="164" t="s">
-        <v>139</v>
+      <c r="E7" s="227" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>3</v>
       </c>
       <c r="H7" s="44">
-        <v>2013</v>
+        <v>2016</v>
+      </c>
+      <c r="I7" s="44">
+        <v>2017</v>
+      </c>
+      <c r="J7" s="228">
+        <v>43070</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4738,7 +4803,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="114" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="113" t="s">
@@ -4750,10 +4815,10 @@
       <c r="G9" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="171" t="s">
+      <c r="H9" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="171" t="s">
+      <c r="I9" s="168" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="53"/>
@@ -4766,8 +4831,8 @@
       <c r="B10" s="49"/>
       <c r="E10" s="112"/>
       <c r="F10" s="112"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="49"/>
@@ -4781,10 +4846,10 @@
       <c r="G11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="173">
+      <c r="H11" s="170">
         <v>2011</v>
       </c>
-      <c r="I11" s="173">
+      <c r="I11" s="170">
         <v>2011</v>
       </c>
       <c r="J11" s="57"/>
@@ -4792,33 +4857,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="207" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="202"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="197" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="197" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="197"/>
-      <c r="G12" s="202" t="s">
+    <row r="12" spans="1:12" s="201" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="198"/>
+      <c r="E12" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="191"/>
+      <c r="G12" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="205" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="220" t="s">
+      <c r="H12" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="L12" s="206"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="214" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="200"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="171" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4843,7 +4908,7 @@
         <v>2008</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4867,7 +4932,7 @@
         <v>2002</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -4888,7 +4953,7 @@
         <v>2010</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -4903,7 +4968,7 @@
         <v>2010</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -4928,21 +4993,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI453"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="H409" sqref="H409"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="H391" sqref="H391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="95" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="95" customWidth="1"/>
     <col min="2" max="2" width="5" style="95" customWidth="1"/>
     <col min="3" max="5" width="7" style="95"/>
-    <col min="6" max="6" width="11.28515625" style="95" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="95" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="95"/>
-    <col min="8" max="8" width="8.140625" style="95" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="95" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="95" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="95" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="95" customWidth="1"/>
     <col min="12" max="16384" width="7" style="95"/>
   </cols>
   <sheetData>
@@ -4978,7 +5043,7 @@
     <row r="3" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -5004,8 +5069,8 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="187" t="s">
-        <v>160</v>
+      <c r="F4" s="181" t="s">
+        <v>154</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -5028,8 +5093,8 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="187" t="s">
-        <v>161</v>
+      <c r="F5" s="181" t="s">
+        <v>155</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -7670,7 +7735,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H195" s="151" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I195" s="151"/>
       <c r="J195" s="151"/>
@@ -9370,7 +9435,7 @@
       <c r="H261" s="151"/>
       <c r="I261" s="154"/>
       <c r="J261" s="154" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K261" s="154" t="s">
         <v>93</v>
@@ -9378,7 +9443,7 @@
       <c r="L261" s="154"/>
       <c r="M261" s="154"/>
       <c r="N261" s="154" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O261" s="154" t="s">
         <v>94</v>
@@ -10010,7 +10075,7 @@
     <row r="349" spans="2:23" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B349" s="96"/>
     </row>
-    <row r="350" spans="2:23" s="118" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:23" s="118" customFormat="1" ht="151" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B350" s="96"/>
       <c r="O350" s="120"/>
       <c r="P350" s="146" t="s">
@@ -10664,53 +10729,61 @@
       <c r="X385" s="105"/>
       <c r="Y385" s="105"/>
     </row>
-    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B386" s="96"/>
-      <c r="C386" s="164" t="s">
-        <v>139</v>
-      </c>
-      <c r="F386" s="166">
-        <v>139.09</v>
-      </c>
-      <c r="G386" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H386" s="167" t="s">
-        <v>140</v>
-      </c>
-      <c r="I386" s="168">
-        <v>41327</v>
-      </c>
-      <c r="J386" s="169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="C386" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D386" s="229"/>
+      <c r="E386" s="229"/>
+      <c r="F386" s="229"/>
+      <c r="G386" s="229"/>
+      <c r="H386" s="229"/>
+      <c r="I386" s="165"/>
+      <c r="J386" s="166"/>
+    </row>
+    <row r="387" spans="2:35" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B387" s="96"/>
-      <c r="F387" s="182">
-        <f>'Research data'!G8</f>
-        <v>17.8</v>
-      </c>
-      <c r="G387" s="151" t="s">
-        <v>51</v>
-      </c>
-      <c r="H387" s="165"/>
-    </row>
-    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="C387" s="227"/>
+      <c r="D387" s="153"/>
+      <c r="E387" s="227"/>
+      <c r="F387" s="227" t="s">
+        <v>172</v>
+      </c>
+      <c r="G387" s="230">
+        <v>50</v>
+      </c>
+      <c r="H387" s="227" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="388" spans="2:35" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B388" s="96"/>
-      <c r="F388" s="95">
-        <f>F387*1000</f>
-        <v>17800</v>
-      </c>
-      <c r="G388" s="181" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="C388" s="151"/>
+      <c r="D388" s="151"/>
+      <c r="E388" s="227"/>
+      <c r="F388" s="227" t="s">
+        <v>174</v>
+      </c>
+      <c r="G388" s="230">
+        <v>9</v>
+      </c>
+      <c r="H388" s="227" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="389" spans="2:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B389" s="96"/>
-      <c r="F389" s="183">
-        <f>F386/F388</f>
-        <v>7.8140449438202243E-3</v>
+      <c r="C389" s="151"/>
+      <c r="D389" s="151"/>
+      <c r="E389" s="151"/>
+      <c r="F389" s="227"/>
+      <c r="G389" s="151">
+        <f>G387/G388/1000</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="H389" s="154" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="390" spans="2:35" x14ac:dyDescent="0.2">
@@ -10719,101 +10792,101 @@
     <row r="391" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B391" s="96"/>
     </row>
-    <row r="392" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:35" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="96"/>
     </row>
     <row r="393" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B393" s="96"/>
     </row>
     <row r="394" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B394" s="193"/>
-      <c r="C394" s="194" t="s">
+      <c r="B394" s="187"/>
+      <c r="C394" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="D394" s="194" t="s">
+      <c r="D394" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="E394" s="194"/>
-      <c r="F394" s="194" t="s">
+      <c r="E394" s="188"/>
+      <c r="F394" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G394" s="194"/>
-      <c r="H394" s="194"/>
-      <c r="I394" s="194"/>
-      <c r="J394" s="194"/>
-      <c r="K394" s="194"/>
-      <c r="L394" s="194"/>
-      <c r="M394" s="194"/>
-      <c r="N394" s="194"/>
-      <c r="O394" s="194"/>
-      <c r="P394" s="194"/>
-      <c r="Q394" s="194"/>
-      <c r="R394" s="194"/>
-      <c r="S394" s="194"/>
-      <c r="T394" s="194"/>
-      <c r="U394" s="194"/>
-      <c r="V394" s="195"/>
-      <c r="W394" s="195"/>
-      <c r="X394" s="195"/>
-      <c r="Y394" s="195"/>
-      <c r="Z394" s="195"/>
-      <c r="AA394" s="195"/>
-      <c r="AB394" s="195"/>
-      <c r="AC394" s="195"/>
-      <c r="AD394" s="195"/>
-      <c r="AE394" s="195"/>
-      <c r="AF394" s="195"/>
-      <c r="AG394" s="195"/>
-      <c r="AH394" s="195"/>
-      <c r="AI394" s="195"/>
+      <c r="G394" s="188"/>
+      <c r="H394" s="188"/>
+      <c r="I394" s="188"/>
+      <c r="J394" s="188"/>
+      <c r="K394" s="188"/>
+      <c r="L394" s="188"/>
+      <c r="M394" s="188"/>
+      <c r="N394" s="188"/>
+      <c r="O394" s="188"/>
+      <c r="P394" s="188"/>
+      <c r="Q394" s="188"/>
+      <c r="R394" s="188"/>
+      <c r="S394" s="188"/>
+      <c r="T394" s="188"/>
+      <c r="U394" s="188"/>
+      <c r="V394" s="189"/>
+      <c r="W394" s="189"/>
+      <c r="X394" s="189"/>
+      <c r="Y394" s="189"/>
+      <c r="Z394" s="189"/>
+      <c r="AA394" s="189"/>
+      <c r="AB394" s="189"/>
+      <c r="AC394" s="189"/>
+      <c r="AD394" s="189"/>
+      <c r="AE394" s="189"/>
+      <c r="AF394" s="189"/>
+      <c r="AG394" s="189"/>
+      <c r="AH394" s="189"/>
+      <c r="AI394" s="189"/>
     </row>
     <row r="395" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B395" s="196"/>
-      <c r="C395" s="197"/>
-      <c r="D395" s="197"/>
-      <c r="E395" s="197"/>
-      <c r="F395" s="197"/>
-      <c r="G395" s="197"/>
-      <c r="H395" s="197"/>
-      <c r="I395" s="197"/>
-      <c r="J395" s="197"/>
-      <c r="K395" s="197"/>
-      <c r="L395" s="197"/>
-      <c r="M395" s="197"/>
-      <c r="N395" s="197"/>
-      <c r="O395" s="197"/>
-      <c r="P395" s="197"/>
-      <c r="Q395" s="197"/>
-      <c r="R395" s="197"/>
-      <c r="S395" s="197"/>
-      <c r="T395" s="197"/>
-      <c r="U395" s="197"/>
-      <c r="V395" s="197"/>
-      <c r="W395" s="197"/>
-      <c r="X395" s="197"/>
-      <c r="Y395" s="197"/>
-      <c r="Z395" s="197"/>
-      <c r="AA395" s="197"/>
-      <c r="AB395" s="197"/>
-      <c r="AC395" s="197"/>
-      <c r="AD395" s="197"/>
-      <c r="AE395" s="197"/>
-      <c r="AF395" s="197"/>
-      <c r="AG395" s="197"/>
-      <c r="AH395" s="197"/>
-      <c r="AI395" s="197"/>
+      <c r="B395" s="190"/>
+      <c r="C395" s="191"/>
+      <c r="D395" s="191"/>
+      <c r="E395" s="191"/>
+      <c r="F395" s="191"/>
+      <c r="G395" s="191"/>
+      <c r="H395" s="191"/>
+      <c r="I395" s="191"/>
+      <c r="J395" s="191"/>
+      <c r="K395" s="191"/>
+      <c r="L395" s="191"/>
+      <c r="M395" s="191"/>
+      <c r="N395" s="191"/>
+      <c r="O395" s="191"/>
+      <c r="P395" s="191"/>
+      <c r="Q395" s="191"/>
+      <c r="R395" s="191"/>
+      <c r="S395" s="191"/>
+      <c r="T395" s="191"/>
+      <c r="U395" s="191"/>
+      <c r="V395" s="191"/>
+      <c r="W395" s="191"/>
+      <c r="X395" s="191"/>
+      <c r="Y395" s="191"/>
+      <c r="Z395" s="191"/>
+      <c r="AA395" s="191"/>
+      <c r="AB395" s="191"/>
+      <c r="AC395" s="191"/>
+      <c r="AD395" s="191"/>
+      <c r="AE395" s="191"/>
+      <c r="AF395" s="191"/>
+      <c r="AG395" s="191"/>
+      <c r="AH395" s="191"/>
+      <c r="AI395" s="191"/>
     </row>
     <row r="396" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B396" s="196"/>
-      <c r="C396" s="198" t="s">
-        <v>167</v>
-      </c>
-      <c r="D396" s="199"/>
-      <c r="E396" s="199"/>
-      <c r="F396" s="199"/>
-      <c r="G396" s="199"/>
-      <c r="H396" s="199"/>
-      <c r="I396" s="199"/>
+      <c r="B396" s="190"/>
+      <c r="C396" s="192" t="s">
+        <v>161</v>
+      </c>
+      <c r="D396" s="193"/>
+      <c r="E396" s="193"/>
+      <c r="F396" s="193"/>
+      <c r="G396" s="193"/>
+      <c r="H396" s="193"/>
+      <c r="I396" s="193"/>
       <c r="J396" s="105"/>
       <c r="K396" s="105"/>
       <c r="L396" s="105"/>
@@ -10830,26 +10903,26 @@
       <c r="W396" s="105"/>
       <c r="X396" s="105"/>
       <c r="Y396" s="105"/>
-      <c r="Z396" s="200"/>
-      <c r="AA396" s="200"/>
-      <c r="AB396" s="200"/>
-      <c r="AC396" s="200"/>
-      <c r="AD396" s="200"/>
-      <c r="AE396" s="200"/>
-      <c r="AF396" s="200"/>
-      <c r="AG396" s="200"/>
-      <c r="AH396" s="200"/>
-      <c r="AI396" s="200"/>
+      <c r="Z396" s="194"/>
+      <c r="AA396" s="194"/>
+      <c r="AB396" s="194"/>
+      <c r="AC396" s="194"/>
+      <c r="AD396" s="194"/>
+      <c r="AE396" s="194"/>
+      <c r="AF396" s="194"/>
+      <c r="AG396" s="194"/>
+      <c r="AH396" s="194"/>
+      <c r="AI396" s="194"/>
     </row>
     <row r="397" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B397" s="196"/>
-      <c r="C397" s="199"/>
-      <c r="D397" s="199"/>
-      <c r="E397" s="199"/>
-      <c r="F397" s="199"/>
-      <c r="G397" s="199"/>
-      <c r="H397" s="199"/>
-      <c r="I397" s="199"/>
+      <c r="B397" s="190"/>
+      <c r="C397" s="193"/>
+      <c r="D397" s="193"/>
+      <c r="E397" s="193"/>
+      <c r="F397" s="193"/>
+      <c r="G397" s="193"/>
+      <c r="H397" s="193"/>
+      <c r="I397" s="193"/>
       <c r="J397" s="105"/>
       <c r="K397" s="105"/>
       <c r="L397" s="105"/>
@@ -10866,26 +10939,26 @@
       <c r="W397" s="105"/>
       <c r="X397" s="105"/>
       <c r="Y397" s="105"/>
-      <c r="Z397" s="200"/>
-      <c r="AA397" s="200"/>
-      <c r="AB397" s="200"/>
-      <c r="AC397" s="200"/>
-      <c r="AD397" s="200"/>
-      <c r="AE397" s="200"/>
-      <c r="AF397" s="200"/>
-      <c r="AG397" s="200"/>
-      <c r="AH397" s="200"/>
-      <c r="AI397" s="200"/>
+      <c r="Z397" s="194"/>
+      <c r="AA397" s="194"/>
+      <c r="AB397" s="194"/>
+      <c r="AC397" s="194"/>
+      <c r="AD397" s="194"/>
+      <c r="AE397" s="194"/>
+      <c r="AF397" s="194"/>
+      <c r="AG397" s="194"/>
+      <c r="AH397" s="194"/>
+      <c r="AI397" s="194"/>
     </row>
     <row r="398" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B398" s="196"/>
-      <c r="C398" s="199"/>
-      <c r="D398" s="199"/>
-      <c r="E398" s="199"/>
-      <c r="F398" s="199"/>
-      <c r="G398" s="199"/>
-      <c r="H398" s="199"/>
-      <c r="I398" s="199"/>
+      <c r="B398" s="190"/>
+      <c r="C398" s="193"/>
+      <c r="D398" s="193"/>
+      <c r="E398" s="193"/>
+      <c r="F398" s="193"/>
+      <c r="G398" s="193"/>
+      <c r="H398" s="193"/>
+      <c r="I398" s="193"/>
       <c r="J398" s="105"/>
       <c r="K398" s="105"/>
       <c r="L398" s="105"/>
@@ -10902,26 +10975,26 @@
       <c r="W398" s="105"/>
       <c r="X398" s="105"/>
       <c r="Y398" s="105"/>
-      <c r="Z398" s="200"/>
-      <c r="AA398" s="200"/>
-      <c r="AB398" s="200"/>
-      <c r="AC398" s="200"/>
-      <c r="AD398" s="200"/>
-      <c r="AE398" s="200"/>
-      <c r="AF398" s="200"/>
-      <c r="AG398" s="200"/>
-      <c r="AH398" s="200"/>
-      <c r="AI398" s="200"/>
+      <c r="Z398" s="194"/>
+      <c r="AA398" s="194"/>
+      <c r="AB398" s="194"/>
+      <c r="AC398" s="194"/>
+      <c r="AD398" s="194"/>
+      <c r="AE398" s="194"/>
+      <c r="AF398" s="194"/>
+      <c r="AG398" s="194"/>
+      <c r="AH398" s="194"/>
+      <c r="AI398" s="194"/>
     </row>
     <row r="399" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B399" s="196"/>
-      <c r="C399" s="211"/>
-      <c r="D399" s="211"/>
-      <c r="E399" s="211"/>
-      <c r="F399" s="211"/>
-      <c r="G399" s="211"/>
-      <c r="H399" s="211"/>
-      <c r="I399" s="211"/>
+      <c r="B399" s="190"/>
+      <c r="C399" s="205"/>
+      <c r="D399" s="205"/>
+      <c r="E399" s="205"/>
+      <c r="F399" s="205"/>
+      <c r="G399" s="205"/>
+      <c r="H399" s="205"/>
+      <c r="I399" s="205"/>
       <c r="J399" s="105"/>
       <c r="K399" s="105"/>
       <c r="L399" s="105"/>
@@ -10938,26 +11011,26 @@
       <c r="W399" s="105"/>
       <c r="X399" s="105"/>
       <c r="Y399" s="105"/>
-      <c r="Z399" s="200"/>
-      <c r="AA399" s="200"/>
-      <c r="AB399" s="200"/>
-      <c r="AC399" s="200"/>
-      <c r="AD399" s="200"/>
-      <c r="AE399" s="200"/>
-      <c r="AF399" s="200"/>
-      <c r="AG399" s="200"/>
-      <c r="AH399" s="200"/>
-      <c r="AI399" s="200"/>
+      <c r="Z399" s="194"/>
+      <c r="AA399" s="194"/>
+      <c r="AB399" s="194"/>
+      <c r="AC399" s="194"/>
+      <c r="AD399" s="194"/>
+      <c r="AE399" s="194"/>
+      <c r="AF399" s="194"/>
+      <c r="AG399" s="194"/>
+      <c r="AH399" s="194"/>
+      <c r="AI399" s="194"/>
     </row>
     <row r="400" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B400" s="196"/>
-      <c r="C400" s="211"/>
-      <c r="D400" s="211"/>
-      <c r="E400" s="211"/>
-      <c r="F400" s="211"/>
-      <c r="G400" s="211"/>
-      <c r="H400" s="211"/>
-      <c r="I400" s="211"/>
+      <c r="B400" s="190"/>
+      <c r="C400" s="205"/>
+      <c r="D400" s="205"/>
+      <c r="E400" s="205"/>
+      <c r="F400" s="205"/>
+      <c r="G400" s="205"/>
+      <c r="H400" s="205"/>
+      <c r="I400" s="205"/>
       <c r="J400" s="105"/>
       <c r="K400" s="105"/>
       <c r="L400" s="105"/>
@@ -10974,20 +11047,20 @@
       <c r="W400" s="105"/>
       <c r="X400" s="105"/>
       <c r="Y400" s="105"/>
-      <c r="Z400" s="200"/>
-      <c r="AA400" s="200"/>
-      <c r="AB400" s="200"/>
-      <c r="AC400" s="200"/>
-      <c r="AD400" s="200"/>
-      <c r="AE400" s="200"/>
-      <c r="AF400" s="200"/>
-      <c r="AG400" s="200"/>
-      <c r="AH400" s="200"/>
-      <c r="AI400" s="200"/>
+      <c r="Z400" s="194"/>
+      <c r="AA400" s="194"/>
+      <c r="AB400" s="194"/>
+      <c r="AC400" s="194"/>
+      <c r="AD400" s="194"/>
+      <c r="AE400" s="194"/>
+      <c r="AF400" s="194"/>
+      <c r="AG400" s="194"/>
+      <c r="AH400" s="194"/>
+      <c r="AI400" s="194"/>
     </row>
     <row r="401" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B401" s="196"/>
-      <c r="C401" s="211"/>
+      <c r="B401" s="190"/>
+      <c r="C401" s="205"/>
       <c r="D401" s="118"/>
       <c r="E401" s="118"/>
       <c r="F401" s="118"/>
@@ -11010,20 +11083,20 @@
       <c r="W401" s="105"/>
       <c r="X401" s="105"/>
       <c r="Y401" s="105"/>
-      <c r="Z401" s="200"/>
-      <c r="AA401" s="200"/>
-      <c r="AB401" s="200"/>
-      <c r="AC401" s="200"/>
-      <c r="AD401" s="200"/>
-      <c r="AE401" s="200"/>
-      <c r="AF401" s="200"/>
-      <c r="AG401" s="200"/>
-      <c r="AH401" s="200"/>
-      <c r="AI401" s="200"/>
+      <c r="Z401" s="194"/>
+      <c r="AA401" s="194"/>
+      <c r="AB401" s="194"/>
+      <c r="AC401" s="194"/>
+      <c r="AD401" s="194"/>
+      <c r="AE401" s="194"/>
+      <c r="AF401" s="194"/>
+      <c r="AG401" s="194"/>
+      <c r="AH401" s="194"/>
+      <c r="AI401" s="194"/>
     </row>
     <row r="402" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B402" s="196"/>
-      <c r="C402" s="211"/>
+      <c r="B402" s="190"/>
+      <c r="C402" s="205"/>
       <c r="D402" s="118"/>
       <c r="E402" s="118"/>
       <c r="F402" s="118"/>
@@ -11046,20 +11119,20 @@
       <c r="W402" s="105"/>
       <c r="X402" s="105"/>
       <c r="Y402" s="105"/>
-      <c r="Z402" s="200"/>
-      <c r="AA402" s="200"/>
-      <c r="AB402" s="200"/>
-      <c r="AC402" s="200"/>
-      <c r="AD402" s="200"/>
-      <c r="AE402" s="200"/>
-      <c r="AF402" s="200"/>
-      <c r="AG402" s="200"/>
-      <c r="AH402" s="200"/>
-      <c r="AI402" s="200"/>
+      <c r="Z402" s="194"/>
+      <c r="AA402" s="194"/>
+      <c r="AB402" s="194"/>
+      <c r="AC402" s="194"/>
+      <c r="AD402" s="194"/>
+      <c r="AE402" s="194"/>
+      <c r="AF402" s="194"/>
+      <c r="AG402" s="194"/>
+      <c r="AH402" s="194"/>
+      <c r="AI402" s="194"/>
     </row>
     <row r="403" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B403" s="196"/>
-      <c r="C403" s="211"/>
+      <c r="B403" s="190"/>
+      <c r="C403" s="205"/>
       <c r="D403" s="118"/>
       <c r="E403" s="118"/>
       <c r="F403" s="118"/>
@@ -11082,19 +11155,19 @@
       <c r="W403" s="105"/>
       <c r="X403" s="105"/>
       <c r="Y403" s="105"/>
-      <c r="Z403" s="200"/>
-      <c r="AA403" s="200"/>
-      <c r="AB403" s="200"/>
-      <c r="AC403" s="200"/>
-      <c r="AD403" s="200"/>
-      <c r="AE403" s="200"/>
-      <c r="AF403" s="200"/>
-      <c r="AG403" s="200"/>
-      <c r="AH403" s="200"/>
-      <c r="AI403" s="200"/>
+      <c r="Z403" s="194"/>
+      <c r="AA403" s="194"/>
+      <c r="AB403" s="194"/>
+      <c r="AC403" s="194"/>
+      <c r="AD403" s="194"/>
+      <c r="AE403" s="194"/>
+      <c r="AF403" s="194"/>
+      <c r="AG403" s="194"/>
+      <c r="AH403" s="194"/>
+      <c r="AI403" s="194"/>
     </row>
     <row r="404" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B404" s="196"/>
+      <c r="B404" s="190"/>
       <c r="C404" s="150"/>
       <c r="D404" s="150"/>
       <c r="E404" s="150"/>
@@ -11118,19 +11191,19 @@
       <c r="W404" s="105"/>
       <c r="X404" s="105"/>
       <c r="Y404" s="105"/>
-      <c r="Z404" s="200"/>
-      <c r="AA404" s="200"/>
-      <c r="AB404" s="200"/>
-      <c r="AC404" s="200"/>
-      <c r="AD404" s="200"/>
-      <c r="AE404" s="200"/>
-      <c r="AF404" s="200"/>
-      <c r="AG404" s="200"/>
-      <c r="AH404" s="200"/>
-      <c r="AI404" s="200"/>
+      <c r="Z404" s="194"/>
+      <c r="AA404" s="194"/>
+      <c r="AB404" s="194"/>
+      <c r="AC404" s="194"/>
+      <c r="AD404" s="194"/>
+      <c r="AE404" s="194"/>
+      <c r="AF404" s="194"/>
+      <c r="AG404" s="194"/>
+      <c r="AH404" s="194"/>
+      <c r="AI404" s="194"/>
     </row>
     <row r="405" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B405" s="196"/>
+      <c r="B405" s="190"/>
       <c r="C405" s="150"/>
       <c r="D405" s="150"/>
       <c r="E405" s="150"/>
@@ -11154,19 +11227,19 @@
       <c r="W405" s="105"/>
       <c r="X405" s="105"/>
       <c r="Y405" s="105"/>
-      <c r="Z405" s="200"/>
-      <c r="AA405" s="200"/>
-      <c r="AB405" s="200"/>
-      <c r="AC405" s="200"/>
-      <c r="AD405" s="200"/>
-      <c r="AE405" s="200"/>
-      <c r="AF405" s="200"/>
-      <c r="AG405" s="200"/>
-      <c r="AH405" s="200"/>
-      <c r="AI405" s="200"/>
+      <c r="Z405" s="194"/>
+      <c r="AA405" s="194"/>
+      <c r="AB405" s="194"/>
+      <c r="AC405" s="194"/>
+      <c r="AD405" s="194"/>
+      <c r="AE405" s="194"/>
+      <c r="AF405" s="194"/>
+      <c r="AG405" s="194"/>
+      <c r="AH405" s="194"/>
+      <c r="AI405" s="194"/>
     </row>
     <row r="406" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B406" s="196"/>
+      <c r="B406" s="190"/>
       <c r="C406" s="150"/>
       <c r="D406" s="150"/>
       <c r="E406" s="150"/>
@@ -11190,19 +11263,19 @@
       <c r="W406" s="105"/>
       <c r="X406" s="105"/>
       <c r="Y406" s="105"/>
-      <c r="Z406" s="200"/>
-      <c r="AA406" s="200"/>
-      <c r="AB406" s="200"/>
-      <c r="AC406" s="200"/>
-      <c r="AD406" s="200"/>
-      <c r="AE406" s="200"/>
-      <c r="AF406" s="200"/>
-      <c r="AG406" s="200"/>
-      <c r="AH406" s="200"/>
-      <c r="AI406" s="200"/>
+      <c r="Z406" s="194"/>
+      <c r="AA406" s="194"/>
+      <c r="AB406" s="194"/>
+      <c r="AC406" s="194"/>
+      <c r="AD406" s="194"/>
+      <c r="AE406" s="194"/>
+      <c r="AF406" s="194"/>
+      <c r="AG406" s="194"/>
+      <c r="AH406" s="194"/>
+      <c r="AI406" s="194"/>
     </row>
     <row r="407" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B407" s="196"/>
+      <c r="B407" s="190"/>
       <c r="C407" s="105"/>
       <c r="D407" s="105"/>
       <c r="E407" s="105"/>
@@ -11226,19 +11299,19 @@
       <c r="W407" s="105"/>
       <c r="X407" s="105"/>
       <c r="Y407" s="105"/>
-      <c r="Z407" s="200"/>
-      <c r="AA407" s="200"/>
-      <c r="AB407" s="200"/>
-      <c r="AC407" s="200"/>
-      <c r="AD407" s="200"/>
-      <c r="AE407" s="200"/>
-      <c r="AF407" s="200"/>
-      <c r="AG407" s="200"/>
-      <c r="AH407" s="200"/>
-      <c r="AI407" s="200"/>
+      <c r="Z407" s="194"/>
+      <c r="AA407" s="194"/>
+      <c r="AB407" s="194"/>
+      <c r="AC407" s="194"/>
+      <c r="AD407" s="194"/>
+      <c r="AE407" s="194"/>
+      <c r="AF407" s="194"/>
+      <c r="AG407" s="194"/>
+      <c r="AH407" s="194"/>
+      <c r="AI407" s="194"/>
     </row>
     <row r="408" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B408" s="196"/>
+      <c r="B408" s="190"/>
       <c r="C408" s="105"/>
       <c r="D408" s="105"/>
       <c r="E408" s="105"/>
@@ -11262,19 +11335,19 @@
       <c r="W408" s="105"/>
       <c r="X408" s="105"/>
       <c r="Y408" s="105"/>
-      <c r="Z408" s="200"/>
-      <c r="AA408" s="200"/>
-      <c r="AB408" s="200"/>
-      <c r="AC408" s="200"/>
-      <c r="AD408" s="200"/>
-      <c r="AE408" s="200"/>
-      <c r="AF408" s="200"/>
-      <c r="AG408" s="200"/>
-      <c r="AH408" s="200"/>
-      <c r="AI408" s="200"/>
+      <c r="Z408" s="194"/>
+      <c r="AA408" s="194"/>
+      <c r="AB408" s="194"/>
+      <c r="AC408" s="194"/>
+      <c r="AD408" s="194"/>
+      <c r="AE408" s="194"/>
+      <c r="AF408" s="194"/>
+      <c r="AG408" s="194"/>
+      <c r="AH408" s="194"/>
+      <c r="AI408" s="194"/>
     </row>
     <row r="409" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B409" s="196"/>
+      <c r="B409" s="190"/>
       <c r="C409" s="105"/>
       <c r="D409" s="105"/>
       <c r="E409" s="105"/>
@@ -11298,19 +11371,19 @@
       <c r="W409" s="105"/>
       <c r="X409" s="105"/>
       <c r="Y409" s="105"/>
-      <c r="Z409" s="200"/>
-      <c r="AA409" s="200"/>
-      <c r="AB409" s="200"/>
-      <c r="AC409" s="200"/>
-      <c r="AD409" s="200"/>
-      <c r="AE409" s="200"/>
-      <c r="AF409" s="200"/>
-      <c r="AG409" s="200"/>
-      <c r="AH409" s="200"/>
-      <c r="AI409" s="200"/>
+      <c r="Z409" s="194"/>
+      <c r="AA409" s="194"/>
+      <c r="AB409" s="194"/>
+      <c r="AC409" s="194"/>
+      <c r="AD409" s="194"/>
+      <c r="AE409" s="194"/>
+      <c r="AF409" s="194"/>
+      <c r="AG409" s="194"/>
+      <c r="AH409" s="194"/>
+      <c r="AI409" s="194"/>
     </row>
     <row r="410" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B410" s="196"/>
+      <c r="B410" s="190"/>
       <c r="C410" s="105"/>
       <c r="D410" s="105"/>
       <c r="E410" s="105"/>
@@ -11334,19 +11407,19 @@
       <c r="W410" s="105"/>
       <c r="X410" s="105"/>
       <c r="Y410" s="105"/>
-      <c r="Z410" s="200"/>
-      <c r="AA410" s="200"/>
-      <c r="AB410" s="200"/>
-      <c r="AC410" s="200"/>
-      <c r="AD410" s="200"/>
-      <c r="AE410" s="200"/>
-      <c r="AF410" s="200"/>
-      <c r="AG410" s="200"/>
-      <c r="AH410" s="200"/>
-      <c r="AI410" s="200"/>
+      <c r="Z410" s="194"/>
+      <c r="AA410" s="194"/>
+      <c r="AB410" s="194"/>
+      <c r="AC410" s="194"/>
+      <c r="AD410" s="194"/>
+      <c r="AE410" s="194"/>
+      <c r="AF410" s="194"/>
+      <c r="AG410" s="194"/>
+      <c r="AH410" s="194"/>
+      <c r="AI410" s="194"/>
     </row>
     <row r="411" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B411" s="196"/>
+      <c r="B411" s="190"/>
       <c r="C411" s="105"/>
       <c r="D411" s="105"/>
       <c r="E411" s="105"/>
@@ -11370,19 +11443,19 @@
       <c r="W411" s="105"/>
       <c r="X411" s="105"/>
       <c r="Y411" s="105"/>
-      <c r="Z411" s="200"/>
-      <c r="AA411" s="200"/>
-      <c r="AB411" s="200"/>
-      <c r="AC411" s="200"/>
-      <c r="AD411" s="200"/>
-      <c r="AE411" s="200"/>
-      <c r="AF411" s="200"/>
-      <c r="AG411" s="200"/>
-      <c r="AH411" s="200"/>
-      <c r="AI411" s="200"/>
+      <c r="Z411" s="194"/>
+      <c r="AA411" s="194"/>
+      <c r="AB411" s="194"/>
+      <c r="AC411" s="194"/>
+      <c r="AD411" s="194"/>
+      <c r="AE411" s="194"/>
+      <c r="AF411" s="194"/>
+      <c r="AG411" s="194"/>
+      <c r="AH411" s="194"/>
+      <c r="AI411" s="194"/>
     </row>
     <row r="412" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B412" s="196"/>
+      <c r="B412" s="190"/>
       <c r="C412" s="105"/>
       <c r="D412" s="105"/>
       <c r="E412" s="105"/>
@@ -11406,19 +11479,19 @@
       <c r="W412" s="105"/>
       <c r="X412" s="105"/>
       <c r="Y412" s="105"/>
-      <c r="Z412" s="200"/>
-      <c r="AA412" s="200"/>
-      <c r="AB412" s="200"/>
-      <c r="AC412" s="200"/>
-      <c r="AD412" s="200"/>
-      <c r="AE412" s="200"/>
-      <c r="AF412" s="200"/>
-      <c r="AG412" s="200"/>
-      <c r="AH412" s="200"/>
-      <c r="AI412" s="200"/>
+      <c r="Z412" s="194"/>
+      <c r="AA412" s="194"/>
+      <c r="AB412" s="194"/>
+      <c r="AC412" s="194"/>
+      <c r="AD412" s="194"/>
+      <c r="AE412" s="194"/>
+      <c r="AF412" s="194"/>
+      <c r="AG412" s="194"/>
+      <c r="AH412" s="194"/>
+      <c r="AI412" s="194"/>
     </row>
     <row r="413" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B413" s="196"/>
+      <c r="B413" s="190"/>
       <c r="C413" s="105"/>
       <c r="D413" s="105"/>
       <c r="E413" s="105"/>
@@ -11442,19 +11515,19 @@
       <c r="W413" s="105"/>
       <c r="X413" s="105"/>
       <c r="Y413" s="105"/>
-      <c r="Z413" s="200"/>
-      <c r="AA413" s="200"/>
-      <c r="AB413" s="200"/>
-      <c r="AC413" s="200"/>
-      <c r="AD413" s="200"/>
-      <c r="AE413" s="200"/>
-      <c r="AF413" s="200"/>
-      <c r="AG413" s="200"/>
-      <c r="AH413" s="200"/>
-      <c r="AI413" s="200"/>
+      <c r="Z413" s="194"/>
+      <c r="AA413" s="194"/>
+      <c r="AB413" s="194"/>
+      <c r="AC413" s="194"/>
+      <c r="AD413" s="194"/>
+      <c r="AE413" s="194"/>
+      <c r="AF413" s="194"/>
+      <c r="AG413" s="194"/>
+      <c r="AH413" s="194"/>
+      <c r="AI413" s="194"/>
     </row>
     <row r="414" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B414" s="196"/>
+      <c r="B414" s="190"/>
       <c r="C414" s="105"/>
       <c r="D414" s="105"/>
       <c r="E414" s="105"/>
@@ -11478,19 +11551,19 @@
       <c r="W414" s="105"/>
       <c r="X414" s="105"/>
       <c r="Y414" s="105"/>
-      <c r="Z414" s="200"/>
-      <c r="AA414" s="200"/>
-      <c r="AB414" s="200"/>
-      <c r="AC414" s="200"/>
-      <c r="AD414" s="200"/>
-      <c r="AE414" s="200"/>
-      <c r="AF414" s="200"/>
-      <c r="AG414" s="200"/>
-      <c r="AH414" s="200"/>
-      <c r="AI414" s="200"/>
+      <c r="Z414" s="194"/>
+      <c r="AA414" s="194"/>
+      <c r="AB414" s="194"/>
+      <c r="AC414" s="194"/>
+      <c r="AD414" s="194"/>
+      <c r="AE414" s="194"/>
+      <c r="AF414" s="194"/>
+      <c r="AG414" s="194"/>
+      <c r="AH414" s="194"/>
+      <c r="AI414" s="194"/>
     </row>
     <row r="415" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B415" s="196"/>
+      <c r="B415" s="190"/>
       <c r="C415" s="105"/>
       <c r="D415" s="105"/>
       <c r="E415" s="105"/>
@@ -11514,19 +11587,19 @@
       <c r="W415" s="105"/>
       <c r="X415" s="105"/>
       <c r="Y415" s="105"/>
-      <c r="Z415" s="200"/>
-      <c r="AA415" s="200"/>
-      <c r="AB415" s="200"/>
-      <c r="AC415" s="200"/>
-      <c r="AD415" s="200"/>
-      <c r="AE415" s="200"/>
-      <c r="AF415" s="200"/>
-      <c r="AG415" s="200"/>
-      <c r="AH415" s="200"/>
-      <c r="AI415" s="200"/>
+      <c r="Z415" s="194"/>
+      <c r="AA415" s="194"/>
+      <c r="AB415" s="194"/>
+      <c r="AC415" s="194"/>
+      <c r="AD415" s="194"/>
+      <c r="AE415" s="194"/>
+      <c r="AF415" s="194"/>
+      <c r="AG415" s="194"/>
+      <c r="AH415" s="194"/>
+      <c r="AI415" s="194"/>
     </row>
     <row r="416" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B416" s="196"/>
+      <c r="B416" s="190"/>
       <c r="C416" s="105"/>
       <c r="D416" s="105"/>
       <c r="E416" s="105"/>
@@ -11550,33 +11623,33 @@
       <c r="W416" s="105"/>
       <c r="X416" s="105"/>
       <c r="Y416" s="105"/>
-      <c r="Z416" s="200"/>
-      <c r="AA416" s="200"/>
-      <c r="AB416" s="200"/>
-      <c r="AC416" s="200"/>
-      <c r="AD416" s="200"/>
-      <c r="AE416" s="200"/>
-      <c r="AF416" s="200"/>
-      <c r="AG416" s="200"/>
-      <c r="AH416" s="200"/>
-      <c r="AI416" s="200"/>
+      <c r="Z416" s="194"/>
+      <c r="AA416" s="194"/>
+      <c r="AB416" s="194"/>
+      <c r="AC416" s="194"/>
+      <c r="AD416" s="194"/>
+      <c r="AE416" s="194"/>
+      <c r="AF416" s="194"/>
+      <c r="AG416" s="194"/>
+      <c r="AH416" s="194"/>
+      <c r="AI416" s="194"/>
     </row>
     <row r="417" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B417" s="196"/>
+      <c r="B417" s="190"/>
       <c r="C417" s="105"/>
-      <c r="D417" s="199">
+      <c r="D417" s="193">
         <v>1.24</v>
       </c>
-      <c r="E417" s="201"/>
-      <c r="F417" s="199"/>
-      <c r="G417" s="199">
+      <c r="E417" s="195"/>
+      <c r="F417" s="193"/>
+      <c r="G417" s="193">
         <v>112000</v>
       </c>
-      <c r="H417" s="199" t="s">
-        <v>168</v>
-      </c>
-      <c r="I417" s="199" t="s">
-        <v>173</v>
+      <c r="H417" s="193" t="s">
+        <v>162</v>
+      </c>
+      <c r="I417" s="193" t="s">
+        <v>167</v>
       </c>
       <c r="J417" s="105"/>
       <c r="K417" s="105"/>
@@ -11594,31 +11667,31 @@
       <c r="W417" s="105"/>
       <c r="X417" s="105"/>
       <c r="Y417" s="105"/>
-      <c r="Z417" s="200"/>
-      <c r="AA417" s="200"/>
-      <c r="AB417" s="200"/>
-      <c r="AC417" s="200"/>
-      <c r="AD417" s="200"/>
-      <c r="AE417" s="200"/>
-      <c r="AF417" s="200"/>
-      <c r="AG417" s="200"/>
-      <c r="AH417" s="200"/>
-      <c r="AI417" s="200"/>
+      <c r="Z417" s="194"/>
+      <c r="AA417" s="194"/>
+      <c r="AB417" s="194"/>
+      <c r="AC417" s="194"/>
+      <c r="AD417" s="194"/>
+      <c r="AE417" s="194"/>
+      <c r="AF417" s="194"/>
+      <c r="AG417" s="194"/>
+      <c r="AH417" s="194"/>
+      <c r="AI417" s="194"/>
     </row>
     <row r="418" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B418" s="196"/>
+      <c r="B418" s="190"/>
       <c r="C418" s="105"/>
-      <c r="D418" s="199"/>
-      <c r="E418" s="201"/>
-      <c r="F418" s="199"/>
-      <c r="G418" s="199">
+      <c r="D418" s="193"/>
+      <c r="E418" s="195"/>
+      <c r="F418" s="193"/>
+      <c r="G418" s="193">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="H418" s="199" t="s">
-        <v>169</v>
-      </c>
-      <c r="I418" s="199"/>
+      <c r="H418" s="193" t="s">
+        <v>163</v>
+      </c>
+      <c r="I418" s="193"/>
       <c r="J418" s="105"/>
       <c r="K418" s="105"/>
       <c r="L418" s="105"/>
@@ -11635,31 +11708,31 @@
       <c r="W418" s="105"/>
       <c r="X418" s="105"/>
       <c r="Y418" s="105"/>
-      <c r="Z418" s="200"/>
-      <c r="AA418" s="200"/>
-      <c r="AB418" s="200"/>
-      <c r="AC418" s="200"/>
-      <c r="AD418" s="200"/>
-      <c r="AE418" s="200"/>
-      <c r="AF418" s="200"/>
-      <c r="AG418" s="200"/>
-      <c r="AH418" s="200"/>
-      <c r="AI418" s="200"/>
+      <c r="Z418" s="194"/>
+      <c r="AA418" s="194"/>
+      <c r="AB418" s="194"/>
+      <c r="AC418" s="194"/>
+      <c r="AD418" s="194"/>
+      <c r="AE418" s="194"/>
+      <c r="AF418" s="194"/>
+      <c r="AG418" s="194"/>
+      <c r="AH418" s="194"/>
+      <c r="AI418" s="194"/>
     </row>
     <row r="419" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B419" s="196"/>
+      <c r="B419" s="190"/>
       <c r="C419" s="105"/>
-      <c r="D419" s="199"/>
-      <c r="E419" s="201"/>
-      <c r="F419" s="199"/>
-      <c r="G419" s="199">
+      <c r="D419" s="193"/>
+      <c r="E419" s="195"/>
+      <c r="F419" s="193"/>
+      <c r="G419" s="193">
         <f>G417/G418</f>
         <v>0.112</v>
       </c>
-      <c r="H419" s="199" t="s">
-        <v>168</v>
-      </c>
-      <c r="I419" s="199"/>
+      <c r="H419" s="193" t="s">
+        <v>162</v>
+      </c>
+      <c r="I419" s="193"/>
       <c r="J419" s="105"/>
       <c r="K419" s="105"/>
       <c r="L419" s="105"/>
@@ -11676,19 +11749,19 @@
       <c r="W419" s="105"/>
       <c r="X419" s="105"/>
       <c r="Y419" s="105"/>
-      <c r="Z419" s="200"/>
-      <c r="AA419" s="200"/>
-      <c r="AB419" s="200"/>
-      <c r="AC419" s="200"/>
-      <c r="AD419" s="200"/>
-      <c r="AE419" s="200"/>
-      <c r="AF419" s="200"/>
-      <c r="AG419" s="200"/>
-      <c r="AH419" s="200"/>
-      <c r="AI419" s="200"/>
+      <c r="Z419" s="194"/>
+      <c r="AA419" s="194"/>
+      <c r="AB419" s="194"/>
+      <c r="AC419" s="194"/>
+      <c r="AD419" s="194"/>
+      <c r="AE419" s="194"/>
+      <c r="AF419" s="194"/>
+      <c r="AG419" s="194"/>
+      <c r="AH419" s="194"/>
+      <c r="AI419" s="194"/>
     </row>
     <row r="420" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B420" s="196"/>
+      <c r="B420" s="190"/>
       <c r="C420" s="105"/>
       <c r="D420" s="105"/>
       <c r="E420" s="105"/>
@@ -11712,1211 +11785,1208 @@
       <c r="W420" s="105"/>
       <c r="X420" s="105"/>
       <c r="Y420" s="105"/>
-      <c r="Z420" s="200"/>
-      <c r="AA420" s="200"/>
-      <c r="AB420" s="200"/>
-      <c r="AC420" s="200"/>
-      <c r="AD420" s="200"/>
-      <c r="AE420" s="200"/>
-      <c r="AF420" s="200"/>
-      <c r="AG420" s="200"/>
-      <c r="AH420" s="200"/>
-      <c r="AI420" s="200"/>
+      <c r="Z420" s="194"/>
+      <c r="AA420" s="194"/>
+      <c r="AB420" s="194"/>
+      <c r="AC420" s="194"/>
+      <c r="AD420" s="194"/>
+      <c r="AE420" s="194"/>
+      <c r="AF420" s="194"/>
+      <c r="AG420" s="194"/>
+      <c r="AH420" s="194"/>
+      <c r="AI420" s="194"/>
     </row>
     <row r="421" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B421" s="196"/>
-      <c r="C421" s="200"/>
-      <c r="D421" s="200"/>
-      <c r="E421" s="200"/>
-      <c r="F421" s="200"/>
-      <c r="G421" s="200"/>
-      <c r="H421" s="200"/>
-      <c r="I421" s="200"/>
-      <c r="J421" s="200"/>
-      <c r="K421" s="200"/>
-      <c r="L421" s="200"/>
-      <c r="M421" s="200"/>
-      <c r="N421" s="200"/>
-      <c r="O421" s="200"/>
-      <c r="P421" s="200"/>
-      <c r="Q421" s="200"/>
-      <c r="R421" s="200"/>
-      <c r="S421" s="200"/>
-      <c r="T421" s="200"/>
-      <c r="U421" s="200"/>
-      <c r="V421" s="200"/>
-      <c r="W421" s="200"/>
-      <c r="X421" s="200"/>
-      <c r="Y421" s="200"/>
-      <c r="Z421" s="200"/>
-      <c r="AA421" s="200"/>
-      <c r="AB421" s="200"/>
-      <c r="AC421" s="200"/>
-      <c r="AD421" s="200"/>
-      <c r="AE421" s="200"/>
-      <c r="AF421" s="200"/>
-      <c r="AG421" s="200"/>
-      <c r="AH421" s="200"/>
-      <c r="AI421" s="200"/>
+      <c r="B421" s="190"/>
+      <c r="C421" s="194"/>
+      <c r="D421" s="194"/>
+      <c r="E421" s="194"/>
+      <c r="F421" s="194"/>
+      <c r="G421" s="194"/>
+      <c r="H421" s="194"/>
+      <c r="I421" s="194"/>
+      <c r="J421" s="194"/>
+      <c r="K421" s="194"/>
+      <c r="L421" s="194"/>
+      <c r="M421" s="194"/>
+      <c r="N421" s="194"/>
+      <c r="O421" s="194"/>
+      <c r="P421" s="194"/>
+      <c r="Q421" s="194"/>
+      <c r="R421" s="194"/>
+      <c r="S421" s="194"/>
+      <c r="T421" s="194"/>
+      <c r="U421" s="194"/>
+      <c r="V421" s="194"/>
+      <c r="W421" s="194"/>
+      <c r="X421" s="194"/>
+      <c r="Y421" s="194"/>
+      <c r="Z421" s="194"/>
+      <c r="AA421" s="194"/>
+      <c r="AB421" s="194"/>
+      <c r="AC421" s="194"/>
+      <c r="AD421" s="194"/>
+      <c r="AE421" s="194"/>
+      <c r="AF421" s="194"/>
+      <c r="AG421" s="194"/>
+      <c r="AH421" s="194"/>
+      <c r="AI421" s="194"/>
     </row>
     <row r="422" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B422" s="196"/>
-      <c r="C422" s="200"/>
-      <c r="D422" s="200"/>
-      <c r="E422" s="200"/>
-      <c r="F422" s="200"/>
-      <c r="G422" s="200"/>
-      <c r="H422" s="200"/>
-      <c r="I422" s="200"/>
-      <c r="J422" s="200"/>
-      <c r="K422" s="200"/>
-      <c r="L422" s="200"/>
-      <c r="M422" s="200"/>
-      <c r="N422" s="200"/>
-      <c r="O422" s="200"/>
-      <c r="P422" s="200"/>
-      <c r="Q422" s="200"/>
-      <c r="R422" s="200"/>
-      <c r="S422" s="200"/>
-      <c r="T422" s="200"/>
-      <c r="U422" s="200"/>
-      <c r="V422" s="200"/>
-      <c r="W422" s="200"/>
-      <c r="X422" s="200"/>
-      <c r="Y422" s="200"/>
-      <c r="Z422" s="200"/>
-      <c r="AA422" s="200"/>
-      <c r="AB422" s="200"/>
-      <c r="AC422" s="200"/>
-      <c r="AD422" s="200"/>
-      <c r="AE422" s="200"/>
-      <c r="AF422" s="200"/>
-      <c r="AG422" s="200"/>
-      <c r="AH422" s="200"/>
-      <c r="AI422" s="200"/>
+      <c r="B422" s="190"/>
+      <c r="C422" s="194"/>
+      <c r="D422" s="194"/>
+      <c r="E422" s="194"/>
+      <c r="F422" s="194"/>
+      <c r="G422" s="194"/>
+      <c r="H422" s="194"/>
+      <c r="I422" s="194"/>
+      <c r="J422" s="194"/>
+      <c r="K422" s="194"/>
+      <c r="L422" s="194"/>
+      <c r="M422" s="194"/>
+      <c r="N422" s="194"/>
+      <c r="O422" s="194"/>
+      <c r="P422" s="194"/>
+      <c r="Q422" s="194"/>
+      <c r="R422" s="194"/>
+      <c r="S422" s="194"/>
+      <c r="T422" s="194"/>
+      <c r="U422" s="194"/>
+      <c r="V422" s="194"/>
+      <c r="W422" s="194"/>
+      <c r="X422" s="194"/>
+      <c r="Y422" s="194"/>
+      <c r="Z422" s="194"/>
+      <c r="AA422" s="194"/>
+      <c r="AB422" s="194"/>
+      <c r="AC422" s="194"/>
+      <c r="AD422" s="194"/>
+      <c r="AE422" s="194"/>
+      <c r="AF422" s="194"/>
+      <c r="AG422" s="194"/>
+      <c r="AH422" s="194"/>
+      <c r="AI422" s="194"/>
     </row>
     <row r="423" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B423" s="196"/>
-      <c r="C423" s="200"/>
-      <c r="D423" s="200"/>
-      <c r="E423" s="200"/>
-      <c r="F423" s="200"/>
-      <c r="G423" s="200"/>
-      <c r="H423" s="200"/>
-      <c r="I423" s="200"/>
-      <c r="J423" s="200"/>
-      <c r="K423" s="200"/>
-      <c r="L423" s="200"/>
-      <c r="M423" s="200"/>
-      <c r="N423" s="200"/>
-      <c r="O423" s="200"/>
-      <c r="P423" s="200"/>
-      <c r="Q423" s="200"/>
-      <c r="R423" s="200"/>
-      <c r="S423" s="200"/>
-      <c r="T423" s="200"/>
-      <c r="U423" s="200"/>
-      <c r="V423" s="200"/>
-      <c r="W423" s="200"/>
-      <c r="X423" s="200"/>
-      <c r="Y423" s="200"/>
-      <c r="Z423" s="200"/>
-      <c r="AA423" s="200"/>
-      <c r="AB423" s="200"/>
-      <c r="AC423" s="200"/>
-      <c r="AD423" s="200"/>
-      <c r="AE423" s="200"/>
-      <c r="AF423" s="200"/>
-      <c r="AG423" s="200"/>
-      <c r="AH423" s="200"/>
-      <c r="AI423" s="200"/>
+      <c r="B423" s="190"/>
+      <c r="C423" s="194"/>
+      <c r="D423" s="194"/>
+      <c r="E423" s="194"/>
+      <c r="F423" s="194"/>
+      <c r="G423" s="194"/>
+      <c r="H423" s="194"/>
+      <c r="I423" s="194"/>
+      <c r="J423" s="194"/>
+      <c r="K423" s="194"/>
+      <c r="L423" s="194"/>
+      <c r="M423" s="194"/>
+      <c r="N423" s="194"/>
+      <c r="O423" s="194"/>
+      <c r="P423" s="194"/>
+      <c r="Q423" s="194"/>
+      <c r="R423" s="194"/>
+      <c r="S423" s="194"/>
+      <c r="T423" s="194"/>
+      <c r="U423" s="194"/>
+      <c r="V423" s="194"/>
+      <c r="W423" s="194"/>
+      <c r="X423" s="194"/>
+      <c r="Y423" s="194"/>
+      <c r="Z423" s="194"/>
+      <c r="AA423" s="194"/>
+      <c r="AB423" s="194"/>
+      <c r="AC423" s="194"/>
+      <c r="AD423" s="194"/>
+      <c r="AE423" s="194"/>
+      <c r="AF423" s="194"/>
+      <c r="AG423" s="194"/>
+      <c r="AH423" s="194"/>
+      <c r="AI423" s="194"/>
     </row>
     <row r="424" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B424" s="196"/>
-      <c r="C424" s="200"/>
-      <c r="D424" s="200"/>
-      <c r="E424" s="200"/>
-      <c r="F424" s="200"/>
-      <c r="G424" s="200"/>
-      <c r="H424" s="200"/>
-      <c r="I424" s="200"/>
-      <c r="J424" s="200"/>
-      <c r="K424" s="200"/>
-      <c r="L424" s="200"/>
-      <c r="M424" s="200"/>
-      <c r="N424" s="200"/>
-      <c r="O424" s="200"/>
-      <c r="P424" s="200"/>
-      <c r="Q424" s="200"/>
-      <c r="R424" s="200"/>
-      <c r="S424" s="200"/>
-      <c r="T424" s="200"/>
-      <c r="U424" s="200"/>
-      <c r="V424" s="200"/>
-      <c r="W424" s="200"/>
-      <c r="X424" s="200"/>
-      <c r="Y424" s="200"/>
-      <c r="Z424" s="200"/>
-      <c r="AA424" s="200"/>
-      <c r="AB424" s="200"/>
-      <c r="AC424" s="200"/>
-      <c r="AD424" s="200"/>
-      <c r="AE424" s="200"/>
-      <c r="AF424" s="200"/>
-      <c r="AG424" s="200"/>
-      <c r="AH424" s="200"/>
-      <c r="AI424" s="200"/>
+      <c r="B424" s="190"/>
+      <c r="C424" s="194"/>
+      <c r="D424" s="194"/>
+      <c r="E424" s="194"/>
+      <c r="F424" s="194"/>
+      <c r="G424" s="194"/>
+      <c r="H424" s="194"/>
+      <c r="I424" s="194"/>
+      <c r="J424" s="194"/>
+      <c r="K424" s="194"/>
+      <c r="L424" s="194"/>
+      <c r="M424" s="194"/>
+      <c r="N424" s="194"/>
+      <c r="O424" s="194"/>
+      <c r="P424" s="194"/>
+      <c r="Q424" s="194"/>
+      <c r="R424" s="194"/>
+      <c r="S424" s="194"/>
+      <c r="T424" s="194"/>
+      <c r="U424" s="194"/>
+      <c r="V424" s="194"/>
+      <c r="W424" s="194"/>
+      <c r="X424" s="194"/>
+      <c r="Y424" s="194"/>
+      <c r="Z424" s="194"/>
+      <c r="AA424" s="194"/>
+      <c r="AB424" s="194"/>
+      <c r="AC424" s="194"/>
+      <c r="AD424" s="194"/>
+      <c r="AE424" s="194"/>
+      <c r="AF424" s="194"/>
+      <c r="AG424" s="194"/>
+      <c r="AH424" s="194"/>
+      <c r="AI424" s="194"/>
     </row>
     <row r="425" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B425" s="196"/>
-      <c r="C425" s="200"/>
-      <c r="D425" s="200"/>
-      <c r="E425" s="200"/>
-      <c r="F425" s="200"/>
-      <c r="G425" s="200"/>
-      <c r="H425" s="200"/>
-      <c r="I425" s="200"/>
-      <c r="J425" s="200"/>
-      <c r="K425" s="200"/>
-      <c r="L425" s="200"/>
-      <c r="M425" s="200"/>
-      <c r="N425" s="200"/>
-      <c r="O425" s="200"/>
-      <c r="P425" s="200"/>
-      <c r="Q425" s="200"/>
-      <c r="R425" s="200"/>
-      <c r="S425" s="200"/>
-      <c r="T425" s="200"/>
-      <c r="U425" s="200"/>
-      <c r="V425" s="200"/>
-      <c r="W425" s="200"/>
-      <c r="X425" s="200"/>
-      <c r="Y425" s="200"/>
-      <c r="Z425" s="200"/>
-      <c r="AA425" s="200"/>
-      <c r="AB425" s="200"/>
-      <c r="AC425" s="200"/>
-      <c r="AD425" s="200"/>
-      <c r="AE425" s="200"/>
-      <c r="AF425" s="200"/>
-      <c r="AG425" s="200"/>
-      <c r="AH425" s="200"/>
-      <c r="AI425" s="200"/>
+      <c r="B425" s="190"/>
+      <c r="C425" s="194"/>
+      <c r="D425" s="194"/>
+      <c r="E425" s="194"/>
+      <c r="F425" s="194"/>
+      <c r="G425" s="194"/>
+      <c r="H425" s="194"/>
+      <c r="I425" s="194"/>
+      <c r="J425" s="194"/>
+      <c r="K425" s="194"/>
+      <c r="L425" s="194"/>
+      <c r="M425" s="194"/>
+      <c r="N425" s="194"/>
+      <c r="O425" s="194"/>
+      <c r="P425" s="194"/>
+      <c r="Q425" s="194"/>
+      <c r="R425" s="194"/>
+      <c r="S425" s="194"/>
+      <c r="T425" s="194"/>
+      <c r="U425" s="194"/>
+      <c r="V425" s="194"/>
+      <c r="W425" s="194"/>
+      <c r="X425" s="194"/>
+      <c r="Y425" s="194"/>
+      <c r="Z425" s="194"/>
+      <c r="AA425" s="194"/>
+      <c r="AB425" s="194"/>
+      <c r="AC425" s="194"/>
+      <c r="AD425" s="194"/>
+      <c r="AE425" s="194"/>
+      <c r="AF425" s="194"/>
+      <c r="AG425" s="194"/>
+      <c r="AH425" s="194"/>
+      <c r="AI425" s="194"/>
     </row>
     <row r="426" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B426" s="196"/>
-      <c r="C426" s="200"/>
-      <c r="D426" s="200"/>
-      <c r="E426" s="200"/>
-      <c r="F426" s="200"/>
-      <c r="G426" s="200"/>
-      <c r="H426" s="200"/>
-      <c r="I426" s="200"/>
-      <c r="J426" s="200"/>
-      <c r="K426" s="200"/>
-      <c r="L426" s="200"/>
-      <c r="M426" s="200"/>
-      <c r="N426" s="200"/>
-      <c r="O426" s="200"/>
-      <c r="P426" s="200"/>
-      <c r="Q426" s="200"/>
-      <c r="R426" s="200"/>
-      <c r="S426" s="200"/>
-      <c r="T426" s="200"/>
-      <c r="U426" s="200"/>
-      <c r="V426" s="200"/>
-      <c r="W426" s="200"/>
-      <c r="X426" s="200"/>
-      <c r="Y426" s="200"/>
-      <c r="Z426" s="200"/>
-      <c r="AA426" s="200"/>
-      <c r="AB426" s="200"/>
-      <c r="AC426" s="200"/>
-      <c r="AD426" s="200"/>
-      <c r="AE426" s="200"/>
-      <c r="AF426" s="200"/>
-      <c r="AG426" s="200"/>
-      <c r="AH426" s="200"/>
-      <c r="AI426" s="200"/>
+      <c r="B426" s="190"/>
+      <c r="C426" s="194"/>
+      <c r="D426" s="194"/>
+      <c r="E426" s="194"/>
+      <c r="F426" s="194"/>
+      <c r="G426" s="194"/>
+      <c r="H426" s="194"/>
+      <c r="I426" s="194"/>
+      <c r="J426" s="194"/>
+      <c r="K426" s="194"/>
+      <c r="L426" s="194"/>
+      <c r="M426" s="194"/>
+      <c r="N426" s="194"/>
+      <c r="O426" s="194"/>
+      <c r="P426" s="194"/>
+      <c r="Q426" s="194"/>
+      <c r="R426" s="194"/>
+      <c r="S426" s="194"/>
+      <c r="T426" s="194"/>
+      <c r="U426" s="194"/>
+      <c r="V426" s="194"/>
+      <c r="W426" s="194"/>
+      <c r="X426" s="194"/>
+      <c r="Y426" s="194"/>
+      <c r="Z426" s="194"/>
+      <c r="AA426" s="194"/>
+      <c r="AB426" s="194"/>
+      <c r="AC426" s="194"/>
+      <c r="AD426" s="194"/>
+      <c r="AE426" s="194"/>
+      <c r="AF426" s="194"/>
+      <c r="AG426" s="194"/>
+      <c r="AH426" s="194"/>
+      <c r="AI426" s="194"/>
     </row>
     <row r="427" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B427" s="196"/>
-      <c r="C427" s="200"/>
-      <c r="D427" s="200"/>
-      <c r="E427" s="200"/>
-      <c r="F427" s="200"/>
-      <c r="G427" s="200"/>
-      <c r="H427" s="200"/>
-      <c r="I427" s="200"/>
-      <c r="J427" s="200"/>
-      <c r="K427" s="200"/>
-      <c r="L427" s="200"/>
-      <c r="M427" s="200"/>
-      <c r="N427" s="200"/>
-      <c r="O427" s="200"/>
-      <c r="P427" s="200"/>
-      <c r="Q427" s="200"/>
-      <c r="R427" s="200"/>
-      <c r="S427" s="200"/>
-      <c r="T427" s="200"/>
-      <c r="U427" s="200"/>
-      <c r="V427" s="200"/>
-      <c r="W427" s="200"/>
-      <c r="X427" s="200"/>
-      <c r="Y427" s="200"/>
-      <c r="Z427" s="200"/>
-      <c r="AA427" s="200"/>
-      <c r="AB427" s="200"/>
-      <c r="AC427" s="200"/>
-      <c r="AD427" s="200"/>
-      <c r="AE427" s="200"/>
-      <c r="AF427" s="200"/>
-      <c r="AG427" s="200"/>
-      <c r="AH427" s="200"/>
-      <c r="AI427" s="200"/>
+      <c r="B427" s="190"/>
+      <c r="C427" s="194"/>
+      <c r="D427" s="194"/>
+      <c r="E427" s="194"/>
+      <c r="F427" s="194"/>
+      <c r="G427" s="194"/>
+      <c r="H427" s="194"/>
+      <c r="I427" s="194"/>
+      <c r="J427" s="194"/>
+      <c r="K427" s="194"/>
+      <c r="L427" s="194"/>
+      <c r="M427" s="194"/>
+      <c r="N427" s="194"/>
+      <c r="O427" s="194"/>
+      <c r="P427" s="194"/>
+      <c r="Q427" s="194"/>
+      <c r="R427" s="194"/>
+      <c r="S427" s="194"/>
+      <c r="T427" s="194"/>
+      <c r="U427" s="194"/>
+      <c r="V427" s="194"/>
+      <c r="W427" s="194"/>
+      <c r="X427" s="194"/>
+      <c r="Y427" s="194"/>
+      <c r="Z427" s="194"/>
+      <c r="AA427" s="194"/>
+      <c r="AB427" s="194"/>
+      <c r="AC427" s="194"/>
+      <c r="AD427" s="194"/>
+      <c r="AE427" s="194"/>
+      <c r="AF427" s="194"/>
+      <c r="AG427" s="194"/>
+      <c r="AH427" s="194"/>
+      <c r="AI427" s="194"/>
     </row>
     <row r="428" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B428" s="196"/>
-      <c r="C428" s="200"/>
-      <c r="D428" s="200"/>
-      <c r="E428" s="200"/>
-      <c r="F428" s="200"/>
-      <c r="G428" s="200"/>
-      <c r="H428" s="200"/>
-      <c r="I428" s="200"/>
-      <c r="J428" s="200"/>
-      <c r="K428" s="200"/>
-      <c r="L428" s="200"/>
-      <c r="M428" s="200"/>
-      <c r="N428" s="200"/>
-      <c r="O428" s="200"/>
-      <c r="P428" s="200"/>
-      <c r="Q428" s="200"/>
-      <c r="R428" s="200"/>
-      <c r="S428" s="200"/>
-      <c r="T428" s="200"/>
-      <c r="U428" s="200"/>
-      <c r="V428" s="200"/>
-      <c r="W428" s="200"/>
-      <c r="X428" s="200"/>
-      <c r="Y428" s="200"/>
-      <c r="Z428" s="200"/>
-      <c r="AA428" s="200"/>
-      <c r="AB428" s="200"/>
-      <c r="AC428" s="200"/>
-      <c r="AD428" s="200"/>
-      <c r="AE428" s="200"/>
-      <c r="AF428" s="200"/>
-      <c r="AG428" s="200"/>
-      <c r="AH428" s="200"/>
-      <c r="AI428" s="200"/>
+      <c r="B428" s="190"/>
+      <c r="C428" s="194"/>
+      <c r="D428" s="194"/>
+      <c r="E428" s="194"/>
+      <c r="F428" s="194"/>
+      <c r="G428" s="194"/>
+      <c r="H428" s="194"/>
+      <c r="I428" s="194"/>
+      <c r="J428" s="194"/>
+      <c r="K428" s="194"/>
+      <c r="L428" s="194"/>
+      <c r="M428" s="194"/>
+      <c r="N428" s="194"/>
+      <c r="O428" s="194"/>
+      <c r="P428" s="194"/>
+      <c r="Q428" s="194"/>
+      <c r="R428" s="194"/>
+      <c r="S428" s="194"/>
+      <c r="T428" s="194"/>
+      <c r="U428" s="194"/>
+      <c r="V428" s="194"/>
+      <c r="W428" s="194"/>
+      <c r="X428" s="194"/>
+      <c r="Y428" s="194"/>
+      <c r="Z428" s="194"/>
+      <c r="AA428" s="194"/>
+      <c r="AB428" s="194"/>
+      <c r="AC428" s="194"/>
+      <c r="AD428" s="194"/>
+      <c r="AE428" s="194"/>
+      <c r="AF428" s="194"/>
+      <c r="AG428" s="194"/>
+      <c r="AH428" s="194"/>
+      <c r="AI428" s="194"/>
     </row>
     <row r="429" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B429" s="196"/>
-      <c r="C429" s="200"/>
-      <c r="D429" s="200"/>
-      <c r="E429" s="200"/>
-      <c r="F429" s="200"/>
-      <c r="G429" s="200"/>
-      <c r="H429" s="200"/>
-      <c r="I429" s="200"/>
-      <c r="J429" s="200"/>
-      <c r="K429" s="200"/>
-      <c r="L429" s="200"/>
-      <c r="M429" s="200"/>
-      <c r="N429" s="200"/>
-      <c r="O429" s="200"/>
-      <c r="P429" s="200"/>
-      <c r="Q429" s="200"/>
-      <c r="R429" s="200"/>
-      <c r="S429" s="200"/>
-      <c r="T429" s="200"/>
-      <c r="U429" s="200"/>
-      <c r="V429" s="200"/>
-      <c r="W429" s="200"/>
-      <c r="X429" s="200"/>
-      <c r="Y429" s="200"/>
-      <c r="Z429" s="200"/>
-      <c r="AA429" s="200"/>
-      <c r="AB429" s="200"/>
-      <c r="AC429" s="200"/>
-      <c r="AD429" s="200"/>
-      <c r="AE429" s="200"/>
-      <c r="AF429" s="200"/>
-      <c r="AG429" s="200"/>
-      <c r="AH429" s="200"/>
-      <c r="AI429" s="200"/>
+      <c r="B429" s="190"/>
+      <c r="C429" s="194"/>
+      <c r="D429" s="194"/>
+      <c r="E429" s="194"/>
+      <c r="F429" s="194"/>
+      <c r="G429" s="194"/>
+      <c r="H429" s="194"/>
+      <c r="I429" s="194"/>
+      <c r="J429" s="194"/>
+      <c r="K429" s="194"/>
+      <c r="L429" s="194"/>
+      <c r="M429" s="194"/>
+      <c r="N429" s="194"/>
+      <c r="O429" s="194"/>
+      <c r="P429" s="194"/>
+      <c r="Q429" s="194"/>
+      <c r="R429" s="194"/>
+      <c r="S429" s="194"/>
+      <c r="T429" s="194"/>
+      <c r="U429" s="194"/>
+      <c r="V429" s="194"/>
+      <c r="W429" s="194"/>
+      <c r="X429" s="194"/>
+      <c r="Y429" s="194"/>
+      <c r="Z429" s="194"/>
+      <c r="AA429" s="194"/>
+      <c r="AB429" s="194"/>
+      <c r="AC429" s="194"/>
+      <c r="AD429" s="194"/>
+      <c r="AE429" s="194"/>
+      <c r="AF429" s="194"/>
+      <c r="AG429" s="194"/>
+      <c r="AH429" s="194"/>
+      <c r="AI429" s="194"/>
     </row>
     <row r="430" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B430" s="196"/>
-      <c r="C430" s="200"/>
-      <c r="D430" s="200"/>
-      <c r="E430" s="200"/>
-      <c r="F430" s="200"/>
-      <c r="G430" s="200"/>
-      <c r="H430" s="200"/>
-      <c r="I430" s="200"/>
-      <c r="J430" s="200"/>
-      <c r="K430" s="200"/>
-      <c r="L430" s="200"/>
-      <c r="M430" s="200"/>
-      <c r="N430" s="200"/>
-      <c r="O430" s="200"/>
-      <c r="P430" s="200"/>
-      <c r="Q430" s="200"/>
-      <c r="R430" s="200"/>
-      <c r="S430" s="200"/>
-      <c r="T430" s="200"/>
-      <c r="U430" s="200"/>
-      <c r="V430" s="200"/>
-      <c r="W430" s="200"/>
-      <c r="X430" s="200"/>
-      <c r="Y430" s="200"/>
-      <c r="Z430" s="200"/>
-      <c r="AA430" s="200"/>
-      <c r="AB430" s="200"/>
-      <c r="AC430" s="200"/>
-      <c r="AD430" s="200"/>
-      <c r="AE430" s="200"/>
-      <c r="AF430" s="200"/>
-      <c r="AG430" s="200"/>
-      <c r="AH430" s="200"/>
-      <c r="AI430" s="200"/>
+      <c r="B430" s="190"/>
+      <c r="C430" s="194"/>
+      <c r="D430" s="194"/>
+      <c r="E430" s="194"/>
+      <c r="F430" s="194"/>
+      <c r="G430" s="194"/>
+      <c r="H430" s="194"/>
+      <c r="I430" s="194"/>
+      <c r="J430" s="194"/>
+      <c r="K430" s="194"/>
+      <c r="L430" s="194"/>
+      <c r="M430" s="194"/>
+      <c r="N430" s="194"/>
+      <c r="O430" s="194"/>
+      <c r="P430" s="194"/>
+      <c r="Q430" s="194"/>
+      <c r="R430" s="194"/>
+      <c r="S430" s="194"/>
+      <c r="T430" s="194"/>
+      <c r="U430" s="194"/>
+      <c r="V430" s="194"/>
+      <c r="W430" s="194"/>
+      <c r="X430" s="194"/>
+      <c r="Y430" s="194"/>
+      <c r="Z430" s="194"/>
+      <c r="AA430" s="194"/>
+      <c r="AB430" s="194"/>
+      <c r="AC430" s="194"/>
+      <c r="AD430" s="194"/>
+      <c r="AE430" s="194"/>
+      <c r="AF430" s="194"/>
+      <c r="AG430" s="194"/>
+      <c r="AH430" s="194"/>
+      <c r="AI430" s="194"/>
     </row>
     <row r="431" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B431" s="196"/>
-      <c r="C431" s="200"/>
-      <c r="D431" s="200"/>
-      <c r="E431" s="200"/>
-      <c r="F431" s="200"/>
-      <c r="G431" s="200"/>
-      <c r="H431" s="200"/>
-      <c r="I431" s="200"/>
-      <c r="J431" s="200"/>
-      <c r="K431" s="200"/>
-      <c r="L431" s="200"/>
-      <c r="M431" s="200"/>
-      <c r="N431" s="200"/>
-      <c r="O431" s="200"/>
-      <c r="P431" s="200"/>
-      <c r="Q431" s="200"/>
-      <c r="R431" s="200"/>
-      <c r="S431" s="200"/>
-      <c r="T431" s="200"/>
-      <c r="U431" s="200"/>
-      <c r="V431" s="200"/>
-      <c r="W431" s="200"/>
-      <c r="X431" s="200"/>
-      <c r="Y431" s="200"/>
-      <c r="Z431" s="200"/>
-      <c r="AA431" s="200"/>
-      <c r="AB431" s="200"/>
-      <c r="AC431" s="200"/>
-      <c r="AD431" s="200"/>
-      <c r="AE431" s="200"/>
-      <c r="AF431" s="200"/>
-      <c r="AG431" s="200"/>
-      <c r="AH431" s="200"/>
-      <c r="AI431" s="200"/>
+      <c r="B431" s="190"/>
+      <c r="C431" s="194"/>
+      <c r="D431" s="194"/>
+      <c r="E431" s="194"/>
+      <c r="F431" s="194"/>
+      <c r="G431" s="194"/>
+      <c r="H431" s="194"/>
+      <c r="I431" s="194"/>
+      <c r="J431" s="194"/>
+      <c r="K431" s="194"/>
+      <c r="L431" s="194"/>
+      <c r="M431" s="194"/>
+      <c r="N431" s="194"/>
+      <c r="O431" s="194"/>
+      <c r="P431" s="194"/>
+      <c r="Q431" s="194"/>
+      <c r="R431" s="194"/>
+      <c r="S431" s="194"/>
+      <c r="T431" s="194"/>
+      <c r="U431" s="194"/>
+      <c r="V431" s="194"/>
+      <c r="W431" s="194"/>
+      <c r="X431" s="194"/>
+      <c r="Y431" s="194"/>
+      <c r="Z431" s="194"/>
+      <c r="AA431" s="194"/>
+      <c r="AB431" s="194"/>
+      <c r="AC431" s="194"/>
+      <c r="AD431" s="194"/>
+      <c r="AE431" s="194"/>
+      <c r="AF431" s="194"/>
+      <c r="AG431" s="194"/>
+      <c r="AH431" s="194"/>
+      <c r="AI431" s="194"/>
     </row>
     <row r="432" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B432" s="196"/>
-      <c r="C432" s="200"/>
-      <c r="D432" s="200"/>
-      <c r="E432" s="200"/>
-      <c r="F432" s="200"/>
-      <c r="G432" s="200"/>
-      <c r="H432" s="200"/>
-      <c r="I432" s="200"/>
-      <c r="J432" s="200"/>
-      <c r="K432" s="200"/>
-      <c r="L432" s="200"/>
-      <c r="M432" s="200"/>
-      <c r="N432" s="200"/>
-      <c r="O432" s="200"/>
-      <c r="P432" s="200"/>
-      <c r="Q432" s="200"/>
-      <c r="R432" s="200"/>
-      <c r="S432" s="200"/>
-      <c r="T432" s="200"/>
-      <c r="U432" s="200"/>
-      <c r="V432" s="200"/>
-      <c r="W432" s="200"/>
-      <c r="X432" s="200"/>
-      <c r="Y432" s="200"/>
-      <c r="Z432" s="200"/>
-      <c r="AA432" s="200"/>
-      <c r="AB432" s="200"/>
-      <c r="AC432" s="200"/>
-      <c r="AD432" s="200"/>
-      <c r="AE432" s="200"/>
-      <c r="AF432" s="200"/>
-      <c r="AG432" s="200"/>
-      <c r="AH432" s="200"/>
-      <c r="AI432" s="200"/>
+      <c r="B432" s="190"/>
+      <c r="C432" s="194"/>
+      <c r="D432" s="194"/>
+      <c r="E432" s="194"/>
+      <c r="F432" s="194"/>
+      <c r="G432" s="194"/>
+      <c r="H432" s="194"/>
+      <c r="I432" s="194"/>
+      <c r="J432" s="194"/>
+      <c r="K432" s="194"/>
+      <c r="L432" s="194"/>
+      <c r="M432" s="194"/>
+      <c r="N432" s="194"/>
+      <c r="O432" s="194"/>
+      <c r="P432" s="194"/>
+      <c r="Q432" s="194"/>
+      <c r="R432" s="194"/>
+      <c r="S432" s="194"/>
+      <c r="T432" s="194"/>
+      <c r="U432" s="194"/>
+      <c r="V432" s="194"/>
+      <c r="W432" s="194"/>
+      <c r="X432" s="194"/>
+      <c r="Y432" s="194"/>
+      <c r="Z432" s="194"/>
+      <c r="AA432" s="194"/>
+      <c r="AB432" s="194"/>
+      <c r="AC432" s="194"/>
+      <c r="AD432" s="194"/>
+      <c r="AE432" s="194"/>
+      <c r="AF432" s="194"/>
+      <c r="AG432" s="194"/>
+      <c r="AH432" s="194"/>
+      <c r="AI432" s="194"/>
     </row>
     <row r="433" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B433" s="196"/>
-      <c r="C433" s="200"/>
-      <c r="D433" s="200"/>
-      <c r="E433" s="200"/>
-      <c r="F433" s="200"/>
-      <c r="G433" s="200"/>
-      <c r="H433" s="200"/>
-      <c r="I433" s="200"/>
-      <c r="J433" s="200"/>
-      <c r="K433" s="200"/>
-      <c r="L433" s="200"/>
-      <c r="M433" s="200"/>
-      <c r="N433" s="200"/>
-      <c r="O433" s="200"/>
-      <c r="P433" s="200"/>
-      <c r="Q433" s="200"/>
-      <c r="R433" s="200"/>
-      <c r="S433" s="200"/>
-      <c r="T433" s="200"/>
-      <c r="U433" s="200"/>
-      <c r="V433" s="200"/>
-      <c r="W433" s="200"/>
-      <c r="X433" s="200"/>
-      <c r="Y433" s="200"/>
-      <c r="Z433" s="200"/>
-      <c r="AA433" s="200"/>
-      <c r="AB433" s="200"/>
-      <c r="AC433" s="200"/>
-      <c r="AD433" s="200"/>
-      <c r="AE433" s="200"/>
-      <c r="AF433" s="200"/>
-      <c r="AG433" s="200"/>
-      <c r="AH433" s="200"/>
-      <c r="AI433" s="200"/>
+      <c r="B433" s="190"/>
+      <c r="C433" s="194"/>
+      <c r="D433" s="194"/>
+      <c r="E433" s="194"/>
+      <c r="F433" s="194"/>
+      <c r="G433" s="194"/>
+      <c r="H433" s="194"/>
+      <c r="I433" s="194"/>
+      <c r="J433" s="194"/>
+      <c r="K433" s="194"/>
+      <c r="L433" s="194"/>
+      <c r="M433" s="194"/>
+      <c r="N433" s="194"/>
+      <c r="O433" s="194"/>
+      <c r="P433" s="194"/>
+      <c r="Q433" s="194"/>
+      <c r="R433" s="194"/>
+      <c r="S433" s="194"/>
+      <c r="T433" s="194"/>
+      <c r="U433" s="194"/>
+      <c r="V433" s="194"/>
+      <c r="W433" s="194"/>
+      <c r="X433" s="194"/>
+      <c r="Y433" s="194"/>
+      <c r="Z433" s="194"/>
+      <c r="AA433" s="194"/>
+      <c r="AB433" s="194"/>
+      <c r="AC433" s="194"/>
+      <c r="AD433" s="194"/>
+      <c r="AE433" s="194"/>
+      <c r="AF433" s="194"/>
+      <c r="AG433" s="194"/>
+      <c r="AH433" s="194"/>
+      <c r="AI433" s="194"/>
     </row>
     <row r="434" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B434" s="196"/>
-      <c r="C434" s="200"/>
-      <c r="D434" s="200"/>
-      <c r="E434" s="200"/>
-      <c r="F434" s="200"/>
-      <c r="G434" s="200"/>
-      <c r="H434" s="200"/>
-      <c r="I434" s="200"/>
-      <c r="J434" s="200"/>
-      <c r="K434" s="200"/>
-      <c r="L434" s="200"/>
-      <c r="M434" s="200"/>
-      <c r="N434" s="200"/>
-      <c r="O434" s="200"/>
-      <c r="P434" s="200"/>
-      <c r="Q434" s="200"/>
-      <c r="R434" s="200"/>
-      <c r="S434" s="200"/>
-      <c r="T434" s="200"/>
-      <c r="U434" s="200"/>
-      <c r="V434" s="200"/>
-      <c r="W434" s="200"/>
-      <c r="X434" s="200"/>
-      <c r="Y434" s="200"/>
-      <c r="Z434" s="200"/>
-      <c r="AA434" s="200"/>
-      <c r="AB434" s="200"/>
-      <c r="AC434" s="200"/>
-      <c r="AD434" s="200"/>
-      <c r="AE434" s="200"/>
-      <c r="AF434" s="200"/>
-      <c r="AG434" s="200"/>
-      <c r="AH434" s="200"/>
-      <c r="AI434" s="200"/>
+      <c r="B434" s="190"/>
+      <c r="C434" s="194"/>
+      <c r="D434" s="194"/>
+      <c r="E434" s="194"/>
+      <c r="F434" s="194"/>
+      <c r="G434" s="194"/>
+      <c r="H434" s="194"/>
+      <c r="I434" s="194"/>
+      <c r="J434" s="194"/>
+      <c r="K434" s="194"/>
+      <c r="L434" s="194"/>
+      <c r="M434" s="194"/>
+      <c r="N434" s="194"/>
+      <c r="O434" s="194"/>
+      <c r="P434" s="194"/>
+      <c r="Q434" s="194"/>
+      <c r="R434" s="194"/>
+      <c r="S434" s="194"/>
+      <c r="T434" s="194"/>
+      <c r="U434" s="194"/>
+      <c r="V434" s="194"/>
+      <c r="W434" s="194"/>
+      <c r="X434" s="194"/>
+      <c r="Y434" s="194"/>
+      <c r="Z434" s="194"/>
+      <c r="AA434" s="194"/>
+      <c r="AB434" s="194"/>
+      <c r="AC434" s="194"/>
+      <c r="AD434" s="194"/>
+      <c r="AE434" s="194"/>
+      <c r="AF434" s="194"/>
+      <c r="AG434" s="194"/>
+      <c r="AH434" s="194"/>
+      <c r="AI434" s="194"/>
     </row>
     <row r="435" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B435" s="196"/>
-      <c r="C435" s="200"/>
-      <c r="D435" s="200"/>
-      <c r="E435" s="200"/>
-      <c r="F435" s="200"/>
-      <c r="G435" s="200"/>
-      <c r="H435" s="200"/>
-      <c r="I435" s="200"/>
-      <c r="J435" s="200"/>
-      <c r="K435" s="200"/>
-      <c r="L435" s="200"/>
-      <c r="M435" s="200"/>
-      <c r="N435" s="200"/>
-      <c r="O435" s="200"/>
-      <c r="P435" s="200"/>
-      <c r="Q435" s="200"/>
-      <c r="R435" s="200"/>
-      <c r="S435" s="200"/>
-      <c r="T435" s="200"/>
-      <c r="U435" s="200"/>
-      <c r="V435" s="200"/>
-      <c r="W435" s="200"/>
-      <c r="X435" s="200"/>
-      <c r="Y435" s="200"/>
-      <c r="Z435" s="200"/>
-      <c r="AA435" s="200"/>
-      <c r="AB435" s="200"/>
-      <c r="AC435" s="200"/>
-      <c r="AD435" s="200"/>
-      <c r="AE435" s="200"/>
-      <c r="AF435" s="200"/>
-      <c r="AG435" s="200"/>
-      <c r="AH435" s="200"/>
-      <c r="AI435" s="200"/>
+      <c r="B435" s="190"/>
+      <c r="C435" s="194"/>
+      <c r="D435" s="194"/>
+      <c r="E435" s="194"/>
+      <c r="F435" s="194"/>
+      <c r="G435" s="194"/>
+      <c r="H435" s="194"/>
+      <c r="I435" s="194"/>
+      <c r="J435" s="194"/>
+      <c r="K435" s="194"/>
+      <c r="L435" s="194"/>
+      <c r="M435" s="194"/>
+      <c r="N435" s="194"/>
+      <c r="O435" s="194"/>
+      <c r="P435" s="194"/>
+      <c r="Q435" s="194"/>
+      <c r="R435" s="194"/>
+      <c r="S435" s="194"/>
+      <c r="T435" s="194"/>
+      <c r="U435" s="194"/>
+      <c r="V435" s="194"/>
+      <c r="W435" s="194"/>
+      <c r="X435" s="194"/>
+      <c r="Y435" s="194"/>
+      <c r="Z435" s="194"/>
+      <c r="AA435" s="194"/>
+      <c r="AB435" s="194"/>
+      <c r="AC435" s="194"/>
+      <c r="AD435" s="194"/>
+      <c r="AE435" s="194"/>
+      <c r="AF435" s="194"/>
+      <c r="AG435" s="194"/>
+      <c r="AH435" s="194"/>
+      <c r="AI435" s="194"/>
     </row>
     <row r="436" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B436" s="196"/>
-      <c r="C436" s="200"/>
-      <c r="D436" s="200"/>
-      <c r="E436" s="200"/>
-      <c r="F436" s="200"/>
-      <c r="G436" s="200"/>
-      <c r="H436" s="200"/>
-      <c r="I436" s="200"/>
-      <c r="J436" s="200"/>
-      <c r="K436" s="200"/>
-      <c r="L436" s="200"/>
-      <c r="M436" s="200"/>
-      <c r="N436" s="200"/>
-      <c r="O436" s="200"/>
-      <c r="P436" s="200"/>
-      <c r="Q436" s="200"/>
-      <c r="R436" s="200"/>
-      <c r="S436" s="200"/>
-      <c r="T436" s="200"/>
-      <c r="U436" s="200"/>
-      <c r="V436" s="200"/>
-      <c r="W436" s="200"/>
-      <c r="X436" s="200"/>
-      <c r="Y436" s="200"/>
-      <c r="Z436" s="200"/>
-      <c r="AA436" s="200"/>
-      <c r="AB436" s="200"/>
-      <c r="AC436" s="200"/>
-      <c r="AD436" s="200"/>
-      <c r="AE436" s="200"/>
-      <c r="AF436" s="200"/>
-      <c r="AG436" s="200"/>
-      <c r="AH436" s="200"/>
-      <c r="AI436" s="200"/>
+      <c r="B436" s="190"/>
+      <c r="C436" s="194"/>
+      <c r="D436" s="194"/>
+      <c r="E436" s="194"/>
+      <c r="F436" s="194"/>
+      <c r="G436" s="194"/>
+      <c r="H436" s="194"/>
+      <c r="I436" s="194"/>
+      <c r="J436" s="194"/>
+      <c r="K436" s="194"/>
+      <c r="L436" s="194"/>
+      <c r="M436" s="194"/>
+      <c r="N436" s="194"/>
+      <c r="O436" s="194"/>
+      <c r="P436" s="194"/>
+      <c r="Q436" s="194"/>
+      <c r="R436" s="194"/>
+      <c r="S436" s="194"/>
+      <c r="T436" s="194"/>
+      <c r="U436" s="194"/>
+      <c r="V436" s="194"/>
+      <c r="W436" s="194"/>
+      <c r="X436" s="194"/>
+      <c r="Y436" s="194"/>
+      <c r="Z436" s="194"/>
+      <c r="AA436" s="194"/>
+      <c r="AB436" s="194"/>
+      <c r="AC436" s="194"/>
+      <c r="AD436" s="194"/>
+      <c r="AE436" s="194"/>
+      <c r="AF436" s="194"/>
+      <c r="AG436" s="194"/>
+      <c r="AH436" s="194"/>
+      <c r="AI436" s="194"/>
     </row>
     <row r="437" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B437" s="196"/>
-      <c r="C437" s="200"/>
-      <c r="D437" s="200"/>
-      <c r="E437" s="200"/>
-      <c r="F437" s="200"/>
-      <c r="G437" s="200"/>
-      <c r="H437" s="200"/>
-      <c r="I437" s="200"/>
-      <c r="J437" s="200"/>
-      <c r="K437" s="200"/>
-      <c r="L437" s="200"/>
-      <c r="M437" s="200"/>
-      <c r="N437" s="200"/>
-      <c r="O437" s="200"/>
-      <c r="P437" s="200"/>
-      <c r="Q437" s="200"/>
-      <c r="R437" s="200"/>
-      <c r="S437" s="200"/>
-      <c r="T437" s="200"/>
-      <c r="U437" s="200"/>
-      <c r="V437" s="200"/>
-      <c r="W437" s="200"/>
-      <c r="X437" s="200"/>
-      <c r="Y437" s="200"/>
-      <c r="Z437" s="200"/>
-      <c r="AA437" s="200"/>
-      <c r="AB437" s="200"/>
-      <c r="AC437" s="200"/>
-      <c r="AD437" s="200"/>
-      <c r="AE437" s="200"/>
-      <c r="AF437" s="200"/>
-      <c r="AG437" s="200"/>
-      <c r="AH437" s="200"/>
-      <c r="AI437" s="200"/>
+      <c r="B437" s="190"/>
+      <c r="C437" s="194"/>
+      <c r="D437" s="194"/>
+      <c r="E437" s="194"/>
+      <c r="F437" s="194"/>
+      <c r="G437" s="194"/>
+      <c r="H437" s="194"/>
+      <c r="I437" s="194"/>
+      <c r="J437" s="194"/>
+      <c r="K437" s="194"/>
+      <c r="L437" s="194"/>
+      <c r="M437" s="194"/>
+      <c r="N437" s="194"/>
+      <c r="O437" s="194"/>
+      <c r="P437" s="194"/>
+      <c r="Q437" s="194"/>
+      <c r="R437" s="194"/>
+      <c r="S437" s="194"/>
+      <c r="T437" s="194"/>
+      <c r="U437" s="194"/>
+      <c r="V437" s="194"/>
+      <c r="W437" s="194"/>
+      <c r="X437" s="194"/>
+      <c r="Y437" s="194"/>
+      <c r="Z437" s="194"/>
+      <c r="AA437" s="194"/>
+      <c r="AB437" s="194"/>
+      <c r="AC437" s="194"/>
+      <c r="AD437" s="194"/>
+      <c r="AE437" s="194"/>
+      <c r="AF437" s="194"/>
+      <c r="AG437" s="194"/>
+      <c r="AH437" s="194"/>
+      <c r="AI437" s="194"/>
     </row>
     <row r="438" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B438" s="196"/>
-      <c r="C438" s="200"/>
-      <c r="D438" s="200"/>
-      <c r="E438" s="200"/>
-      <c r="F438" s="200"/>
-      <c r="G438" s="200"/>
-      <c r="H438" s="200"/>
-      <c r="I438" s="200"/>
-      <c r="J438" s="200"/>
-      <c r="K438" s="200"/>
-      <c r="L438" s="200"/>
-      <c r="M438" s="200"/>
-      <c r="N438" s="200"/>
-      <c r="O438" s="200"/>
-      <c r="P438" s="200"/>
-      <c r="Q438" s="200"/>
-      <c r="R438" s="200"/>
-      <c r="S438" s="200"/>
-      <c r="T438" s="200"/>
-      <c r="U438" s="200"/>
-      <c r="V438" s="200"/>
-      <c r="W438" s="200"/>
-      <c r="X438" s="200"/>
-      <c r="Y438" s="200"/>
-      <c r="Z438" s="200"/>
-      <c r="AA438" s="200"/>
-      <c r="AB438" s="200"/>
-      <c r="AC438" s="200"/>
-      <c r="AD438" s="200"/>
-      <c r="AE438" s="200"/>
-      <c r="AF438" s="200"/>
-      <c r="AG438" s="200"/>
-      <c r="AH438" s="200"/>
-      <c r="AI438" s="200"/>
+      <c r="B438" s="190"/>
+      <c r="C438" s="194"/>
+      <c r="D438" s="194"/>
+      <c r="E438" s="194"/>
+      <c r="F438" s="194"/>
+      <c r="G438" s="194"/>
+      <c r="H438" s="194"/>
+      <c r="I438" s="194"/>
+      <c r="J438" s="194"/>
+      <c r="K438" s="194"/>
+      <c r="L438" s="194"/>
+      <c r="M438" s="194"/>
+      <c r="N438" s="194"/>
+      <c r="O438" s="194"/>
+      <c r="P438" s="194"/>
+      <c r="Q438" s="194"/>
+      <c r="R438" s="194"/>
+      <c r="S438" s="194"/>
+      <c r="T438" s="194"/>
+      <c r="U438" s="194"/>
+      <c r="V438" s="194"/>
+      <c r="W438" s="194"/>
+      <c r="X438" s="194"/>
+      <c r="Y438" s="194"/>
+      <c r="Z438" s="194"/>
+      <c r="AA438" s="194"/>
+      <c r="AB438" s="194"/>
+      <c r="AC438" s="194"/>
+      <c r="AD438" s="194"/>
+      <c r="AE438" s="194"/>
+      <c r="AF438" s="194"/>
+      <c r="AG438" s="194"/>
+      <c r="AH438" s="194"/>
+      <c r="AI438" s="194"/>
     </row>
     <row r="439" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B439" s="196"/>
-      <c r="C439" s="200"/>
-      <c r="D439" s="200"/>
-      <c r="E439" s="200"/>
-      <c r="F439" s="200"/>
-      <c r="G439" s="200"/>
-      <c r="H439" s="200"/>
-      <c r="I439" s="200"/>
-      <c r="J439" s="200"/>
-      <c r="K439" s="200"/>
-      <c r="L439" s="200"/>
-      <c r="M439" s="200"/>
-      <c r="N439" s="200"/>
-      <c r="O439" s="200"/>
-      <c r="P439" s="200"/>
-      <c r="Q439" s="200"/>
-      <c r="R439" s="200"/>
-      <c r="S439" s="200"/>
-      <c r="T439" s="200"/>
-      <c r="U439" s="200"/>
-      <c r="V439" s="200"/>
-      <c r="W439" s="200"/>
-      <c r="X439" s="200"/>
-      <c r="Y439" s="200"/>
-      <c r="Z439" s="200"/>
-      <c r="AA439" s="200"/>
-      <c r="AB439" s="200"/>
-      <c r="AC439" s="200"/>
-      <c r="AD439" s="200"/>
-      <c r="AE439" s="200"/>
-      <c r="AF439" s="200"/>
-      <c r="AG439" s="200"/>
-      <c r="AH439" s="200"/>
-      <c r="AI439" s="200"/>
+      <c r="B439" s="190"/>
+      <c r="C439" s="194"/>
+      <c r="D439" s="194"/>
+      <c r="E439" s="194"/>
+      <c r="F439" s="194"/>
+      <c r="G439" s="194"/>
+      <c r="H439" s="194"/>
+      <c r="I439" s="194"/>
+      <c r="J439" s="194"/>
+      <c r="K439" s="194"/>
+      <c r="L439" s="194"/>
+      <c r="M439" s="194"/>
+      <c r="N439" s="194"/>
+      <c r="O439" s="194"/>
+      <c r="P439" s="194"/>
+      <c r="Q439" s="194"/>
+      <c r="R439" s="194"/>
+      <c r="S439" s="194"/>
+      <c r="T439" s="194"/>
+      <c r="U439" s="194"/>
+      <c r="V439" s="194"/>
+      <c r="W439" s="194"/>
+      <c r="X439" s="194"/>
+      <c r="Y439" s="194"/>
+      <c r="Z439" s="194"/>
+      <c r="AA439" s="194"/>
+      <c r="AB439" s="194"/>
+      <c r="AC439" s="194"/>
+      <c r="AD439" s="194"/>
+      <c r="AE439" s="194"/>
+      <c r="AF439" s="194"/>
+      <c r="AG439" s="194"/>
+      <c r="AH439" s="194"/>
+      <c r="AI439" s="194"/>
     </row>
     <row r="440" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B440" s="196"/>
-      <c r="C440" s="200"/>
-      <c r="D440" s="200"/>
-      <c r="E440" s="200"/>
-      <c r="F440" s="200"/>
-      <c r="G440" s="200"/>
-      <c r="H440" s="200"/>
-      <c r="I440" s="200"/>
-      <c r="J440" s="200"/>
-      <c r="K440" s="200"/>
-      <c r="L440" s="200"/>
-      <c r="M440" s="200"/>
-      <c r="N440" s="200"/>
-      <c r="O440" s="200"/>
-      <c r="P440" s="200"/>
-      <c r="Q440" s="200"/>
-      <c r="R440" s="200"/>
-      <c r="S440" s="200"/>
-      <c r="T440" s="200"/>
-      <c r="U440" s="200"/>
-      <c r="V440" s="200"/>
-      <c r="W440" s="200"/>
-      <c r="X440" s="200"/>
-      <c r="Y440" s="200"/>
-      <c r="Z440" s="200"/>
-      <c r="AA440" s="200"/>
-      <c r="AB440" s="200"/>
-      <c r="AC440" s="200"/>
-      <c r="AD440" s="200"/>
-      <c r="AE440" s="200"/>
-      <c r="AF440" s="200"/>
-      <c r="AG440" s="200"/>
-      <c r="AH440" s="200"/>
-      <c r="AI440" s="200"/>
+      <c r="B440" s="190"/>
+      <c r="C440" s="194"/>
+      <c r="D440" s="194"/>
+      <c r="E440" s="194"/>
+      <c r="F440" s="194"/>
+      <c r="G440" s="194"/>
+      <c r="H440" s="194"/>
+      <c r="I440" s="194"/>
+      <c r="J440" s="194"/>
+      <c r="K440" s="194"/>
+      <c r="L440" s="194"/>
+      <c r="M440" s="194"/>
+      <c r="N440" s="194"/>
+      <c r="O440" s="194"/>
+      <c r="P440" s="194"/>
+      <c r="Q440" s="194"/>
+      <c r="R440" s="194"/>
+      <c r="S440" s="194"/>
+      <c r="T440" s="194"/>
+      <c r="U440" s="194"/>
+      <c r="V440" s="194"/>
+      <c r="W440" s="194"/>
+      <c r="X440" s="194"/>
+      <c r="Y440" s="194"/>
+      <c r="Z440" s="194"/>
+      <c r="AA440" s="194"/>
+      <c r="AB440" s="194"/>
+      <c r="AC440" s="194"/>
+      <c r="AD440" s="194"/>
+      <c r="AE440" s="194"/>
+      <c r="AF440" s="194"/>
+      <c r="AG440" s="194"/>
+      <c r="AH440" s="194"/>
+      <c r="AI440" s="194"/>
     </row>
     <row r="441" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B441" s="196"/>
-      <c r="C441" s="200"/>
-      <c r="D441" s="200"/>
-      <c r="E441" s="200"/>
-      <c r="F441" s="200"/>
-      <c r="G441" s="200"/>
-      <c r="H441" s="200"/>
-      <c r="I441" s="200"/>
-      <c r="J441" s="200"/>
-      <c r="K441" s="200"/>
-      <c r="L441" s="200"/>
-      <c r="M441" s="200"/>
-      <c r="N441" s="200"/>
-      <c r="O441" s="200"/>
-      <c r="P441" s="200"/>
-      <c r="Q441" s="200"/>
-      <c r="R441" s="200"/>
-      <c r="S441" s="200"/>
-      <c r="T441" s="200"/>
-      <c r="U441" s="200"/>
-      <c r="V441" s="200"/>
-      <c r="W441" s="200"/>
-      <c r="X441" s="200"/>
-      <c r="Y441" s="200"/>
-      <c r="Z441" s="200"/>
-      <c r="AA441" s="200"/>
-      <c r="AB441" s="200"/>
-      <c r="AC441" s="200"/>
-      <c r="AD441" s="200"/>
-      <c r="AE441" s="200"/>
-      <c r="AF441" s="200"/>
-      <c r="AG441" s="200"/>
-      <c r="AH441" s="200"/>
-      <c r="AI441" s="200"/>
+      <c r="B441" s="190"/>
+      <c r="C441" s="194"/>
+      <c r="D441" s="194"/>
+      <c r="E441" s="194"/>
+      <c r="F441" s="194"/>
+      <c r="G441" s="194"/>
+      <c r="H441" s="194"/>
+      <c r="I441" s="194"/>
+      <c r="J441" s="194"/>
+      <c r="K441" s="194"/>
+      <c r="L441" s="194"/>
+      <c r="M441" s="194"/>
+      <c r="N441" s="194"/>
+      <c r="O441" s="194"/>
+      <c r="P441" s="194"/>
+      <c r="Q441" s="194"/>
+      <c r="R441" s="194"/>
+      <c r="S441" s="194"/>
+      <c r="T441" s="194"/>
+      <c r="U441" s="194"/>
+      <c r="V441" s="194"/>
+      <c r="W441" s="194"/>
+      <c r="X441" s="194"/>
+      <c r="Y441" s="194"/>
+      <c r="Z441" s="194"/>
+      <c r="AA441" s="194"/>
+      <c r="AB441" s="194"/>
+      <c r="AC441" s="194"/>
+      <c r="AD441" s="194"/>
+      <c r="AE441" s="194"/>
+      <c r="AF441" s="194"/>
+      <c r="AG441" s="194"/>
+      <c r="AH441" s="194"/>
+      <c r="AI441" s="194"/>
     </row>
     <row r="442" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B442" s="196"/>
-      <c r="C442" s="200"/>
-      <c r="D442" s="200"/>
-      <c r="E442" s="200"/>
-      <c r="F442" s="200"/>
-      <c r="G442" s="200"/>
-      <c r="H442" s="200"/>
-      <c r="I442" s="200"/>
-      <c r="J442" s="200"/>
-      <c r="K442" s="200"/>
-      <c r="L442" s="200"/>
-      <c r="M442" s="200"/>
-      <c r="N442" s="200"/>
-      <c r="O442" s="200"/>
-      <c r="P442" s="200"/>
-      <c r="Q442" s="200"/>
-      <c r="R442" s="200"/>
-      <c r="S442" s="200"/>
-      <c r="T442" s="200"/>
-      <c r="U442" s="200"/>
-      <c r="V442" s="200"/>
-      <c r="W442" s="200"/>
-      <c r="X442" s="200"/>
-      <c r="Y442" s="200"/>
-      <c r="Z442" s="200"/>
-      <c r="AA442" s="200"/>
-      <c r="AB442" s="200"/>
-      <c r="AC442" s="200"/>
-      <c r="AD442" s="200"/>
-      <c r="AE442" s="200"/>
-      <c r="AF442" s="200"/>
-      <c r="AG442" s="200"/>
-      <c r="AH442" s="200"/>
-      <c r="AI442" s="200"/>
+      <c r="B442" s="190"/>
+      <c r="C442" s="194"/>
+      <c r="D442" s="194"/>
+      <c r="E442" s="194"/>
+      <c r="F442" s="194"/>
+      <c r="G442" s="194"/>
+      <c r="H442" s="194"/>
+      <c r="I442" s="194"/>
+      <c r="J442" s="194"/>
+      <c r="K442" s="194"/>
+      <c r="L442" s="194"/>
+      <c r="M442" s="194"/>
+      <c r="N442" s="194"/>
+      <c r="O442" s="194"/>
+      <c r="P442" s="194"/>
+      <c r="Q442" s="194"/>
+      <c r="R442" s="194"/>
+      <c r="S442" s="194"/>
+      <c r="T442" s="194"/>
+      <c r="U442" s="194"/>
+      <c r="V442" s="194"/>
+      <c r="W442" s="194"/>
+      <c r="X442" s="194"/>
+      <c r="Y442" s="194"/>
+      <c r="Z442" s="194"/>
+      <c r="AA442" s="194"/>
+      <c r="AB442" s="194"/>
+      <c r="AC442" s="194"/>
+      <c r="AD442" s="194"/>
+      <c r="AE442" s="194"/>
+      <c r="AF442" s="194"/>
+      <c r="AG442" s="194"/>
+      <c r="AH442" s="194"/>
+      <c r="AI442" s="194"/>
     </row>
     <row r="443" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B443" s="196"/>
-      <c r="C443" s="200"/>
-      <c r="D443" s="200"/>
-      <c r="E443" s="200"/>
-      <c r="F443" s="200"/>
-      <c r="G443" s="200"/>
-      <c r="H443" s="200"/>
-      <c r="I443" s="200"/>
-      <c r="J443" s="200"/>
-      <c r="K443" s="200"/>
-      <c r="L443" s="200"/>
-      <c r="M443" s="200"/>
-      <c r="N443" s="200"/>
-      <c r="O443" s="200"/>
-      <c r="P443" s="200"/>
-      <c r="Q443" s="200"/>
-      <c r="R443" s="200"/>
-      <c r="S443" s="200"/>
-      <c r="T443" s="200"/>
-      <c r="U443" s="200"/>
-      <c r="V443" s="200"/>
-      <c r="W443" s="200"/>
-      <c r="X443" s="200"/>
-      <c r="Y443" s="200"/>
-      <c r="Z443" s="200"/>
-      <c r="AA443" s="200"/>
-      <c r="AB443" s="200"/>
-      <c r="AC443" s="200"/>
-      <c r="AD443" s="200"/>
-      <c r="AE443" s="200"/>
-      <c r="AF443" s="200"/>
-      <c r="AG443" s="200"/>
-      <c r="AH443" s="200"/>
-      <c r="AI443" s="200"/>
+      <c r="B443" s="190"/>
+      <c r="C443" s="194"/>
+      <c r="D443" s="194"/>
+      <c r="E443" s="194"/>
+      <c r="F443" s="194"/>
+      <c r="G443" s="194"/>
+      <c r="H443" s="194"/>
+      <c r="I443" s="194"/>
+      <c r="J443" s="194"/>
+      <c r="K443" s="194"/>
+      <c r="L443" s="194"/>
+      <c r="M443" s="194"/>
+      <c r="N443" s="194"/>
+      <c r="O443" s="194"/>
+      <c r="P443" s="194"/>
+      <c r="Q443" s="194"/>
+      <c r="R443" s="194"/>
+      <c r="S443" s="194"/>
+      <c r="T443" s="194"/>
+      <c r="U443" s="194"/>
+      <c r="V443" s="194"/>
+      <c r="W443" s="194"/>
+      <c r="X443" s="194"/>
+      <c r="Y443" s="194"/>
+      <c r="Z443" s="194"/>
+      <c r="AA443" s="194"/>
+      <c r="AB443" s="194"/>
+      <c r="AC443" s="194"/>
+      <c r="AD443" s="194"/>
+      <c r="AE443" s="194"/>
+      <c r="AF443" s="194"/>
+      <c r="AG443" s="194"/>
+      <c r="AH443" s="194"/>
+      <c r="AI443" s="194"/>
     </row>
     <row r="444" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B444" s="196"/>
-      <c r="C444" s="200"/>
-      <c r="D444" s="200"/>
-      <c r="E444" s="200"/>
-      <c r="F444" s="200"/>
-      <c r="G444" s="200"/>
-      <c r="H444" s="200"/>
-      <c r="I444" s="200"/>
-      <c r="J444" s="200"/>
-      <c r="K444" s="200"/>
-      <c r="L444" s="200"/>
-      <c r="M444" s="200"/>
-      <c r="N444" s="200"/>
-      <c r="O444" s="200"/>
-      <c r="P444" s="200"/>
-      <c r="Q444" s="200"/>
-      <c r="R444" s="200"/>
-      <c r="S444" s="200"/>
-      <c r="T444" s="200"/>
-      <c r="U444" s="200"/>
-      <c r="V444" s="200"/>
-      <c r="W444" s="200"/>
-      <c r="X444" s="200"/>
-      <c r="Y444" s="200"/>
-      <c r="Z444" s="200"/>
-      <c r="AA444" s="200"/>
-      <c r="AB444" s="200"/>
-      <c r="AC444" s="200"/>
-      <c r="AD444" s="200"/>
-      <c r="AE444" s="200"/>
-      <c r="AF444" s="200"/>
-      <c r="AG444" s="200"/>
-      <c r="AH444" s="200"/>
-      <c r="AI444" s="200"/>
+      <c r="B444" s="190"/>
+      <c r="C444" s="194"/>
+      <c r="D444" s="194"/>
+      <c r="E444" s="194"/>
+      <c r="F444" s="194"/>
+      <c r="G444" s="194"/>
+      <c r="H444" s="194"/>
+      <c r="I444" s="194"/>
+      <c r="J444" s="194"/>
+      <c r="K444" s="194"/>
+      <c r="L444" s="194"/>
+      <c r="M444" s="194"/>
+      <c r="N444" s="194"/>
+      <c r="O444" s="194"/>
+      <c r="P444" s="194"/>
+      <c r="Q444" s="194"/>
+      <c r="R444" s="194"/>
+      <c r="S444" s="194"/>
+      <c r="T444" s="194"/>
+      <c r="U444" s="194"/>
+      <c r="V444" s="194"/>
+      <c r="W444" s="194"/>
+      <c r="X444" s="194"/>
+      <c r="Y444" s="194"/>
+      <c r="Z444" s="194"/>
+      <c r="AA444" s="194"/>
+      <c r="AB444" s="194"/>
+      <c r="AC444" s="194"/>
+      <c r="AD444" s="194"/>
+      <c r="AE444" s="194"/>
+      <c r="AF444" s="194"/>
+      <c r="AG444" s="194"/>
+      <c r="AH444" s="194"/>
+      <c r="AI444" s="194"/>
     </row>
     <row r="445" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B445" s="196"/>
-      <c r="C445" s="200"/>
-      <c r="D445" s="200"/>
-      <c r="E445" s="200"/>
-      <c r="F445" s="200"/>
-      <c r="G445" s="200"/>
-      <c r="H445" s="200"/>
-      <c r="I445" s="200"/>
-      <c r="J445" s="200"/>
-      <c r="K445" s="200"/>
-      <c r="L445" s="200"/>
-      <c r="M445" s="200"/>
-      <c r="N445" s="200"/>
-      <c r="O445" s="200"/>
-      <c r="P445" s="200"/>
-      <c r="Q445" s="200"/>
-      <c r="R445" s="200"/>
-      <c r="S445" s="200"/>
-      <c r="T445" s="200"/>
-      <c r="U445" s="200"/>
-      <c r="V445" s="200"/>
-      <c r="W445" s="200"/>
-      <c r="X445" s="200"/>
-      <c r="Y445" s="200"/>
-      <c r="Z445" s="200"/>
-      <c r="AA445" s="200"/>
-      <c r="AB445" s="200"/>
-      <c r="AC445" s="200"/>
-      <c r="AD445" s="200"/>
-      <c r="AE445" s="200"/>
-      <c r="AF445" s="200"/>
-      <c r="AG445" s="200"/>
-      <c r="AH445" s="200"/>
-      <c r="AI445" s="200"/>
+      <c r="B445" s="190"/>
+      <c r="C445" s="194"/>
+      <c r="D445" s="194"/>
+      <c r="E445" s="194"/>
+      <c r="F445" s="194"/>
+      <c r="G445" s="194"/>
+      <c r="H445" s="194"/>
+      <c r="I445" s="194"/>
+      <c r="J445" s="194"/>
+      <c r="K445" s="194"/>
+      <c r="L445" s="194"/>
+      <c r="M445" s="194"/>
+      <c r="N445" s="194"/>
+      <c r="O445" s="194"/>
+      <c r="P445" s="194"/>
+      <c r="Q445" s="194"/>
+      <c r="R445" s="194"/>
+      <c r="S445" s="194"/>
+      <c r="T445" s="194"/>
+      <c r="U445" s="194"/>
+      <c r="V445" s="194"/>
+      <c r="W445" s="194"/>
+      <c r="X445" s="194"/>
+      <c r="Y445" s="194"/>
+      <c r="Z445" s="194"/>
+      <c r="AA445" s="194"/>
+      <c r="AB445" s="194"/>
+      <c r="AC445" s="194"/>
+      <c r="AD445" s="194"/>
+      <c r="AE445" s="194"/>
+      <c r="AF445" s="194"/>
+      <c r="AG445" s="194"/>
+      <c r="AH445" s="194"/>
+      <c r="AI445" s="194"/>
     </row>
     <row r="446" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B446" s="196"/>
-      <c r="C446" s="200"/>
-      <c r="D446" s="200"/>
-      <c r="E446" s="200"/>
-      <c r="F446" s="200"/>
-      <c r="G446" s="200"/>
-      <c r="H446" s="200"/>
-      <c r="I446" s="200"/>
-      <c r="J446" s="200"/>
-      <c r="K446" s="200"/>
-      <c r="L446" s="200"/>
-      <c r="M446" s="200"/>
-      <c r="N446" s="200"/>
-      <c r="O446" s="200"/>
-      <c r="P446" s="200"/>
-      <c r="Q446" s="200"/>
-      <c r="R446" s="200"/>
-      <c r="S446" s="200"/>
-      <c r="T446" s="200"/>
-      <c r="U446" s="200"/>
-      <c r="V446" s="200"/>
-      <c r="W446" s="200"/>
-      <c r="X446" s="200"/>
-      <c r="Y446" s="200"/>
-      <c r="Z446" s="200"/>
-      <c r="AA446" s="200"/>
-      <c r="AB446" s="200"/>
-      <c r="AC446" s="200"/>
-      <c r="AD446" s="200"/>
-      <c r="AE446" s="200"/>
-      <c r="AF446" s="200"/>
-      <c r="AG446" s="200"/>
-      <c r="AH446" s="200"/>
-      <c r="AI446" s="200"/>
+      <c r="B446" s="190"/>
+      <c r="C446" s="194"/>
+      <c r="D446" s="194"/>
+      <c r="E446" s="194"/>
+      <c r="F446" s="194"/>
+      <c r="G446" s="194"/>
+      <c r="H446" s="194"/>
+      <c r="I446" s="194"/>
+      <c r="J446" s="194"/>
+      <c r="K446" s="194"/>
+      <c r="L446" s="194"/>
+      <c r="M446" s="194"/>
+      <c r="N446" s="194"/>
+      <c r="O446" s="194"/>
+      <c r="P446" s="194"/>
+      <c r="Q446" s="194"/>
+      <c r="R446" s="194"/>
+      <c r="S446" s="194"/>
+      <c r="T446" s="194"/>
+      <c r="U446" s="194"/>
+      <c r="V446" s="194"/>
+      <c r="W446" s="194"/>
+      <c r="X446" s="194"/>
+      <c r="Y446" s="194"/>
+      <c r="Z446" s="194"/>
+      <c r="AA446" s="194"/>
+      <c r="AB446" s="194"/>
+      <c r="AC446" s="194"/>
+      <c r="AD446" s="194"/>
+      <c r="AE446" s="194"/>
+      <c r="AF446" s="194"/>
+      <c r="AG446" s="194"/>
+      <c r="AH446" s="194"/>
+      <c r="AI446" s="194"/>
     </row>
     <row r="447" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B447" s="196"/>
-      <c r="C447" s="200"/>
-      <c r="D447" s="200"/>
-      <c r="E447" s="200"/>
-      <c r="F447" s="200"/>
-      <c r="G447" s="200"/>
-      <c r="H447" s="200"/>
-      <c r="I447" s="200"/>
-      <c r="J447" s="200"/>
-      <c r="K447" s="200"/>
-      <c r="L447" s="200"/>
-      <c r="M447" s="200"/>
-      <c r="N447" s="200"/>
-      <c r="O447" s="200"/>
-      <c r="P447" s="200"/>
-      <c r="Q447" s="200"/>
-      <c r="R447" s="200"/>
-      <c r="S447" s="200"/>
-      <c r="T447" s="200"/>
-      <c r="U447" s="200"/>
-      <c r="V447" s="200"/>
-      <c r="W447" s="200"/>
-      <c r="X447" s="200"/>
-      <c r="Y447" s="200"/>
-      <c r="Z447" s="200"/>
-      <c r="AA447" s="200"/>
-      <c r="AB447" s="200"/>
-      <c r="AC447" s="200"/>
-      <c r="AD447" s="200"/>
-      <c r="AE447" s="200"/>
-      <c r="AF447" s="200"/>
-      <c r="AG447" s="200"/>
-      <c r="AH447" s="200"/>
-      <c r="AI447" s="200"/>
+      <c r="B447" s="190"/>
+      <c r="C447" s="194"/>
+      <c r="D447" s="194"/>
+      <c r="E447" s="194"/>
+      <c r="F447" s="194"/>
+      <c r="G447" s="194"/>
+      <c r="H447" s="194"/>
+      <c r="I447" s="194"/>
+      <c r="J447" s="194"/>
+      <c r="K447" s="194"/>
+      <c r="L447" s="194"/>
+      <c r="M447" s="194"/>
+      <c r="N447" s="194"/>
+      <c r="O447" s="194"/>
+      <c r="P447" s="194"/>
+      <c r="Q447" s="194"/>
+      <c r="R447" s="194"/>
+      <c r="S447" s="194"/>
+      <c r="T447" s="194"/>
+      <c r="U447" s="194"/>
+      <c r="V447" s="194"/>
+      <c r="W447" s="194"/>
+      <c r="X447" s="194"/>
+      <c r="Y447" s="194"/>
+      <c r="Z447" s="194"/>
+      <c r="AA447" s="194"/>
+      <c r="AB447" s="194"/>
+      <c r="AC447" s="194"/>
+      <c r="AD447" s="194"/>
+      <c r="AE447" s="194"/>
+      <c r="AF447" s="194"/>
+      <c r="AG447" s="194"/>
+      <c r="AH447" s="194"/>
+      <c r="AI447" s="194"/>
     </row>
     <row r="448" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B448" s="196"/>
-      <c r="C448" s="200"/>
-      <c r="D448" s="200"/>
-      <c r="E448" s="200"/>
-      <c r="F448" s="200"/>
-      <c r="G448" s="200"/>
-      <c r="H448" s="200"/>
-      <c r="I448" s="200"/>
-      <c r="J448" s="200"/>
-      <c r="K448" s="200"/>
-      <c r="L448" s="200"/>
-      <c r="M448" s="200"/>
-      <c r="N448" s="200"/>
-      <c r="O448" s="200"/>
-      <c r="P448" s="200"/>
-      <c r="Q448" s="200"/>
-      <c r="R448" s="200"/>
-      <c r="S448" s="200"/>
-      <c r="T448" s="200"/>
-      <c r="U448" s="200"/>
-      <c r="V448" s="200"/>
-      <c r="W448" s="200"/>
-      <c r="X448" s="200"/>
-      <c r="Y448" s="200"/>
-      <c r="Z448" s="200"/>
-      <c r="AA448" s="200"/>
-      <c r="AB448" s="200"/>
-      <c r="AC448" s="200"/>
-      <c r="AD448" s="200"/>
-      <c r="AE448" s="200"/>
-      <c r="AF448" s="200"/>
-      <c r="AG448" s="200"/>
-      <c r="AH448" s="200"/>
-      <c r="AI448" s="200"/>
+      <c r="B448" s="190"/>
+      <c r="C448" s="194"/>
+      <c r="D448" s="194"/>
+      <c r="E448" s="194"/>
+      <c r="F448" s="194"/>
+      <c r="G448" s="194"/>
+      <c r="H448" s="194"/>
+      <c r="I448" s="194"/>
+      <c r="J448" s="194"/>
+      <c r="K448" s="194"/>
+      <c r="L448" s="194"/>
+      <c r="M448" s="194"/>
+      <c r="N448" s="194"/>
+      <c r="O448" s="194"/>
+      <c r="P448" s="194"/>
+      <c r="Q448" s="194"/>
+      <c r="R448" s="194"/>
+      <c r="S448" s="194"/>
+      <c r="T448" s="194"/>
+      <c r="U448" s="194"/>
+      <c r="V448" s="194"/>
+      <c r="W448" s="194"/>
+      <c r="X448" s="194"/>
+      <c r="Y448" s="194"/>
+      <c r="Z448" s="194"/>
+      <c r="AA448" s="194"/>
+      <c r="AB448" s="194"/>
+      <c r="AC448" s="194"/>
+      <c r="AD448" s="194"/>
+      <c r="AE448" s="194"/>
+      <c r="AF448" s="194"/>
+      <c r="AG448" s="194"/>
+      <c r="AH448" s="194"/>
+      <c r="AI448" s="194"/>
     </row>
     <row r="449" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B449" s="196"/>
-      <c r="C449" s="200"/>
-      <c r="D449" s="200"/>
-      <c r="E449" s="200"/>
-      <c r="F449" s="200"/>
-      <c r="G449" s="200"/>
-      <c r="H449" s="200"/>
-      <c r="I449" s="200"/>
-      <c r="J449" s="200"/>
-      <c r="K449" s="200"/>
-      <c r="L449" s="200"/>
-      <c r="M449" s="200"/>
-      <c r="N449" s="200"/>
-      <c r="O449" s="200"/>
-      <c r="P449" s="200"/>
-      <c r="Q449" s="200"/>
-      <c r="R449" s="200"/>
-      <c r="S449" s="200"/>
-      <c r="T449" s="200"/>
-      <c r="U449" s="200"/>
-      <c r="V449" s="200"/>
-      <c r="W449" s="200"/>
-      <c r="X449" s="200"/>
-      <c r="Y449" s="200"/>
-      <c r="Z449" s="200"/>
-      <c r="AA449" s="200"/>
-      <c r="AB449" s="200"/>
-      <c r="AC449" s="200"/>
-      <c r="AD449" s="200"/>
-      <c r="AE449" s="200"/>
-      <c r="AF449" s="200"/>
-      <c r="AG449" s="200"/>
-      <c r="AH449" s="200"/>
-      <c r="AI449" s="200"/>
+      <c r="B449" s="190"/>
+      <c r="C449" s="194"/>
+      <c r="D449" s="194"/>
+      <c r="E449" s="194"/>
+      <c r="F449" s="194"/>
+      <c r="G449" s="194"/>
+      <c r="H449" s="194"/>
+      <c r="I449" s="194"/>
+      <c r="J449" s="194"/>
+      <c r="K449" s="194"/>
+      <c r="L449" s="194"/>
+      <c r="M449" s="194"/>
+      <c r="N449" s="194"/>
+      <c r="O449" s="194"/>
+      <c r="P449" s="194"/>
+      <c r="Q449" s="194"/>
+      <c r="R449" s="194"/>
+      <c r="S449" s="194"/>
+      <c r="T449" s="194"/>
+      <c r="U449" s="194"/>
+      <c r="V449" s="194"/>
+      <c r="W449" s="194"/>
+      <c r="X449" s="194"/>
+      <c r="Y449" s="194"/>
+      <c r="Z449" s="194"/>
+      <c r="AA449" s="194"/>
+      <c r="AB449" s="194"/>
+      <c r="AC449" s="194"/>
+      <c r="AD449" s="194"/>
+      <c r="AE449" s="194"/>
+      <c r="AF449" s="194"/>
+      <c r="AG449" s="194"/>
+      <c r="AH449" s="194"/>
+      <c r="AI449" s="194"/>
     </row>
     <row r="450" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B450" s="196"/>
-      <c r="C450" s="200"/>
-      <c r="D450" s="200"/>
-      <c r="E450" s="200"/>
-      <c r="F450" s="200"/>
-      <c r="G450" s="200"/>
-      <c r="H450" s="200"/>
-      <c r="I450" s="200"/>
-      <c r="J450" s="200"/>
-      <c r="K450" s="200"/>
-      <c r="L450" s="200"/>
-      <c r="M450" s="200"/>
-      <c r="N450" s="200"/>
-      <c r="O450" s="200"/>
-      <c r="P450" s="200"/>
-      <c r="Q450" s="200"/>
-      <c r="R450" s="200"/>
-      <c r="S450" s="200"/>
-      <c r="T450" s="200"/>
-      <c r="U450" s="200"/>
-      <c r="V450" s="200"/>
-      <c r="W450" s="200"/>
-      <c r="X450" s="200"/>
-      <c r="Y450" s="200"/>
-      <c r="Z450" s="200"/>
-      <c r="AA450" s="200"/>
-      <c r="AB450" s="200"/>
-      <c r="AC450" s="200"/>
-      <c r="AD450" s="200"/>
-      <c r="AE450" s="200"/>
-      <c r="AF450" s="200"/>
-      <c r="AG450" s="200"/>
-      <c r="AH450" s="200"/>
-      <c r="AI450" s="200"/>
+      <c r="B450" s="190"/>
+      <c r="C450" s="194"/>
+      <c r="D450" s="194"/>
+      <c r="E450" s="194"/>
+      <c r="F450" s="194"/>
+      <c r="G450" s="194"/>
+      <c r="H450" s="194"/>
+      <c r="I450" s="194"/>
+      <c r="J450" s="194"/>
+      <c r="K450" s="194"/>
+      <c r="L450" s="194"/>
+      <c r="M450" s="194"/>
+      <c r="N450" s="194"/>
+      <c r="O450" s="194"/>
+      <c r="P450" s="194"/>
+      <c r="Q450" s="194"/>
+      <c r="R450" s="194"/>
+      <c r="S450" s="194"/>
+      <c r="T450" s="194"/>
+      <c r="U450" s="194"/>
+      <c r="V450" s="194"/>
+      <c r="W450" s="194"/>
+      <c r="X450" s="194"/>
+      <c r="Y450" s="194"/>
+      <c r="Z450" s="194"/>
+      <c r="AA450" s="194"/>
+      <c r="AB450" s="194"/>
+      <c r="AC450" s="194"/>
+      <c r="AD450" s="194"/>
+      <c r="AE450" s="194"/>
+      <c r="AF450" s="194"/>
+      <c r="AG450" s="194"/>
+      <c r="AH450" s="194"/>
+      <c r="AI450" s="194"/>
     </row>
     <row r="451" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B451" s="196"/>
-      <c r="C451" s="200"/>
-      <c r="D451" s="200"/>
-      <c r="E451" s="200"/>
-      <c r="F451" s="200"/>
-      <c r="G451" s="200"/>
-      <c r="H451" s="200"/>
-      <c r="I451" s="200"/>
-      <c r="J451" s="200"/>
-      <c r="K451" s="200"/>
-      <c r="L451" s="200"/>
-      <c r="M451" s="200"/>
-      <c r="N451" s="200"/>
-      <c r="O451" s="200"/>
-      <c r="P451" s="200"/>
-      <c r="Q451" s="200"/>
-      <c r="R451" s="200"/>
-      <c r="S451" s="200"/>
-      <c r="T451" s="200"/>
-      <c r="U451" s="200"/>
-      <c r="V451" s="200"/>
-      <c r="W451" s="200"/>
-      <c r="X451" s="200"/>
-      <c r="Y451" s="200"/>
-      <c r="Z451" s="200"/>
-      <c r="AA451" s="200"/>
-      <c r="AB451" s="200"/>
-      <c r="AC451" s="200"/>
-      <c r="AD451" s="200"/>
-      <c r="AE451" s="200"/>
-      <c r="AF451" s="200"/>
-      <c r="AG451" s="200"/>
-      <c r="AH451" s="200"/>
-      <c r="AI451" s="200"/>
+      <c r="B451" s="190"/>
+      <c r="C451" s="194"/>
+      <c r="D451" s="194"/>
+      <c r="E451" s="194"/>
+      <c r="F451" s="194"/>
+      <c r="G451" s="194"/>
+      <c r="H451" s="194"/>
+      <c r="I451" s="194"/>
+      <c r="J451" s="194"/>
+      <c r="K451" s="194"/>
+      <c r="L451" s="194"/>
+      <c r="M451" s="194"/>
+      <c r="N451" s="194"/>
+      <c r="O451" s="194"/>
+      <c r="P451" s="194"/>
+      <c r="Q451" s="194"/>
+      <c r="R451" s="194"/>
+      <c r="S451" s="194"/>
+      <c r="T451" s="194"/>
+      <c r="U451" s="194"/>
+      <c r="V451" s="194"/>
+      <c r="W451" s="194"/>
+      <c r="X451" s="194"/>
+      <c r="Y451" s="194"/>
+      <c r="Z451" s="194"/>
+      <c r="AA451" s="194"/>
+      <c r="AB451" s="194"/>
+      <c r="AC451" s="194"/>
+      <c r="AD451" s="194"/>
+      <c r="AE451" s="194"/>
+      <c r="AF451" s="194"/>
+      <c r="AG451" s="194"/>
+      <c r="AH451" s="194"/>
+      <c r="AI451" s="194"/>
     </row>
     <row r="452" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B452" s="196"/>
-      <c r="C452" s="200"/>
-      <c r="D452" s="200"/>
-      <c r="E452" s="200"/>
-      <c r="F452" s="200"/>
-      <c r="G452" s="200"/>
-      <c r="H452" s="200"/>
-      <c r="I452" s="200"/>
-      <c r="J452" s="200"/>
-      <c r="K452" s="200"/>
-      <c r="L452" s="200"/>
-      <c r="M452" s="200"/>
-      <c r="N452" s="200"/>
-      <c r="O452" s="200"/>
-      <c r="P452" s="200"/>
-      <c r="Q452" s="200"/>
-      <c r="R452" s="200"/>
-      <c r="S452" s="200"/>
-      <c r="T452" s="200"/>
-      <c r="U452" s="200"/>
-      <c r="V452" s="200"/>
-      <c r="W452" s="200"/>
-      <c r="X452" s="200"/>
-      <c r="Y452" s="200"/>
-      <c r="Z452" s="200"/>
-      <c r="AA452" s="200"/>
-      <c r="AB452" s="200"/>
-      <c r="AC452" s="200"/>
-      <c r="AD452" s="200"/>
-      <c r="AE452" s="200"/>
-      <c r="AF452" s="200"/>
-      <c r="AG452" s="200"/>
-      <c r="AH452" s="200"/>
-      <c r="AI452" s="200"/>
+      <c r="B452" s="190"/>
+      <c r="C452" s="194"/>
+      <c r="D452" s="194"/>
+      <c r="E452" s="194"/>
+      <c r="F452" s="194"/>
+      <c r="G452" s="194"/>
+      <c r="H452" s="194"/>
+      <c r="I452" s="194"/>
+      <c r="J452" s="194"/>
+      <c r="K452" s="194"/>
+      <c r="L452" s="194"/>
+      <c r="M452" s="194"/>
+      <c r="N452" s="194"/>
+      <c r="O452" s="194"/>
+      <c r="P452" s="194"/>
+      <c r="Q452" s="194"/>
+      <c r="R452" s="194"/>
+      <c r="S452" s="194"/>
+      <c r="T452" s="194"/>
+      <c r="U452" s="194"/>
+      <c r="V452" s="194"/>
+      <c r="W452" s="194"/>
+      <c r="X452" s="194"/>
+      <c r="Y452" s="194"/>
+      <c r="Z452" s="194"/>
+      <c r="AA452" s="194"/>
+      <c r="AB452" s="194"/>
+      <c r="AC452" s="194"/>
+      <c r="AD452" s="194"/>
+      <c r="AE452" s="194"/>
+      <c r="AF452" s="194"/>
+      <c r="AG452" s="194"/>
+      <c r="AH452" s="194"/>
+      <c r="AI452" s="194"/>
     </row>
     <row r="453" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B453" s="196"/>
-      <c r="C453" s="200"/>
-      <c r="D453" s="200"/>
-      <c r="E453" s="200"/>
-      <c r="F453" s="200"/>
-      <c r="G453" s="200"/>
-      <c r="H453" s="200"/>
-      <c r="I453" s="200"/>
-      <c r="J453" s="200"/>
-      <c r="K453" s="200"/>
-      <c r="L453" s="200"/>
-      <c r="M453" s="200"/>
-      <c r="N453" s="200"/>
-      <c r="O453" s="200"/>
-      <c r="P453" s="200"/>
-      <c r="Q453" s="200"/>
-      <c r="R453" s="200"/>
-      <c r="S453" s="200"/>
-      <c r="T453" s="200"/>
-      <c r="U453" s="200"/>
-      <c r="V453" s="200"/>
-      <c r="W453" s="200"/>
-      <c r="X453" s="200"/>
-      <c r="Y453" s="200"/>
-      <c r="Z453" s="200"/>
-      <c r="AA453" s="200"/>
-      <c r="AB453" s="200"/>
-      <c r="AC453" s="200"/>
-      <c r="AD453" s="200"/>
-      <c r="AE453" s="200"/>
-      <c r="AF453" s="200"/>
-      <c r="AG453" s="200"/>
-      <c r="AH453" s="200"/>
-      <c r="AI453" s="200"/>
+      <c r="B453" s="190"/>
+      <c r="C453" s="194"/>
+      <c r="D453" s="194"/>
+      <c r="E453" s="194"/>
+      <c r="F453" s="194"/>
+      <c r="G453" s="194"/>
+      <c r="H453" s="194"/>
+      <c r="I453" s="194"/>
+      <c r="J453" s="194"/>
+      <c r="K453" s="194"/>
+      <c r="L453" s="194"/>
+      <c r="M453" s="194"/>
+      <c r="N453" s="194"/>
+      <c r="O453" s="194"/>
+      <c r="P453" s="194"/>
+      <c r="Q453" s="194"/>
+      <c r="R453" s="194"/>
+      <c r="S453" s="194"/>
+      <c r="T453" s="194"/>
+      <c r="U453" s="194"/>
+      <c r="V453" s="194"/>
+      <c r="W453" s="194"/>
+      <c r="X453" s="194"/>
+      <c r="Y453" s="194"/>
+      <c r="Z453" s="194"/>
+      <c r="AA453" s="194"/>
+      <c r="AB453" s="194"/>
+      <c r="AC453" s="194"/>
+      <c r="AD453" s="194"/>
+      <c r="AE453" s="194"/>
+      <c r="AF453" s="194"/>
+      <c r="AG453" s="194"/>
+      <c r="AH453" s="194"/>
+      <c r="AI453" s="194"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J386" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>